--- a/output/QC결과서.xlsx
+++ b/output/QC결과서.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CAB_RIDES" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,8 +28,12 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -37,8 +41,16 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00bfbfbf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d9d9d9"/>
       </patternFill>
     </fill>
     <fill>
@@ -49,11 +61,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="009bc2e6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d9d9d9"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,6 +87,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -123,58 +151,51 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,421 +574,526 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>테이블 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>ITAMPRD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>CAB_RIDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>SW라이선스 사용등록 현황</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>테이블 상세</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>테이블 용량</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>테이블 기간</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>(693071, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>테이블 크기</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr"/>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>컬럼 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
           <t>공통</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="4" t="n"/>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="10" t="inlineStr">
         <is>
           <t>연속형</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="6" t="inlineStr">
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="11" t="inlineStr">
         <is>
           <t>범주형</t>
         </is>
       </c>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="4" t="n"/>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="9" t="n"/>
+      <c r="V10" s="7" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>컬럼 영문명</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>컬럼 한글명</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>데이터 타입</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>null 개수</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>%null</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>적재건수</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
+      <c r="H11" s="12" t="inlineStr">
         <is>
           <t>%적재건수</t>
         </is>
       </c>
-      <c r="I2" s="8" t="inlineStr">
+      <c r="I11" s="13" t="inlineStr">
         <is>
           <t>최솟값</t>
         </is>
       </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="J11" s="13" t="inlineStr">
         <is>
           <t>최댓값</t>
         </is>
       </c>
-      <c r="K2" s="8" t="inlineStr">
+      <c r="K11" s="13" t="inlineStr">
         <is>
           <t>평균</t>
         </is>
       </c>
-      <c r="L2" s="8" t="inlineStr">
+      <c r="L11" s="13" t="inlineStr">
         <is>
           <t>표준편차</t>
         </is>
       </c>
-      <c r="M2" s="8" t="inlineStr">
+      <c r="M11" s="13" t="inlineStr">
         <is>
           <t>중위수</t>
         </is>
       </c>
-      <c r="N2" s="9" t="inlineStr">
+      <c r="N11" s="14" t="inlineStr">
         <is>
           <t>범주수</t>
         </is>
       </c>
-      <c r="O2" s="9" t="inlineStr">
+      <c r="O11" s="14" t="inlineStr">
         <is>
           <t>범주</t>
         </is>
       </c>
-      <c r="P2" s="9" t="inlineStr">
+      <c r="P11" s="14" t="inlineStr">
         <is>
           <t>%범주</t>
         </is>
       </c>
-      <c r="Q2" s="9" t="inlineStr">
+      <c r="Q11" s="14" t="inlineStr">
         <is>
           <t>정의된 범주 외</t>
         </is>
       </c>
-      <c r="R2" s="9" t="inlineStr">
+      <c r="R11" s="14" t="inlineStr">
         <is>
           <t>정의된 범주 외 수</t>
         </is>
       </c>
-      <c r="S2" s="9" t="inlineStr">
+      <c r="S11" s="14" t="inlineStr">
         <is>
           <t>최빈값</t>
         </is>
       </c>
-      <c r="T2" s="9" t="inlineStr">
+      <c r="T11" s="14" t="inlineStr">
         <is>
           <t>최빈값 수</t>
         </is>
       </c>
-      <c r="U2" s="9" t="inlineStr">
+      <c r="U11" s="14" t="inlineStr">
         <is>
           <t>%최빈값</t>
         </is>
       </c>
-      <c r="V2" s="10" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="V11" s="12" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr"/>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="C12" s="15" t="inlineStr"/>
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>float64</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G12" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
+      <c r="H12" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I3" s="11" t="inlineStr">
+      <c r="I12" s="15" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J12" s="15" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="K3" s="11" t="inlineStr">
+      <c r="K12" s="15" t="inlineStr">
         <is>
           <t>2.1894297553930255</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr">
+      <c r="L12" s="15" t="inlineStr">
         <is>
           <t>1.1389369868597294</t>
         </is>
       </c>
-      <c r="M3" s="11" t="inlineStr">
+      <c r="M12" s="15" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="N3" s="11" t="inlineStr"/>
-      <c r="O3" s="11" t="inlineStr"/>
-      <c r="P3" s="11" t="inlineStr"/>
-      <c r="Q3" s="11" t="inlineStr"/>
-      <c r="R3" s="11" t="inlineStr"/>
-      <c r="S3" s="11" t="inlineStr"/>
-      <c r="T3" s="11" t="inlineStr"/>
-      <c r="U3" s="11" t="inlineStr"/>
-      <c r="V3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="N12" s="15" t="inlineStr"/>
+      <c r="O12" s="15" t="inlineStr"/>
+      <c r="P12" s="15" t="inlineStr"/>
+      <c r="Q12" s="15" t="inlineStr"/>
+      <c r="R12" s="15" t="inlineStr"/>
+      <c r="S12" s="15" t="inlineStr"/>
+      <c r="T12" s="15" t="inlineStr"/>
+      <c r="U12" s="15" t="inlineStr"/>
+      <c r="V12" s="15" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="inlineStr">
         <is>
           <t>001</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>cab_type</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr"/>
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F13" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G13" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H13" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I4" s="11" t="inlineStr"/>
-      <c r="J4" s="11" t="inlineStr"/>
-      <c r="K4" s="11" t="inlineStr"/>
-      <c r="L4" s="11" t="inlineStr"/>
-      <c r="M4" s="11" t="inlineStr"/>
-      <c r="N4" s="11" t="inlineStr">
+      <c r="I13" s="15" t="inlineStr"/>
+      <c r="J13" s="15" t="inlineStr"/>
+      <c r="K13" s="15" t="inlineStr"/>
+      <c r="L13" s="15" t="inlineStr"/>
+      <c r="M13" s="15" t="inlineStr"/>
+      <c r="N13" s="15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O4" s="11" t="inlineStr">
+      <c r="O13" s="15" t="inlineStr">
         <is>
           <t>Lyft,
 Ube</t>
         </is>
       </c>
-      <c r="P4" s="11" t="inlineStr">
+      <c r="P13" s="15" t="inlineStr">
         <is>
           <t>Lyft: 44.35%,
 Uber: 55.65%</t>
         </is>
       </c>
-      <c r="Q4" s="11" t="inlineStr"/>
-      <c r="R4" s="11" t="inlineStr"/>
-      <c r="S4" s="11" t="inlineStr">
+      <c r="Q13" s="15" t="inlineStr"/>
+      <c r="R13" s="15" t="inlineStr"/>
+      <c r="S13" s="15" t="inlineStr">
         <is>
           <t>Ube</t>
         </is>
       </c>
-      <c r="T4" s="11" t="inlineStr">
+      <c r="T13" s="15" t="inlineStr">
         <is>
           <t>Uber: 385,663</t>
         </is>
       </c>
-      <c r="U4" s="11" t="inlineStr">
+      <c r="U13" s="15" t="inlineStr">
         <is>
           <t>Uber: 55.65%</t>
         </is>
       </c>
-      <c r="V4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="V13" s="15" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>002</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>time_stamp</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr"/>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr"/>
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>int64</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H14" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I5" s="11" t="inlineStr">
+      <c r="I14" s="15" t="inlineStr">
         <is>
           <t>1543203646318</t>
         </is>
       </c>
-      <c r="J5" s="11" t="inlineStr">
+      <c r="J14" s="15" t="inlineStr">
         <is>
           <t>1545160510943</t>
         </is>
       </c>
-      <c r="K5" s="11" t="inlineStr">
+      <c r="K14" s="15" t="inlineStr">
         <is>
           <t>1544045709764.3572</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr">
+      <c r="L14" s="15" t="inlineStr">
         <is>
           <t>689192492.4004105</t>
         </is>
       </c>
-      <c r="M5" s="11" t="inlineStr">
+      <c r="M14" s="15" t="inlineStr">
         <is>
           <t>1543737477529.0</t>
         </is>
       </c>
-      <c r="N5" s="11" t="inlineStr"/>
-      <c r="O5" s="11" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr"/>
-      <c r="Q5" s="11" t="inlineStr"/>
-      <c r="R5" s="11" t="inlineStr"/>
-      <c r="S5" s="11" t="inlineStr"/>
-      <c r="T5" s="11" t="inlineStr"/>
-      <c r="U5" s="11" t="inlineStr"/>
-      <c r="V5" s="11" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="N14" s="15" t="inlineStr"/>
+      <c r="O14" s="15" t="inlineStr"/>
+      <c r="P14" s="15" t="inlineStr"/>
+      <c r="Q14" s="15" t="inlineStr"/>
+      <c r="R14" s="15" t="inlineStr"/>
+      <c r="S14" s="15" t="inlineStr"/>
+      <c r="T14" s="15" t="inlineStr"/>
+      <c r="U14" s="15" t="inlineStr"/>
+      <c r="V14" s="15" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>003</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>destination</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="C15" s="15" t="inlineStr"/>
+      <c r="D15" s="15" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F15" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="G15" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H15" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I6" s="11" t="inlineStr"/>
-      <c r="J6" s="11" t="inlineStr"/>
-      <c r="K6" s="11" t="inlineStr"/>
-      <c r="L6" s="11" t="inlineStr"/>
-      <c r="M6" s="11" t="inlineStr"/>
-      <c r="N6" s="11" t="inlineStr">
+      <c r="I15" s="15" t="inlineStr"/>
+      <c r="J15" s="15" t="inlineStr"/>
+      <c r="K15" s="15" t="inlineStr"/>
+      <c r="L15" s="15" t="inlineStr"/>
+      <c r="M15" s="15" t="inlineStr"/>
+      <c r="N15" s="15" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="O6" s="11" t="inlineStr">
+      <c r="O15" s="15" t="inlineStr">
         <is>
           <t>North Station,
 Northeastern University,
@@ -976,7 +1102,7 @@
 Boston Universit</t>
         </is>
       </c>
-      <c r="P6" s="11" t="inlineStr">
+      <c r="P15" s="15" t="inlineStr">
         <is>
           <t>North Station: 8.241%,
 Northeastern University: 8.333%,
@@ -986,73 +1112,73 @@
 그 외: 58.451%</t>
         </is>
       </c>
-      <c r="Q6" s="11" t="inlineStr"/>
-      <c r="R6" s="11" t="inlineStr"/>
-      <c r="S6" s="11" t="inlineStr">
+      <c r="Q15" s="15" t="inlineStr"/>
+      <c r="R15" s="15" t="inlineStr"/>
+      <c r="S15" s="15" t="inlineStr">
         <is>
           <t>Financial Distric</t>
         </is>
       </c>
-      <c r="T6" s="11" t="inlineStr">
+      <c r="T15" s="15" t="inlineStr">
         <is>
           <t>Financial District: 58,851</t>
         </is>
       </c>
-      <c r="U6" s="11" t="inlineStr">
+      <c r="U15" s="15" t="inlineStr">
         <is>
           <t>Financial District: 8.49%</t>
         </is>
       </c>
-      <c r="V6" s="11" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="V15" s="15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>004</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr"/>
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F16" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="G16" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="H16" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I7" s="11" t="inlineStr"/>
-      <c r="J7" s="11" t="inlineStr"/>
-      <c r="K7" s="11" t="inlineStr"/>
-      <c r="L7" s="11" t="inlineStr"/>
-      <c r="M7" s="11" t="inlineStr"/>
-      <c r="N7" s="11" t="inlineStr">
+      <c r="I16" s="15" t="inlineStr"/>
+      <c r="J16" s="15" t="inlineStr"/>
+      <c r="K16" s="15" t="inlineStr"/>
+      <c r="L16" s="15" t="inlineStr"/>
+      <c r="M16" s="15" t="inlineStr"/>
+      <c r="N16" s="15" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="O7" s="11" t="inlineStr">
+      <c r="O16" s="15" t="inlineStr">
         <is>
           <t>Haymarket Square,
 Back Bay,
@@ -1061,7 +1187,7 @@
 Northeastern Universit</t>
         </is>
       </c>
-      <c r="P7" s="11" t="inlineStr">
+      <c r="P16" s="15" t="inlineStr">
         <is>
           <t>Haymarket Square: 8.330%,
 Back Bay: 8.339%,
@@ -1071,217 +1197,217 @@
 그 외: 58.473%</t>
         </is>
       </c>
-      <c r="Q7" s="11" t="inlineStr"/>
-      <c r="R7" s="11" t="inlineStr"/>
-      <c r="S7" s="11" t="inlineStr">
+      <c r="Q16" s="15" t="inlineStr"/>
+      <c r="R16" s="15" t="inlineStr"/>
+      <c r="S16" s="15" t="inlineStr">
         <is>
           <t>Financial Distric</t>
         </is>
       </c>
-      <c r="T7" s="11" t="inlineStr">
+      <c r="T16" s="15" t="inlineStr">
         <is>
           <t>Financial District: 58,857</t>
         </is>
       </c>
-      <c r="U7" s="11" t="inlineStr">
+      <c r="U16" s="15" t="inlineStr">
         <is>
           <t>Financial District: 8.49%</t>
         </is>
       </c>
-      <c r="V7" s="11" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="V16" s="15" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr"/>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="C17" s="15" t="inlineStr"/>
+      <c r="D17" s="15" t="inlineStr">
         <is>
           <t>float64</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E17" s="15" t="inlineStr">
         <is>
           <t>55,095</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F17" s="15" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="G17" s="15" t="inlineStr">
         <is>
           <t>637,976</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="H17" s="15" t="inlineStr">
         <is>
           <t>92.05%</t>
         </is>
       </c>
-      <c r="I8" s="11" t="inlineStr">
+      <c r="I17" s="15" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="J8" s="11" t="inlineStr">
+      <c r="J17" s="15" t="inlineStr">
         <is>
           <t>97.5</t>
         </is>
       </c>
-      <c r="K8" s="11" t="inlineStr">
+      <c r="K17" s="15" t="inlineStr">
         <is>
           <t>16.545125490614065</t>
         </is>
       </c>
-      <c r="L8" s="11" t="inlineStr">
+      <c r="L17" s="15" t="inlineStr">
         <is>
           <t>9.324358581411627</t>
         </is>
       </c>
-      <c r="M8" s="11" t="inlineStr">
+      <c r="M17" s="15" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" s="11" t="inlineStr"/>
-      <c r="O8" s="11" t="inlineStr"/>
-      <c r="P8" s="11" t="inlineStr"/>
-      <c r="Q8" s="11" t="inlineStr"/>
-      <c r="R8" s="11" t="inlineStr"/>
-      <c r="S8" s="11" t="inlineStr"/>
-      <c r="T8" s="11" t="inlineStr"/>
-      <c r="U8" s="11" t="inlineStr"/>
-      <c r="V8" s="11" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="N17" s="15" t="inlineStr"/>
+      <c r="O17" s="15" t="inlineStr"/>
+      <c r="P17" s="15" t="inlineStr"/>
+      <c r="Q17" s="15" t="inlineStr"/>
+      <c r="R17" s="15" t="inlineStr"/>
+      <c r="S17" s="15" t="inlineStr"/>
+      <c r="T17" s="15" t="inlineStr"/>
+      <c r="U17" s="15" t="inlineStr"/>
+      <c r="V17" s="15" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>006</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>surge_multiplier</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr"/>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr"/>
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>float64</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="G18" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="H18" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I9" s="11" t="inlineStr">
+      <c r="I18" s="15" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J9" s="11" t="inlineStr">
+      <c r="J18" s="15" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="K9" s="11" t="inlineStr">
+      <c r="K18" s="15" t="inlineStr">
         <is>
           <t>1.0138697911180816</t>
         </is>
       </c>
-      <c r="L9" s="11" t="inlineStr">
+      <c r="L18" s="15" t="inlineStr">
         <is>
           <t>0.09164126209924149</t>
         </is>
       </c>
-      <c r="M9" s="11" t="inlineStr">
+      <c r="M18" s="15" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="N9" s="11" t="inlineStr"/>
-      <c r="O9" s="11" t="inlineStr"/>
-      <c r="P9" s="11" t="inlineStr"/>
-      <c r="Q9" s="11" t="inlineStr"/>
-      <c r="R9" s="11" t="inlineStr"/>
-      <c r="S9" s="11" t="inlineStr"/>
-      <c r="T9" s="11" t="inlineStr"/>
-      <c r="U9" s="11" t="inlineStr"/>
-      <c r="V9" s="11" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="N18" s="15" t="inlineStr"/>
+      <c r="O18" s="15" t="inlineStr"/>
+      <c r="P18" s="15" t="inlineStr"/>
+      <c r="Q18" s="15" t="inlineStr"/>
+      <c r="R18" s="15" t="inlineStr"/>
+      <c r="S18" s="15" t="inlineStr"/>
+      <c r="T18" s="15" t="inlineStr"/>
+      <c r="U18" s="15" t="inlineStr"/>
+      <c r="V18" s="15" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>007</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr"/>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr"/>
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E10" s="11" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F19" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="G19" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="H19" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I10" s="11" t="inlineStr"/>
-      <c r="J10" s="11" t="inlineStr"/>
-      <c r="K10" s="11" t="inlineStr"/>
-      <c r="L10" s="11" t="inlineStr"/>
-      <c r="M10" s="11" t="inlineStr"/>
-      <c r="N10" s="11" t="inlineStr">
+      <c r="I19" s="15" t="inlineStr"/>
+      <c r="J19" s="15" t="inlineStr"/>
+      <c r="K19" s="15" t="inlineStr"/>
+      <c r="L19" s="15" t="inlineStr"/>
+      <c r="M19" s="15" t="inlineStr"/>
+      <c r="N19" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="O10" s="11" t="inlineStr">
+      <c r="O19" s="15" t="inlineStr">
         <is>
           <t>424553bb-7174-41ea-aeb4-fe06d4f4b9d7,
 4bd23055-6827-41c6-b23b-3c491f24e74d,
@@ -1290,7 +1416,7 @@
 e7fdc087-fe86-40a5-a3c3-3b2a8badcbd</t>
         </is>
       </c>
-      <c r="P10" s="11" t="inlineStr">
+      <c r="P19" s="15" t="inlineStr">
         <is>
           <t>424553bb-7174-41ea-aeb4-fe06d4f4b9d7: 0.000%,
 4bd23055-6827-41c6-b23b-3c491f24e74d: 0.000%,
@@ -1300,77 +1426,77 @@
 그 외: 99.999%</t>
         </is>
       </c>
-      <c r="Q10" s="11" t="inlineStr"/>
-      <c r="R10" s="11" t="inlineStr"/>
-      <c r="S10" s="11" t="inlineStr">
+      <c r="Q19" s="15" t="inlineStr"/>
+      <c r="R19" s="15" t="inlineStr"/>
+      <c r="S19" s="15" t="inlineStr">
         <is>
           <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3,
 00006eeb-0183-40c1-8198-c441d3c8a734,
 ..</t>
         </is>
       </c>
-      <c r="T10" s="11" t="inlineStr">
+      <c r="T19" s="15" t="inlineStr">
         <is>
           <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3: 1,
 00006eeb-0183-40c1-8198-c441d3c8a734: 1</t>
         </is>
       </c>
-      <c r="U10" s="11" t="inlineStr">
+      <c r="U19" s="15" t="inlineStr">
         <is>
           <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3: 0.00%,
 00006eeb-0183-40c1-8198-c441d3c8a734: 0.00%</t>
         </is>
       </c>
-      <c r="V10" s="11" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="V19" s="15" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>008</t>
         </is>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B20" s="15" t="inlineStr">
         <is>
           <t>product_id</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr"/>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="C20" s="15" t="inlineStr"/>
+      <c r="D20" s="15" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
+      <c r="E20" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F20" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="G20" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="H20" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I11" s="11" t="inlineStr"/>
-      <c r="J11" s="11" t="inlineStr"/>
-      <c r="K11" s="11" t="inlineStr"/>
-      <c r="L11" s="11" t="inlineStr"/>
-      <c r="M11" s="11" t="inlineStr"/>
-      <c r="N11" s="11" t="inlineStr">
+      <c r="I20" s="15" t="inlineStr"/>
+      <c r="J20" s="15" t="inlineStr"/>
+      <c r="K20" s="15" t="inlineStr"/>
+      <c r="L20" s="15" t="inlineStr"/>
+      <c r="M20" s="15" t="inlineStr"/>
+      <c r="N20" s="15" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O11" s="11" t="inlineStr">
+      <c r="O20" s="15" t="inlineStr">
         <is>
           <t>lyft_line,
 lyft_premier,
@@ -1379,7 +1505,7 @@
 8cf7e821-f0d3-49c6-8eba-e679c0ebcf6</t>
         </is>
       </c>
-      <c r="P11" s="11" t="inlineStr">
+      <c r="P20" s="15" t="inlineStr">
         <is>
           <t>lyft_line: 7.392%,
 lyft_premier: 7.392%,
@@ -1389,79 +1515,79 @@
 그 외: 63.038%</t>
         </is>
       </c>
-      <c r="Q11" s="11" t="inlineStr"/>
-      <c r="R11" s="11" t="inlineStr"/>
-      <c r="S11" s="11" t="inlineStr">
+      <c r="Q20" s="15" t="inlineStr"/>
+      <c r="R20" s="15" t="inlineStr"/>
+      <c r="S20" s="15" t="inlineStr">
         <is>
           <t>6d318bcc-22a3-4af6-bddd-b409bfce1546,
 6f72dfc5-27f1-42e8-84db-ccc7a75f6969,
 9a0e7b09-b92b-4c41-9779-2ad22b4d779</t>
         </is>
       </c>
-      <c r="T11" s="11" t="inlineStr">
+      <c r="T20" s="15" t="inlineStr">
         <is>
           <t>6d318bcc-22a3-4af6-bddd-b409bfce1546: 55,096,
 6f72dfc5-27f1-42e8-84db-ccc7a75f6969: 55,096,
 9a0e7b09-b92b-4c41-9779-2ad22b4d779d: 55,096</t>
         </is>
       </c>
-      <c r="U11" s="11" t="inlineStr">
+      <c r="U20" s="15" t="inlineStr">
         <is>
           <t>6d318bcc-22a3-4af6-bddd-b409bfce1546: 7.95%,
 6f72dfc5-27f1-42e8-84db-ccc7a75f6969: 7.95%,
 9a0e7b09-b92b-4c41-9779-2ad22b4d779d: 7.95%</t>
         </is>
       </c>
-      <c r="V11" s="11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="V20" s="15" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="B21" s="15" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr"/>
+      <c r="D21" s="15" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="E12" s="11" t="inlineStr">
+      <c r="E21" s="15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F21" s="15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="G21" s="15" t="inlineStr">
         <is>
           <t>693,071</t>
         </is>
       </c>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="H21" s="15" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I12" s="11" t="inlineStr"/>
-      <c r="J12" s="11" t="inlineStr"/>
-      <c r="K12" s="11" t="inlineStr"/>
-      <c r="L12" s="11" t="inlineStr"/>
-      <c r="M12" s="11" t="inlineStr"/>
-      <c r="N12" s="11" t="inlineStr">
+      <c r="I21" s="15" t="inlineStr"/>
+      <c r="J21" s="15" t="inlineStr"/>
+      <c r="K21" s="15" t="inlineStr"/>
+      <c r="L21" s="15" t="inlineStr"/>
+      <c r="M21" s="15" t="inlineStr"/>
+      <c r="N21" s="15" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O12" s="11" t="inlineStr">
+      <c r="O21" s="15" t="inlineStr">
         <is>
           <t>Shared,
 Lux,
@@ -1470,7 +1596,7 @@
 Tax</t>
         </is>
       </c>
-      <c r="P12" s="11" t="inlineStr">
+      <c r="P21" s="15" t="inlineStr">
         <is>
           <t>Shared: 7.392%,
 Lux: 7.392%,
@@ -1480,37 +1606,40 @@
 그 외: 63.038%</t>
         </is>
       </c>
-      <c r="Q12" s="11" t="inlineStr"/>
-      <c r="R12" s="11" t="inlineStr"/>
-      <c r="S12" s="11" t="inlineStr">
+      <c r="Q21" s="15" t="inlineStr"/>
+      <c r="R21" s="15" t="inlineStr"/>
+      <c r="S21" s="15" t="inlineStr">
         <is>
           <t>Black SUV,
 UberXL,
 WA</t>
         </is>
       </c>
-      <c r="T12" s="11" t="inlineStr">
+      <c r="T21" s="15" t="inlineStr">
         <is>
           <t>Black SUV: 55,096,
 UberXL: 55,096,
 WAV: 55,096</t>
         </is>
       </c>
-      <c r="U12" s="11" t="inlineStr">
+      <c r="U21" s="15" t="inlineStr">
         <is>
           <t>Black SUV: 7.95%,
 UberXL: 7.95%,
 WAV: 7.95%</t>
         </is>
       </c>
-      <c r="V12" s="11" t="inlineStr"/>
+      <c r="V21" s="15" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="I1:M1"/>
+  <mergeCells count="7">
+    <mergeCell ref="N10:U10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/QC결과서.xlsx
+++ b/output/QC결과서.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>SW라이선스 사용등록 현황</t>
+          <t>택시운행정보</t>
         </is>
       </c>
     </row>

--- a/output/QC결과서.xlsx
+++ b/output/QC결과서.xlsx
@@ -649,11 +649,7 @@
           <t>테이블 기간</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>(693071, 10)</t>
-        </is>
-      </c>
+      <c r="C6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n"/>
@@ -662,7 +658,11 @@
           <t>테이블 크기</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>(693071, 10)</t>
+        </is>
+      </c>
     </row>
     <row r="8"/>
     <row r="9">
@@ -835,10 +835,14 @@
           <t>distance</t>
         </is>
       </c>
-      <c r="C12" s="15" t="inlineStr"/>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>운행거리</t>
+        </is>
+      </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -907,10 +911,14 @@
           <t>cab_type</t>
         </is>
       </c>
-      <c r="C13" s="15" t="inlineStr"/>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>택시유형</t>
+        </is>
+      </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>char</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -946,20 +954,27 @@
       <c r="O13" s="15" t="inlineStr">
         <is>
           <t>Lyft,
-Ube</t>
+Uber</t>
         </is>
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>Lyft: 44.35%,
-Uber: 55.65%</t>
-        </is>
-      </c>
-      <c r="Q13" s="15" t="inlineStr"/>
-      <c r="R13" s="15" t="inlineStr"/>
+          <t>Lyft: 44.354%,
+Uber: 55.646%</t>
+        </is>
+      </c>
+      <c r="Q13" s="15" t="inlineStr">
+        <is>
+          <t>Lyft,
+Uber</t>
+        </is>
+      </c>
+      <c r="R13" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>Ube</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
@@ -985,10 +1000,14 @@
           <t>time_stamp</t>
         </is>
       </c>
-      <c r="C14" s="15" t="inlineStr"/>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>수집시간</t>
+        </is>
+      </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -1057,10 +1076,14 @@
           <t>destination</t>
         </is>
       </c>
-      <c r="C15" s="15" t="inlineStr"/>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>도착지</t>
+        </is>
+      </c>
       <c r="D15" s="15" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E15" s="15" t="inlineStr">
@@ -1099,7 +1122,7 @@
 Northeastern University,
 ...,
 Financial District,
-Boston Universit</t>
+Boston University</t>
         </is>
       </c>
       <c r="P15" s="15" t="inlineStr">
@@ -1116,7 +1139,7 @@
       <c r="R15" s="15" t="inlineStr"/>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>Financial Distric</t>
+          <t>Financial District</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
@@ -1142,10 +1165,14 @@
           <t>source</t>
         </is>
       </c>
-      <c r="C16" s="15" t="inlineStr"/>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>출발지</t>
+        </is>
+      </c>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
@@ -1184,7 +1211,7 @@
 Back Bay,
 ...,
 Financial District,
-Northeastern Universit</t>
+Northeastern University</t>
         </is>
       </c>
       <c r="P16" s="15" t="inlineStr">
@@ -1201,7 +1228,7 @@
       <c r="R16" s="15" t="inlineStr"/>
       <c r="S16" s="15" t="inlineStr">
         <is>
-          <t>Financial Distric</t>
+          <t>Financial District</t>
         </is>
       </c>
       <c r="T16" s="15" t="inlineStr">
@@ -1227,10 +1254,14 @@
           <t>price</t>
         </is>
       </c>
-      <c r="C17" s="15" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>운행요금</t>
+        </is>
+      </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -1275,7 +1306,7 @@
       </c>
       <c r="M17" s="15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="N17" s="15" t="inlineStr"/>
@@ -1299,10 +1330,14 @@
           <t>surge_multiplier</t>
         </is>
       </c>
-      <c r="C18" s="15" t="inlineStr"/>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>요금배율</t>
+        </is>
+      </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -1371,10 +1406,14 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C19" s="15" t="inlineStr"/>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>고유ID</t>
+        </is>
+      </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
@@ -1413,7 +1452,7 @@
 4bd23055-6827-41c6-b23b-3c491f24e74d,
 ...,
 727e5f07-a96b-4ad1-a2c7-9abc3ad55b4e,
-e7fdc087-fe86-40a5-a3c3-3b2a8badcbd</t>
+e7fdc087-fe86-40a5-a3c3-3b2a8badcbda</t>
         </is>
       </c>
       <c r="P19" s="15" t="inlineStr">
@@ -1432,7 +1471,7 @@
         <is>
           <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3,
 00006eeb-0183-40c1-8198-c441d3c8a734,
-..</t>
+...</t>
         </is>
       </c>
       <c r="T19" s="15" t="inlineStr">
@@ -1460,10 +1499,14 @@
           <t>product_id</t>
         </is>
       </c>
-      <c r="C20" s="15" t="inlineStr"/>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>회사별고유ID</t>
+        </is>
+      </c>
       <c r="D20" s="15" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E20" s="15" t="inlineStr">
@@ -1502,7 +1545,7 @@
 lyft_premier,
 ...,
 997acbb5-e102-41e1-b155-9df7de0a73f2,
-8cf7e821-f0d3-49c6-8eba-e679c0ebcf6</t>
+8cf7e821-f0d3-49c6-8eba-e679c0ebcf6a</t>
         </is>
       </c>
       <c r="P20" s="15" t="inlineStr">
@@ -1521,7 +1564,7 @@
         <is>
           <t>6d318bcc-22a3-4af6-bddd-b409bfce1546,
 6f72dfc5-27f1-42e8-84db-ccc7a75f6969,
-9a0e7b09-b92b-4c41-9779-2ad22b4d779</t>
+9a0e7b09-b92b-4c41-9779-2ad22b4d779d</t>
         </is>
       </c>
       <c r="T20" s="15" t="inlineStr">
@@ -1551,10 +1594,14 @@
           <t>name</t>
         </is>
       </c>
-      <c r="C21" s="15" t="inlineStr"/>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>회사명</t>
+        </is>
+      </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
@@ -1593,7 +1640,7 @@
 Lux,
 ...,
 UberPool,
-Tax</t>
+Taxi</t>
         </is>
       </c>
       <c r="P21" s="15" t="inlineStr">
@@ -1612,7 +1659,7 @@
         <is>
           <t>Black SUV,
 UberXL,
-WA</t>
+WAV</t>
         </is>
       </c>
       <c r="T21" s="15" t="inlineStr">

--- a/output/QC결과서.xlsx
+++ b/output/QC결과서.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CAB_RIDES" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ZBZ_TX_HISTORY" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CAB_RIDES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CNT_TX_HISTORY" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ZTC_TX_HISTORY" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -563,6 +566,1057 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>테이블 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>ITAMPRD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>ZBZ_TX_HISTORY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Zombiz 토큰 거래 내역 데이터 테이블</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>테이블 상세</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>테이블 용량</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>테이블 기간</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>테이블 크기</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>(851, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>컬럼 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>공통</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>연속형</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="11" t="inlineStr">
+        <is>
+          <t>범주형</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="9" t="n"/>
+      <c r="V10" s="7" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 영문명</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 한글명</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>데이터 타입</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>null 개수</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>%null</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="inlineStr">
+        <is>
+          <t>적재건수</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>%적재건수</t>
+        </is>
+      </c>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>최솟값</t>
+        </is>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>최댓값</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>평균</t>
+        </is>
+      </c>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>표준편차</t>
+        </is>
+      </c>
+      <c r="M11" s="13" t="inlineStr">
+        <is>
+          <t>중위수</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>범주수</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>범주</t>
+        </is>
+      </c>
+      <c r="P11" s="14" t="inlineStr">
+        <is>
+          <t>%범주</t>
+        </is>
+      </c>
+      <c r="Q11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외</t>
+        </is>
+      </c>
+      <c r="R11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외 수</t>
+        </is>
+      </c>
+      <c r="S11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값</t>
+        </is>
+      </c>
+      <c r="T11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값 수</t>
+        </is>
+      </c>
+      <c r="U11" s="14" t="inlineStr">
+        <is>
+          <t>%최빈값</t>
+        </is>
+      </c>
+      <c r="V11" s="12" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="inlineStr">
+        <is>
+          <t>TX HASH</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>거래 해시 정보</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H12" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr"/>
+      <c r="J12" s="15" t="inlineStr"/>
+      <c r="K12" s="15" t="inlineStr"/>
+      <c r="L12" s="15" t="inlineStr"/>
+      <c r="M12" s="15" t="inlineStr"/>
+      <c r="N12" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="O12" s="15" t="inlineStr">
+        <is>
+          <t>0x981b6e3a9f5fb0ebcfea6c72df1f3d43e5fb720ad6f766e61edcbf67982baf61,
+0x76691b23957a9410ac078b3e41fe64380805844e033173be382407e8215ad531,
+...,
+0xd814cc0012d854dd9096602e32931d68787b63958dbbd9dd3f0f7dc574aae6ab,
+0x037e90a9180bcb25e1ba2424dfcd160f037d75b81b5da251033c767009e06ca2</t>
+        </is>
+      </c>
+      <c r="P12" s="15" t="inlineStr">
+        <is>
+          <t>0x981b6e3a9f5fb0ebcfea6c72df1f3d43e5fb720ad6f766e61edcbf67982baf61: 0.118%,
+0x76691b23957a9410ac078b3e41fe64380805844e033173be382407e8215ad531: 0.118%,
+0xe5d71480671a20a717e9eac91a3d3a967108b552e6a762669f1353928ec44914: 0.118%,
+0x25519e5a9bb28decdbcc577acc9c4dd70811e21188330b946d4430b6eda9c8fb: 0.118%,
+0x9cfde14eb6e3b8df05db53a220cfd60191b5bd6bc9374ed1d76e659fdd803d3a: 0.118%,
+그 외: 99.412%</t>
+        </is>
+      </c>
+      <c r="Q12" s="15" t="inlineStr"/>
+      <c r="R12" s="15" t="inlineStr"/>
+      <c r="S12" s="15" t="inlineStr">
+        <is>
+          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26,
+0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda,
+...</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
+        <is>
+          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26: 1,
+0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda: 1</t>
+        </is>
+      </c>
+      <c r="U12" s="15" t="inlineStr">
+        <is>
+          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26: 0.12%,
+0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda: 0.12%</t>
+        </is>
+      </c>
+      <c r="V12" s="15" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B13" s="15" t="inlineStr">
+        <is>
+          <t>BLOCK #</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>거래 블록 정보</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr"/>
+      <c r="J13" s="15" t="inlineStr"/>
+      <c r="K13" s="15" t="inlineStr"/>
+      <c r="L13" s="15" t="inlineStr"/>
+      <c r="M13" s="15" t="inlineStr"/>
+      <c r="N13" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="O13" s="15" t="inlineStr">
+        <is>
+          <t>106073777,
+106075492,
+...,
+117449276,
+117819562</t>
+        </is>
+      </c>
+      <c r="P13" s="15" t="inlineStr">
+        <is>
+          <t>106073777: 0.118%,
+106075492: 0.118%,
+106136694: 0.118%,
+106136808: 0.118%,
+106137869: 0.118%,
+그 외: 99.412%</t>
+        </is>
+      </c>
+      <c r="Q13" s="15" t="inlineStr"/>
+      <c r="R13" s="15" t="inlineStr"/>
+      <c r="S13" s="15" t="inlineStr">
+        <is>
+          <t>106073777,
+106075492,
+...</t>
+        </is>
+      </c>
+      <c r="T13" s="15" t="inlineStr">
+        <is>
+          <t>106073777: 1,
+106075492: 1</t>
+        </is>
+      </c>
+      <c r="U13" s="15" t="inlineStr">
+        <is>
+          <t>106073777: 0.12%,
+106075492: 0.12%</t>
+        </is>
+      </c>
+      <c r="V13" s="15" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>TIME(KST)</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>거래 일시</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr"/>
+      <c r="J14" s="15" t="inlineStr"/>
+      <c r="K14" s="15" t="inlineStr"/>
+      <c r="L14" s="15" t="inlineStr"/>
+      <c r="M14" s="15" t="inlineStr"/>
+      <c r="N14" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="O14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00,
+2022-11-09T17:06:26+09:00,
+...,
+2023-03-21T09:51:14+09:00,
+2023-03-25T16:45:02+09:00</t>
+        </is>
+      </c>
+      <c r="P14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00: 0.118%,
+2022-11-09T17:06:26+09:00: 0.118%,
+2022-11-10T10:06:32+09:00: 0.118%,
+2022-11-10T10:08:26+09:00: 0.118%,
+2022-11-10T10:26:07+09:00: 0.118%,
+그 외: 99.412%</t>
+        </is>
+      </c>
+      <c r="Q14" s="15" t="inlineStr"/>
+      <c r="R14" s="15" t="inlineStr"/>
+      <c r="S14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00,
+2022-11-09T17:06:26+09:00,
+...</t>
+        </is>
+      </c>
+      <c r="T14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00: 1,
+2022-11-09T17:06:26+09:00: 1</t>
+        </is>
+      </c>
+      <c r="U14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00: 0.12%,
+2022-11-09T17:06:26+09:00: 0.12%</t>
+        </is>
+      </c>
+      <c r="V14" s="15" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>토큰 출발 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I15" s="15" t="inlineStr"/>
+      <c r="J15" s="15" t="inlineStr"/>
+      <c r="K15" s="15" t="inlineStr"/>
+      <c r="L15" s="15" t="inlineStr"/>
+      <c r="M15" s="15" t="inlineStr"/>
+      <c r="N15" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O15" s="15" t="inlineStr">
+        <is>
+          <t>0x0640f07e775f907f0a092c416d55afa49a2ea25b,
+0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02,
+0x5792055e90f6b3d4b50759b768fa7483575e2684,
+0xac893beb1aa78598e640397838637e523197a62c</t>
+        </is>
+      </c>
+      <c r="P15" s="15" t="inlineStr">
+        <is>
+          <t>0x0640f07e775f907f0a092c416d55afa49a2ea25b: 0.118%,
+0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 99.530%,
+0x5792055e90f6b3d4b50759b768fa7483575e2684: 0.118%,
+0xac893beb1aa78598e640397838637e523197a62c: 0.235%</t>
+        </is>
+      </c>
+      <c r="Q15" s="15" t="inlineStr"/>
+      <c r="R15" s="15" t="inlineStr"/>
+      <c r="S15" s="15" t="inlineStr">
+        <is>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02</t>
+        </is>
+      </c>
+      <c r="T15" s="15" t="inlineStr">
+        <is>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 847</t>
+        </is>
+      </c>
+      <c r="U15" s="15" t="inlineStr">
+        <is>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 99.53%</t>
+        </is>
+      </c>
+      <c r="V15" s="15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>토큰 도착 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H16" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr"/>
+      <c r="J16" s="15" t="inlineStr"/>
+      <c r="K16" s="15" t="inlineStr"/>
+      <c r="L16" s="15" t="inlineStr"/>
+      <c r="M16" s="15" t="inlineStr"/>
+      <c r="N16" s="15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O16" s="15" t="inlineStr">
+        <is>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02,
+0x2bce562445a71cc5bd9d6f0a4ae601873b08a083,
+...,
+0x048614204ca4798157341040b323f7e72b7f9c4a,
+0x6d84231ef80e98fef0a760148d8372c0dad5ced3</t>
+        </is>
+      </c>
+      <c r="P16" s="15" t="inlineStr">
+        <is>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 0.470%,
+0x2bce562445a71cc5bd9d6f0a4ae601873b08a083: 0.940%,
+0xac893beb1aa78598e640397838637e523197a62c: 0.353%,
+0xe88df88e99874ddc11f2af0cc40bc746211dd03a: 3.173%,
+0x328d9d96b35fbb5fb418901313639bacc0169c76: 0.118%,
+그 외: 94.947%</t>
+        </is>
+      </c>
+      <c r="Q16" s="15" t="inlineStr"/>
+      <c r="R16" s="15" t="inlineStr"/>
+      <c r="S16" s="15" t="inlineStr">
+        <is>
+          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c</t>
+        </is>
+      </c>
+      <c r="T16" s="15" t="inlineStr">
+        <is>
+          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c: 248</t>
+        </is>
+      </c>
+      <c r="U16" s="15" t="inlineStr">
+        <is>
+          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c: 29.14%</t>
+        </is>
+      </c>
+      <c r="V16" s="15" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>토큰 거래액</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="J17" s="15" t="inlineStr">
+        <is>
+          <t>500000.0</t>
+        </is>
+      </c>
+      <c r="K17" s="15" t="inlineStr">
+        <is>
+          <t>856.8726987857423</t>
+        </is>
+      </c>
+      <c r="L17" s="15" t="inlineStr">
+        <is>
+          <t>17237.170530108375</t>
+        </is>
+      </c>
+      <c r="M17" s="15" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N17" s="15" t="inlineStr"/>
+      <c r="O17" s="15" t="inlineStr"/>
+      <c r="P17" s="15" t="inlineStr"/>
+      <c r="Q17" s="15" t="inlineStr"/>
+      <c r="R17" s="15" t="inlineStr"/>
+      <c r="S17" s="15" t="inlineStr"/>
+      <c r="T17" s="15" t="inlineStr"/>
+      <c r="U17" s="15" t="inlineStr"/>
+      <c r="V17" s="15" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN ADDRESS</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>토큰 주소 해시 정보</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr"/>
+      <c r="J18" s="15" t="inlineStr"/>
+      <c r="K18" s="15" t="inlineStr"/>
+      <c r="L18" s="15" t="inlineStr"/>
+      <c r="M18" s="15" t="inlineStr"/>
+      <c r="N18" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76</t>
+        </is>
+      </c>
+      <c r="P18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q18" s="15" t="inlineStr"/>
+      <c r="R18" s="15" t="inlineStr"/>
+      <c r="S18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76</t>
+        </is>
+      </c>
+      <c r="T18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 851</t>
+        </is>
+      </c>
+      <c r="U18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 100.00%</t>
+        </is>
+      </c>
+      <c r="V18" s="15" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B19" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN NAME</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>토큰명</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr"/>
+      <c r="J19" s="15" t="inlineStr"/>
+      <c r="K19" s="15" t="inlineStr"/>
+      <c r="L19" s="15" t="inlineStr"/>
+      <c r="M19" s="15" t="inlineStr"/>
+      <c r="N19" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" s="15" t="inlineStr">
+        <is>
+          <t>ZOMBIZ</t>
+        </is>
+      </c>
+      <c r="P19" s="15" t="inlineStr">
+        <is>
+          <t>ZOMBIZ: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q19" s="15" t="inlineStr"/>
+      <c r="R19" s="15" t="inlineStr"/>
+      <c r="S19" s="15" t="inlineStr">
+        <is>
+          <t>ZOMBIZ</t>
+        </is>
+      </c>
+      <c r="T19" s="15" t="inlineStr">
+        <is>
+          <t>ZOMBIZ: 851</t>
+        </is>
+      </c>
+      <c r="U19" s="15" t="inlineStr">
+        <is>
+          <t>ZOMBIZ: 100.00%</t>
+        </is>
+      </c>
+      <c r="V19" s="15" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN SYMBOL</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>토큰 기호</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G20" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr"/>
+      <c r="J20" s="15" t="inlineStr"/>
+      <c r="K20" s="15" t="inlineStr"/>
+      <c r="L20" s="15" t="inlineStr"/>
+      <c r="M20" s="15" t="inlineStr"/>
+      <c r="N20" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" s="15" t="inlineStr">
+        <is>
+          <t>ZBZ</t>
+        </is>
+      </c>
+      <c r="P20" s="15" t="inlineStr">
+        <is>
+          <t>ZBZ: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q20" s="15" t="inlineStr"/>
+      <c r="R20" s="15" t="inlineStr"/>
+      <c r="S20" s="15" t="inlineStr">
+        <is>
+          <t>ZBZ</t>
+        </is>
+      </c>
+      <c r="T20" s="15" t="inlineStr">
+        <is>
+          <t>ZBZ: 851</t>
+        </is>
+      </c>
+      <c r="U20" s="15" t="inlineStr">
+        <is>
+          <t>ZBZ: 100.00%</t>
+        </is>
+      </c>
+      <c r="V20" s="15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N10:U10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1677,6 +2731,2098 @@
         </is>
       </c>
       <c r="V21" s="15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N10:U10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>테이블 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>ITAMPRD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>CNT_TX_HISTORY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Continue 토큰 거래 내역 데이터 테이블</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>테이블 상세</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>테이블 용량</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>테이블 기간</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>테이블 크기</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>(2759, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>컬럼 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>공통</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>연속형</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="11" t="inlineStr">
+        <is>
+          <t>범주형</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="9" t="n"/>
+      <c r="V10" s="7" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 영문명</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 한글명</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>데이터 타입</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>null 개수</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>%null</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="inlineStr">
+        <is>
+          <t>적재건수</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>%적재건수</t>
+        </is>
+      </c>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>최솟값</t>
+        </is>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>최댓값</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>평균</t>
+        </is>
+      </c>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>표준편차</t>
+        </is>
+      </c>
+      <c r="M11" s="13" t="inlineStr">
+        <is>
+          <t>중위수</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>범주수</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>범주</t>
+        </is>
+      </c>
+      <c r="P11" s="14" t="inlineStr">
+        <is>
+          <t>%범주</t>
+        </is>
+      </c>
+      <c r="Q11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외</t>
+        </is>
+      </c>
+      <c r="R11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외 수</t>
+        </is>
+      </c>
+      <c r="S11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값</t>
+        </is>
+      </c>
+      <c r="T11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값 수</t>
+        </is>
+      </c>
+      <c r="U11" s="14" t="inlineStr">
+        <is>
+          <t>%최빈값</t>
+        </is>
+      </c>
+      <c r="V11" s="12" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="inlineStr">
+        <is>
+          <t>TX HASH</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>거래 해시 정보</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H12" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr"/>
+      <c r="J12" s="15" t="inlineStr"/>
+      <c r="K12" s="15" t="inlineStr"/>
+      <c r="L12" s="15" t="inlineStr"/>
+      <c r="M12" s="15" t="inlineStr"/>
+      <c r="N12" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="O12" s="15" t="inlineStr">
+        <is>
+          <t>0x789d1ef238766be3bf123ca9ea74234057bedb19e6a2fe90a03673216bbdec67,
+0xafa6fc06f6528061b8eda052d74eb644391a192f7e379f6863fe7f47bf461ec9,
+...,
+0x21de32a43af8284e71a26a7ca28c498be9a8076a6a20ba188aef18a85084cddf,
+0x9799c090a94003196f5206673f53bc4e854b5e456d3a5d80781f00fffc3f7598</t>
+        </is>
+      </c>
+      <c r="P12" s="15" t="inlineStr">
+        <is>
+          <t>0x789d1ef238766be3bf123ca9ea74234057bedb19e6a2fe90a03673216bbdec67: 0.036%,
+0xafa6fc06f6528061b8eda052d74eb644391a192f7e379f6863fe7f47bf461ec9: 0.036%,
+0x039a31f70ce0653abb2ff5b993cc53965738236563b8d315e5d30756e385ca56: 0.036%,
+0xc76288d470ac9bd0408ce8b2f92180930d3c8a2c8463921a728bb5395d48362c: 0.036%,
+0x143758c254a035777c621f252e4dab9a1157be947e004c82c8496d805109dd48: 0.036%,
+그 외: 99.819%</t>
+        </is>
+      </c>
+      <c r="Q12" s="15" t="inlineStr"/>
+      <c r="R12" s="15" t="inlineStr"/>
+      <c r="S12" s="15" t="inlineStr">
+        <is>
+          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee,
+0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22,
+...</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
+        <is>
+          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee: 1,
+0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22: 1</t>
+        </is>
+      </c>
+      <c r="U12" s="15" t="inlineStr">
+        <is>
+          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee: 0.04%,
+0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22: 0.04%</t>
+        </is>
+      </c>
+      <c r="V12" s="15" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B13" s="15" t="inlineStr">
+        <is>
+          <t>BLOCK #</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>거래 블록 정보</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr"/>
+      <c r="J13" s="15" t="inlineStr"/>
+      <c r="K13" s="15" t="inlineStr"/>
+      <c r="L13" s="15" t="inlineStr"/>
+      <c r="M13" s="15" t="inlineStr"/>
+      <c r="N13" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="O13" s="15" t="inlineStr">
+        <is>
+          <t>93304700,
+93304731,
+...,
+113179801,
+113282226</t>
+        </is>
+      </c>
+      <c r="P13" s="15" t="inlineStr">
+        <is>
+          <t>93304700: 0.036%,
+93304731: 0.036%,
+93304987: 0.036%,
+93305965: 0.036%,
+93308887: 0.036%,
+그 외: 99.819%</t>
+        </is>
+      </c>
+      <c r="Q13" s="15" t="inlineStr"/>
+      <c r="R13" s="15" t="inlineStr"/>
+      <c r="S13" s="15" t="inlineStr">
+        <is>
+          <t>93304700,
+93304731,
+...</t>
+        </is>
+      </c>
+      <c r="T13" s="15" t="inlineStr">
+        <is>
+          <t>93304700: 1,
+93304731: 1</t>
+        </is>
+      </c>
+      <c r="U13" s="15" t="inlineStr">
+        <is>
+          <t>93304700: 0.04%,
+93304731: 0.04%</t>
+        </is>
+      </c>
+      <c r="V13" s="15" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>TIME(KST)</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>거래 일시</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr"/>
+      <c r="J14" s="15" t="inlineStr"/>
+      <c r="K14" s="15" t="inlineStr"/>
+      <c r="L14" s="15" t="inlineStr"/>
+      <c r="M14" s="15" t="inlineStr"/>
+      <c r="N14" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="O14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00,
+2022-06-14T18:02:00+09:00,
+...,
+2023-01-30T22:54:09+09:00,
+2023-02-01T03:21:27+09:00</t>
+        </is>
+      </c>
+      <c r="P14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00: 0.036%,
+2022-06-14T18:02:00+09:00: 0.036%,
+2022-06-14T18:06:16+09:00: 0.036%,
+2022-06-14T18:22:36+09:00: 0.036%,
+2022-06-14T19:11:20+09:00: 0.036%,
+그 외: 99.819%</t>
+        </is>
+      </c>
+      <c r="Q14" s="15" t="inlineStr"/>
+      <c r="R14" s="15" t="inlineStr"/>
+      <c r="S14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00,
+2022-06-14T18:02:00+09:00,
+...</t>
+        </is>
+      </c>
+      <c r="T14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00: 1,
+2022-06-14T18:02:00+09:00: 1</t>
+        </is>
+      </c>
+      <c r="U14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00: 0.04%,
+2022-06-14T18:02:00+09:00: 0.04%</t>
+        </is>
+      </c>
+      <c r="V14" s="15" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>토큰 출발 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I15" s="15" t="inlineStr"/>
+      <c r="J15" s="15" t="inlineStr"/>
+      <c r="K15" s="15" t="inlineStr"/>
+      <c r="L15" s="15" t="inlineStr"/>
+      <c r="M15" s="15" t="inlineStr"/>
+      <c r="N15" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O15" s="15" t="inlineStr">
+        <is>
+          <t>0x8b40827ca57ea1515ba15636400292ae0c717d13,
+0x718d06fd054b51101c13d09ad24e50276701a2ab,
+0x33c72b721ef0195cbcd4256941ef81b1c65c2658</t>
+        </is>
+      </c>
+      <c r="P15" s="15" t="inlineStr">
+        <is>
+          <t>0x8b40827ca57ea1515ba15636400292ae0c717d13: 0.036%,
+0x718d06fd054b51101c13d09ad24e50276701a2ab: 99.928%,
+0x33c72b721ef0195cbcd4256941ef81b1c65c2658: 0.036%</t>
+        </is>
+      </c>
+      <c r="Q15" s="15" t="inlineStr"/>
+      <c r="R15" s="15" t="inlineStr"/>
+      <c r="S15" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab</t>
+        </is>
+      </c>
+      <c r="T15" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 2,757</t>
+        </is>
+      </c>
+      <c r="U15" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 99.93%</t>
+        </is>
+      </c>
+      <c r="V15" s="15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>토큰 도착 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H16" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr"/>
+      <c r="J16" s="15" t="inlineStr"/>
+      <c r="K16" s="15" t="inlineStr"/>
+      <c r="L16" s="15" t="inlineStr"/>
+      <c r="M16" s="15" t="inlineStr"/>
+      <c r="N16" s="15" t="inlineStr">
+        <is>
+          <t>1,574</t>
+        </is>
+      </c>
+      <c r="O16" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab,
+0xa585c4189ec2987e91ec6a3134ee2aca06ccc080,
+...,
+0x42f30cec611ddb87b1baad50442d7cb7dfd520f1,
+0x22610d46d4590e8c24dc5bdff3d9c47bf5afffc3</t>
+        </is>
+      </c>
+      <c r="P16" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 0.072%,
+0xa585c4189ec2987e91ec6a3134ee2aca06ccc080: 0.036%,
+0x2bce562445a71cc5bd9d6f0a4ae601873b08a083: 0.036%,
+0x1fa12dceae97d7d0d156273abde69c1d4d147173: 0.072%,
+0x394e9c1a8847f66475e33be4227da71ff9855e54: 0.036%,
+그 외: 99.746%</t>
+        </is>
+      </c>
+      <c r="Q16" s="15" t="inlineStr"/>
+      <c r="R16" s="15" t="inlineStr"/>
+      <c r="S16" s="15" t="inlineStr">
+        <is>
+          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed</t>
+        </is>
+      </c>
+      <c r="T16" s="15" t="inlineStr">
+        <is>
+          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed: 36</t>
+        </is>
+      </c>
+      <c r="U16" s="15" t="inlineStr">
+        <is>
+          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed: 1.30%</t>
+        </is>
+      </c>
+      <c r="V16" s="15" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>토큰 거래액</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J17" s="15" t="inlineStr">
+        <is>
+          <t>49999.99999999999</t>
+        </is>
+      </c>
+      <c r="K17" s="15" t="inlineStr">
+        <is>
+          <t>35.08902029720913</t>
+        </is>
+      </c>
+      <c r="L17" s="15" t="inlineStr">
+        <is>
+          <t>970.8062488427979</t>
+        </is>
+      </c>
+      <c r="M17" s="15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="N17" s="15" t="inlineStr"/>
+      <c r="O17" s="15" t="inlineStr"/>
+      <c r="P17" s="15" t="inlineStr"/>
+      <c r="Q17" s="15" t="inlineStr"/>
+      <c r="R17" s="15" t="inlineStr"/>
+      <c r="S17" s="15" t="inlineStr"/>
+      <c r="T17" s="15" t="inlineStr"/>
+      <c r="U17" s="15" t="inlineStr"/>
+      <c r="V17" s="15" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN ADDRESS</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>토큰 주소 해시 정보</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr"/>
+      <c r="J18" s="15" t="inlineStr"/>
+      <c r="K18" s="15" t="inlineStr"/>
+      <c r="L18" s="15" t="inlineStr"/>
+      <c r="M18" s="15" t="inlineStr"/>
+      <c r="N18" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818</t>
+        </is>
+      </c>
+      <c r="P18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q18" s="15" t="inlineStr"/>
+      <c r="R18" s="15" t="inlineStr"/>
+      <c r="S18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818</t>
+        </is>
+      </c>
+      <c r="T18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 2,759</t>
+        </is>
+      </c>
+      <c r="U18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 100.00%</t>
+        </is>
+      </c>
+      <c r="V18" s="15" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B19" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN NAME</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>토큰명</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr"/>
+      <c r="J19" s="15" t="inlineStr"/>
+      <c r="K19" s="15" t="inlineStr"/>
+      <c r="L19" s="15" t="inlineStr"/>
+      <c r="M19" s="15" t="inlineStr"/>
+      <c r="N19" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token</t>
+        </is>
+      </c>
+      <c r="P19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q19" s="15" t="inlineStr"/>
+      <c r="R19" s="15" t="inlineStr"/>
+      <c r="S19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token</t>
+        </is>
+      </c>
+      <c r="T19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token: 2,759</t>
+        </is>
+      </c>
+      <c r="U19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token: 100.00%</t>
+        </is>
+      </c>
+      <c r="V19" s="15" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN SYMBOL</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>토큰 기호</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G20" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr"/>
+      <c r="J20" s="15" t="inlineStr"/>
+      <c r="K20" s="15" t="inlineStr"/>
+      <c r="L20" s="15" t="inlineStr"/>
+      <c r="M20" s="15" t="inlineStr"/>
+      <c r="N20" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" s="15" t="inlineStr">
+        <is>
+          <t>CNT</t>
+        </is>
+      </c>
+      <c r="P20" s="15" t="inlineStr">
+        <is>
+          <t>CNT: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q20" s="15" t="inlineStr"/>
+      <c r="R20" s="15" t="inlineStr"/>
+      <c r="S20" s="15" t="inlineStr">
+        <is>
+          <t>CNT</t>
+        </is>
+      </c>
+      <c r="T20" s="15" t="inlineStr">
+        <is>
+          <t>CNT: 2,759</t>
+        </is>
+      </c>
+      <c r="U20" s="15" t="inlineStr">
+        <is>
+          <t>CNT: 100.00%</t>
+        </is>
+      </c>
+      <c r="V20" s="15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N10:U10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>테이블 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>ITAMPRD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>ZTC_TX_HISTORY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Zattera 토큰 거래 내역 데이터 테이블</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>테이블 상세</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>테이블 용량</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>테이블 기간</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>테이블 크기</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>(70067, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>컬럼 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>공통</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>연속형</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="11" t="inlineStr">
+        <is>
+          <t>범주형</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="9" t="n"/>
+      <c r="V10" s="7" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 영문명</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 한글명</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>데이터 타입</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>null 개수</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>%null</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="inlineStr">
+        <is>
+          <t>적재건수</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>%적재건수</t>
+        </is>
+      </c>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>최솟값</t>
+        </is>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>최댓값</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>평균</t>
+        </is>
+      </c>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>표준편차</t>
+        </is>
+      </c>
+      <c r="M11" s="13" t="inlineStr">
+        <is>
+          <t>중위수</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>범주수</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>범주</t>
+        </is>
+      </c>
+      <c r="P11" s="14" t="inlineStr">
+        <is>
+          <t>%범주</t>
+        </is>
+      </c>
+      <c r="Q11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외</t>
+        </is>
+      </c>
+      <c r="R11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외 수</t>
+        </is>
+      </c>
+      <c r="S11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값</t>
+        </is>
+      </c>
+      <c r="T11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값 수</t>
+        </is>
+      </c>
+      <c r="U11" s="14" t="inlineStr">
+        <is>
+          <t>%최빈값</t>
+        </is>
+      </c>
+      <c r="V11" s="12" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="inlineStr">
+        <is>
+          <t>TX HASH</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>거래 해시 정보</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H12" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr"/>
+      <c r="J12" s="15" t="inlineStr"/>
+      <c r="K12" s="15" t="inlineStr"/>
+      <c r="L12" s="15" t="inlineStr"/>
+      <c r="M12" s="15" t="inlineStr"/>
+      <c r="N12" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="O12" s="15" t="inlineStr">
+        <is>
+          <t>0xeb4587dc059f3f425acc6f4ed5fdc4ffc888916ee2e638672bff4f8d8875d13d,
+0xa251e8463c37e9cec2d30c43cccd40dc648562b03378d9e6e494e1a4bad37761,
+...,
+0x69d0505a90376991b70a035f2b012d8358ee0e3688f1f69ef50a9f7332f4f9f3,
+0xb46d9d7ad3f7594e8f8be13a3c42ad301cbeeb309de47fcfb46a8297e9977ab8</t>
+        </is>
+      </c>
+      <c r="P12" s="15" t="inlineStr">
+        <is>
+          <t>0xeb4587dc059f3f425acc6f4ed5fdc4ffc888916ee2e638672bff4f8d8875d13d: 0.001%,
+0xa251e8463c37e9cec2d30c43cccd40dc648562b03378d9e6e494e1a4bad37761: 0.001%,
+0x67c03d306ed66b537734920c479c6ae72daf2af7ff8e3e046b889e7eb12cab4e: 0.001%,
+0x020b1daf64664def67d57481caedab2902a3d713ac8f3329e5f1d11e34633247: 0.001%,
+0x2b93f80c2d9485e4d43afc7f4f8de5589f7bcd9b74bab8179d58458e9eb60b28: 0.001%,
+그 외: 99.993%</t>
+        </is>
+      </c>
+      <c r="Q12" s="15" t="inlineStr"/>
+      <c r="R12" s="15" t="inlineStr"/>
+      <c r="S12" s="15" t="inlineStr">
+        <is>
+          <t>0x000071df9941a2e35150a8d144c74b4ac6df414ec459d441a1c8ae23a31b2e91,
+0x0001330429e8bdd484fe07070441ef242598f6e3c3be5dc598d632d1ca2e763c,
+...</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
+        <is>
+          <t>0x000071df9941a2e35150a8d144c74b4ac6df414ec459d441a1c8ae23a31b2e91: 1,
+0x0001330429e8bdd484fe07070441ef242598f6e3c3be5dc598d632d1ca2e763c: 1</t>
+        </is>
+      </c>
+      <c r="U12" s="15" t="inlineStr">
+        <is>
+          <t>0x000071df9941a2e35150a8d144c74b4ac6df414ec459d441a1c8ae23a31b2e91: 0.00%,
+0x0001330429e8bdd484fe07070441ef242598f6e3c3be5dc598d632d1ca2e763c: 0.00%</t>
+        </is>
+      </c>
+      <c r="V12" s="15" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B13" s="15" t="inlineStr">
+        <is>
+          <t>BLOCK #</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>거래 블록 정보</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr"/>
+      <c r="J13" s="15" t="inlineStr"/>
+      <c r="K13" s="15" t="inlineStr"/>
+      <c r="L13" s="15" t="inlineStr"/>
+      <c r="M13" s="15" t="inlineStr"/>
+      <c r="N13" s="15" t="inlineStr">
+        <is>
+          <t>56,385</t>
+        </is>
+      </c>
+      <c r="O13" s="15" t="inlineStr">
+        <is>
+          <t>90830108,
+90860434,
+...,
+113784573,
+113784755</t>
+        </is>
+      </c>
+      <c r="P13" s="15" t="inlineStr">
+        <is>
+          <t>90830108: 0.001%,
+90860434: 0.001%,
+90869468: 0.001%,
+90869671: 0.001%,
+90869782: 0.001%,
+그 외: 99.993%</t>
+        </is>
+      </c>
+      <c r="Q13" s="15" t="inlineStr"/>
+      <c r="R13" s="15" t="inlineStr"/>
+      <c r="S13" s="15" t="inlineStr">
+        <is>
+          <t>100465743</t>
+        </is>
+      </c>
+      <c r="T13" s="15" t="inlineStr">
+        <is>
+          <t>100465743: 43</t>
+        </is>
+      </c>
+      <c r="U13" s="15" t="inlineStr">
+        <is>
+          <t>100465743: 0.06%</t>
+        </is>
+      </c>
+      <c r="V13" s="15" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>TIME(KST)</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>거래 일시</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr"/>
+      <c r="J14" s="15" t="inlineStr"/>
+      <c r="K14" s="15" t="inlineStr"/>
+      <c r="L14" s="15" t="inlineStr"/>
+      <c r="M14" s="15" t="inlineStr"/>
+      <c r="N14" s="15" t="inlineStr">
+        <is>
+          <t>56,385</t>
+        </is>
+      </c>
+      <c r="O14" s="15" t="inlineStr">
+        <is>
+          <t>2022-05-17 01:52:37+09:00,
+2022-05-17 10:19:12+09:00,
+...,
+2023-02-06 22:55:42+09:00,
+2023-02-06 22:58:44+09:00</t>
+        </is>
+      </c>
+      <c r="P14" s="15" t="inlineStr">
+        <is>
+          <t>2022-05-17 01:52:37+09:00: 0.001%,
+2022-05-17 10:19:12+09:00: 0.001%,
+2022-05-17 12:49:51+09:00: 0.001%,
+2022-05-17 12:53:14+09:00: 0.001%,
+2022-05-17 12:55:05+09:00: 0.001%,
+그 외: 99.993%</t>
+        </is>
+      </c>
+      <c r="Q14" s="15" t="inlineStr"/>
+      <c r="R14" s="15" t="inlineStr"/>
+      <c r="S14" s="15" t="inlineStr">
+        <is>
+          <t>2022-09-05 17:36:32+09:00</t>
+        </is>
+      </c>
+      <c r="T14" s="15" t="inlineStr">
+        <is>
+          <t>2022-09-05 17:36:32+09:00: 43</t>
+        </is>
+      </c>
+      <c r="U14" s="15" t="inlineStr">
+        <is>
+          <t>2022-09-05 17:36:32+09:00: 0.06%</t>
+        </is>
+      </c>
+      <c r="V14" s="15" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>토큰 출발 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I15" s="15" t="inlineStr"/>
+      <c r="J15" s="15" t="inlineStr"/>
+      <c r="K15" s="15" t="inlineStr"/>
+      <c r="L15" s="15" t="inlineStr"/>
+      <c r="M15" s="15" t="inlineStr"/>
+      <c r="N15" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O15" s="15" t="inlineStr">
+        <is>
+          <t>0x386bcd94f0b0f457b5bfa3933a37a0d040854e87,
+0x5abdc42a2953c8302545ca375a00516a6879c512,
+0x07a8d24139261da73755c87b8b4df825c7cdfd15,
+0x18be210b835e0179885ca4395f59465687e3a3cb</t>
+        </is>
+      </c>
+      <c r="P15" s="15" t="inlineStr">
+        <is>
+          <t>0x386bcd94f0b0f457b5bfa3933a37a0d040854e87: 0.001%,
+0x5abdc42a2953c8302545ca375a00516a6879c512: 99.996%,
+0x07a8d24139261da73755c87b8b4df825c7cdfd15: 0.001%,
+0x18be210b835e0179885ca4395f59465687e3a3cb: 0.001%</t>
+        </is>
+      </c>
+      <c r="Q15" s="15" t="inlineStr"/>
+      <c r="R15" s="15" t="inlineStr"/>
+      <c r="S15" s="15" t="inlineStr">
+        <is>
+          <t>0x5abdc42a2953c8302545ca375a00516a6879c512</t>
+        </is>
+      </c>
+      <c r="T15" s="15" t="inlineStr">
+        <is>
+          <t>0x5abdc42a2953c8302545ca375a00516a6879c512: 70,064</t>
+        </is>
+      </c>
+      <c r="U15" s="15" t="inlineStr">
+        <is>
+          <t>0x5abdc42a2953c8302545ca375a00516a6879c512: 100.00%</t>
+        </is>
+      </c>
+      <c r="V15" s="15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>토큰 도착 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H16" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr"/>
+      <c r="J16" s="15" t="inlineStr"/>
+      <c r="K16" s="15" t="inlineStr"/>
+      <c r="L16" s="15" t="inlineStr"/>
+      <c r="M16" s="15" t="inlineStr"/>
+      <c r="N16" s="15" t="inlineStr">
+        <is>
+          <t>6,078</t>
+        </is>
+      </c>
+      <c r="O16" s="15" t="inlineStr">
+        <is>
+          <t>0x5abdc42a2953c8302545ca375a00516a6879c512,
+0x264cf644d3a9e3d04ad8b540b2c038d87b53148e,
+...,
+0xc253607331563633e6452228a11f21dcf3ba69ed,
+0x8395ab55d822e346081640a68eee01044b1f1108</t>
+        </is>
+      </c>
+      <c r="P16" s="15" t="inlineStr">
+        <is>
+          <t>0x5abdc42a2953c8302545ca375a00516a6879c512: 0.004%,
+0x264cf644d3a9e3d04ad8b540b2c038d87b53148e: 0.001%,
+0x3b138b5e72ca865296d9c6801e625c98910f5324: 0.163%,
+0x871a78f35d2509bbe519e1d0043459f8dd88de37: 0.001%,
+0x2f4501306258735e4278f7e38eed60acc7e64614: 0.014%,
+그 외: 99.816%</t>
+        </is>
+      </c>
+      <c r="Q16" s="15" t="inlineStr"/>
+      <c r="R16" s="15" t="inlineStr"/>
+      <c r="S16" s="15" t="inlineStr">
+        <is>
+          <t>0x708969bf3e18a758759f74c18f4407e98d732dde</t>
+        </is>
+      </c>
+      <c r="T16" s="15" t="inlineStr">
+        <is>
+          <t>0x708969bf3e18a758759f74c18f4407e98d732dde: 4,823</t>
+        </is>
+      </c>
+      <c r="U16" s="15" t="inlineStr">
+        <is>
+          <t>0x708969bf3e18a758759f74c18f4407e98d732dde: 6.88%</t>
+        </is>
+      </c>
+      <c r="V16" s="15" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>토큰 거래액</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>5e-06</t>
+        </is>
+      </c>
+      <c r="J17" s="15" t="inlineStr">
+        <is>
+          <t>1500000.0</t>
+        </is>
+      </c>
+      <c r="K17" s="15" t="inlineStr">
+        <is>
+          <t>72.67942275250832</t>
+        </is>
+      </c>
+      <c r="L17" s="15" t="inlineStr">
+        <is>
+          <t>9340.018718935362</t>
+        </is>
+      </c>
+      <c r="M17" s="15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N17" s="15" t="inlineStr"/>
+      <c r="O17" s="15" t="inlineStr"/>
+      <c r="P17" s="15" t="inlineStr"/>
+      <c r="Q17" s="15" t="inlineStr"/>
+      <c r="R17" s="15" t="inlineStr"/>
+      <c r="S17" s="15" t="inlineStr"/>
+      <c r="T17" s="15" t="inlineStr"/>
+      <c r="U17" s="15" t="inlineStr"/>
+      <c r="V17" s="15" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN ADDRESS</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>토큰 주소 해시 정보</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr"/>
+      <c r="J18" s="15" t="inlineStr"/>
+      <c r="K18" s="15" t="inlineStr"/>
+      <c r="L18" s="15" t="inlineStr"/>
+      <c r="M18" s="15" t="inlineStr"/>
+      <c r="N18" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" s="15" t="inlineStr">
+        <is>
+          <t>0xd6243f133ebf7ea191fb0eb47017b809b46b15f1</t>
+        </is>
+      </c>
+      <c r="P18" s="15" t="inlineStr">
+        <is>
+          <t>0xd6243f133ebf7ea191fb0eb47017b809b46b15f1: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q18" s="15" t="inlineStr"/>
+      <c r="R18" s="15" t="inlineStr"/>
+      <c r="S18" s="15" t="inlineStr">
+        <is>
+          <t>0xd6243f133ebf7ea191fb0eb47017b809b46b15f1</t>
+        </is>
+      </c>
+      <c r="T18" s="15" t="inlineStr">
+        <is>
+          <t>0xd6243f133ebf7ea191fb0eb47017b809b46b15f1: 70,067</t>
+        </is>
+      </c>
+      <c r="U18" s="15" t="inlineStr">
+        <is>
+          <t>0xd6243f133ebf7ea191fb0eb47017b809b46b15f1: 100.00%</t>
+        </is>
+      </c>
+      <c r="V18" s="15" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B19" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN NAME</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>토큰명</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr"/>
+      <c r="J19" s="15" t="inlineStr"/>
+      <c r="K19" s="15" t="inlineStr"/>
+      <c r="L19" s="15" t="inlineStr"/>
+      <c r="M19" s="15" t="inlineStr"/>
+      <c r="N19" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" s="15" t="inlineStr">
+        <is>
+          <t>Zattera Coin</t>
+        </is>
+      </c>
+      <c r="P19" s="15" t="inlineStr">
+        <is>
+          <t>Zattera Coin: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q19" s="15" t="inlineStr"/>
+      <c r="R19" s="15" t="inlineStr"/>
+      <c r="S19" s="15" t="inlineStr">
+        <is>
+          <t>Zattera Coin</t>
+        </is>
+      </c>
+      <c r="T19" s="15" t="inlineStr">
+        <is>
+          <t>Zattera Coin: 70,067</t>
+        </is>
+      </c>
+      <c r="U19" s="15" t="inlineStr">
+        <is>
+          <t>Zattera Coin: 100.00%</t>
+        </is>
+      </c>
+      <c r="V19" s="15" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN SYMBOL</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>토큰 기호</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G20" s="15" t="inlineStr">
+        <is>
+          <t>70,067</t>
+        </is>
+      </c>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr"/>
+      <c r="J20" s="15" t="inlineStr"/>
+      <c r="K20" s="15" t="inlineStr"/>
+      <c r="L20" s="15" t="inlineStr"/>
+      <c r="M20" s="15" t="inlineStr"/>
+      <c r="N20" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" s="15" t="inlineStr">
+        <is>
+          <t>ZTC</t>
+        </is>
+      </c>
+      <c r="P20" s="15" t="inlineStr">
+        <is>
+          <t>ZTC: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q20" s="15" t="inlineStr"/>
+      <c r="R20" s="15" t="inlineStr"/>
+      <c r="S20" s="15" t="inlineStr">
+        <is>
+          <t>ZTC</t>
+        </is>
+      </c>
+      <c r="T20" s="15" t="inlineStr">
+        <is>
+          <t>ZTC: 70,067</t>
+        </is>
+      </c>
+      <c r="U20" s="15" t="inlineStr">
+        <is>
+          <t>ZTC: 100.00%</t>
+        </is>
+      </c>
+      <c r="V20" s="15" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/output/QC결과서.xlsx
+++ b/output/QC결과서.xlsx
@@ -830,7 +830,7 @@
     <row r="12">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>001</t>
         </is>
       </c>
       <c r="B12" s="15" t="inlineStr">
@@ -923,7 +923,7 @@
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>002</t>
         </is>
       </c>
       <c r="B13" s="15" t="inlineStr">
@@ -1016,7 +1016,7 @@
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>003</t>
         </is>
       </c>
       <c r="B14" s="15" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -1054,8 +1054,16 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I14" s="15" t="inlineStr"/>
-      <c r="J14" s="15" t="inlineStr"/>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00</t>
+        </is>
+      </c>
+      <c r="J14" s="15" t="inlineStr">
+        <is>
+          <t>2023-03-25T16:45:02+09:00</t>
+        </is>
+      </c>
       <c r="K14" s="15" t="inlineStr"/>
       <c r="L14" s="15" t="inlineStr"/>
       <c r="M14" s="15" t="inlineStr"/>
@@ -1109,7 +1117,7 @@
     <row r="15">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>004</t>
         </is>
       </c>
       <c r="B15" s="15" t="inlineStr">
@@ -1195,7 +1203,7 @@
     <row r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -1284,7 +1292,7 @@
     <row r="17">
       <c r="A17" s="15" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>006</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -1360,7 +1368,7 @@
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -1440,7 +1448,7 @@
     <row r="19">
       <c r="A19" s="15" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>008</t>
         </is>
       </c>
       <c r="B19" s="15" t="inlineStr">
@@ -1520,7 +1528,7 @@
     <row r="20">
       <c r="A20" s="15" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>009</t>
         </is>
       </c>
       <c r="B20" s="15" t="inlineStr">
@@ -1881,7 +1889,7 @@
     <row r="12">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>001</t>
         </is>
       </c>
       <c r="B12" s="15" t="inlineStr">
@@ -1957,7 +1965,7 @@
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>002</t>
         </is>
       </c>
       <c r="B13" s="15" t="inlineStr">
@@ -2046,7 +2054,7 @@
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>003</t>
         </is>
       </c>
       <c r="B14" s="15" t="inlineStr">
@@ -2122,7 +2130,7 @@
     <row r="15">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>004</t>
         </is>
       </c>
       <c r="B15" s="15" t="inlineStr">
@@ -2211,7 +2219,7 @@
     <row r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -2300,7 +2308,7 @@
     <row r="17">
       <c r="A17" s="15" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>006</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -2376,7 +2384,7 @@
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -2452,7 +2460,7 @@
     <row r="19">
       <c r="A19" s="15" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>008</t>
         </is>
       </c>
       <c r="B19" s="15" t="inlineStr">
@@ -2545,7 +2553,7 @@
     <row r="20">
       <c r="A20" s="15" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>009</t>
         </is>
       </c>
       <c r="B20" s="15" t="inlineStr">
@@ -2640,7 +2648,7 @@
     <row r="21">
       <c r="A21" s="15" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>010</t>
         </is>
       </c>
       <c r="B21" s="15" t="inlineStr">
@@ -3016,7 +3024,7 @@
     <row r="12">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>001</t>
         </is>
       </c>
       <c r="B12" s="15" t="inlineStr">
@@ -3109,7 +3117,7 @@
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>002</t>
         </is>
       </c>
       <c r="B13" s="15" t="inlineStr">
@@ -3202,7 +3210,7 @@
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>003</t>
         </is>
       </c>
       <c r="B14" s="15" t="inlineStr">
@@ -3295,7 +3303,7 @@
     <row r="15">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>004</t>
         </is>
       </c>
       <c r="B15" s="15" t="inlineStr">
@@ -3379,7 +3387,7 @@
     <row r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -3468,7 +3476,7 @@
     <row r="17">
       <c r="A17" s="15" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>006</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -3544,7 +3552,7 @@
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -3624,7 +3632,7 @@
     <row r="19">
       <c r="A19" s="15" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>008</t>
         </is>
       </c>
       <c r="B19" s="15" t="inlineStr">
@@ -3704,7 +3712,7 @@
     <row r="20">
       <c r="A20" s="15" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>009</t>
         </is>
       </c>
       <c r="B20" s="15" t="inlineStr">
@@ -4065,7 +4073,7 @@
     <row r="12">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>001</t>
         </is>
       </c>
       <c r="B12" s="15" t="inlineStr">
@@ -4158,7 +4166,7 @@
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>002</t>
         </is>
       </c>
       <c r="B13" s="15" t="inlineStr">
@@ -4247,7 +4255,7 @@
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>003</t>
         </is>
       </c>
       <c r="B14" s="15" t="inlineStr">
@@ -4336,7 +4344,7 @@
     <row r="15">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>004</t>
         </is>
       </c>
       <c r="B15" s="15" t="inlineStr">
@@ -4422,7 +4430,7 @@
     <row r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -4511,7 +4519,7 @@
     <row r="17">
       <c r="A17" s="15" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>006</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
@@ -4587,7 +4595,7 @@
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
@@ -4667,7 +4675,7 @@
     <row r="19">
       <c r="A19" s="15" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>008</t>
         </is>
       </c>
       <c r="B19" s="15" t="inlineStr">
@@ -4747,7 +4755,7 @@
     <row r="20">
       <c r="A20" s="15" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>009</t>
         </is>
       </c>
       <c r="B20" s="15" t="inlineStr">

--- a/output/QC결과서.xlsx
+++ b/output/QC결과서.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ZBZ_TX_HISTORY" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CAB_RIDES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CNT_TX_HISTORY" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ZTC_TX_HISTORY" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="원자재_종가_데이터" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ZBZ_TX_HISTORY" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CAB_RIDES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CNT_TX_HISTORY" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZTC_TX_HISTORY" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -566,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,11 +593,7 @@
           <t>스키마명</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>ITAMPRD</t>
-        </is>
-      </c>
+      <c r="C2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -611,7 +608,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>ZBZ_TX_HISTORY</t>
+          <t>원자재_종가_데이터</t>
         </is>
       </c>
     </row>
@@ -626,11 +623,7 @@
           <t>테이블 한글명</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Zombiz 토큰 거래 내역 데이터 테이블</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -663,7 +656,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>(851, 9)</t>
+          <t>(1299, 32)</t>
         </is>
       </c>
     </row>
@@ -835,17 +828,13 @@
       </c>
       <c r="B12" s="15" t="inlineStr">
         <is>
-          <t>TX HASH</t>
-        </is>
-      </c>
-      <c r="C12" s="15" t="inlineStr">
-        <is>
-          <t>거래 해시 정보</t>
-        </is>
-      </c>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr"/>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -860,7 +849,7 @@
       </c>
       <c r="G12" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,299</t>
         </is>
       </c>
       <c r="H12" s="15" t="inlineStr">
@@ -868,54 +857,62 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I12" s="15" t="inlineStr"/>
-      <c r="J12" s="15" t="inlineStr"/>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>2017-07-03</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
       <c r="K12" s="15" t="inlineStr"/>
       <c r="L12" s="15" t="inlineStr"/>
       <c r="M12" s="15" t="inlineStr"/>
       <c r="N12" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,299</t>
         </is>
       </c>
       <c r="O12" s="15" t="inlineStr">
         <is>
-          <t>0x981b6e3a9f5fb0ebcfea6c72df1f3d43e5fb720ad6f766e61edcbf67982baf61,
-0x76691b23957a9410ac078b3e41fe64380805844e033173be382407e8215ad531,
+          <t>2017-07-03,
+2017-07-04,
 ...,
-0xd814cc0012d854dd9096602e32931d68787b63958dbbd9dd3f0f7dc574aae6ab,
-0x037e90a9180bcb25e1ba2424dfcd160f037d75b81b5da251033c767009e06ca2</t>
+2022-06-23,
+2022-06-24</t>
         </is>
       </c>
       <c r="P12" s="15" t="inlineStr">
         <is>
-          <t>0x981b6e3a9f5fb0ebcfea6c72df1f3d43e5fb720ad6f766e61edcbf67982baf61: 0.118%,
-0x76691b23957a9410ac078b3e41fe64380805844e033173be382407e8215ad531: 0.118%,
-0xe5d71480671a20a717e9eac91a3d3a967108b552e6a762669f1353928ec44914: 0.118%,
-0x25519e5a9bb28decdbcc577acc9c4dd70811e21188330b946d4430b6eda9c8fb: 0.118%,
-0x9cfde14eb6e3b8df05db53a220cfd60191b5bd6bc9374ed1d76e659fdd803d3a: 0.118%,
-그 외: 99.412%</t>
+          <t>2017-07-03: 0.077%,
+2017-07-04: 0.077%,
+2017-07-05: 0.077%,
+2017-07-06: 0.077%,
+2017-07-07: 0.077%,
+그 외: 99.615%</t>
         </is>
       </c>
       <c r="Q12" s="15" t="inlineStr"/>
       <c r="R12" s="15" t="inlineStr"/>
       <c r="S12" s="15" t="inlineStr">
         <is>
-          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26,
-0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda,
+          <t>2017-07-03,
+2017-07-04,
 ...</t>
         </is>
       </c>
       <c r="T12" s="15" t="inlineStr">
         <is>
-          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26: 1,
-0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda: 1</t>
+          <t>2017-07-03: 1,
+2017-07-04: 1</t>
         </is>
       </c>
       <c r="U12" s="15" t="inlineStr">
         <is>
-          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26: 0.12%,
-0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda: 0.12%</t>
+          <t>2017-07-03: 0.08%,
+2017-07-04: 0.08%</t>
         </is>
       </c>
       <c r="V12" s="15" t="inlineStr"/>
@@ -928,89 +925,68 @@
       </c>
       <c r="B13" s="15" t="inlineStr">
         <is>
-          <t>BLOCK #</t>
-        </is>
-      </c>
-      <c r="C13" s="15" t="inlineStr">
-        <is>
-          <t>거래 블록 정보</t>
-        </is>
-      </c>
+          <t>미국 대두유 선물</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr"/>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F13" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.54%</t>
         </is>
       </c>
       <c r="G13" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,279</t>
         </is>
       </c>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I13" s="15" t="inlineStr"/>
-      <c r="J13" s="15" t="inlineStr"/>
-      <c r="K13" s="15" t="inlineStr"/>
-      <c r="L13" s="15" t="inlineStr"/>
-      <c r="M13" s="15" t="inlineStr"/>
-      <c r="N13" s="15" t="inlineStr">
-        <is>
-          <t>851</t>
-        </is>
-      </c>
-      <c r="O13" s="15" t="inlineStr">
-        <is>
-          <t>106073777,
-106075492,
-...,
-117449276,
-117819562</t>
-        </is>
-      </c>
-      <c r="P13" s="15" t="inlineStr">
-        <is>
-          <t>106073777: 0.118%,
-106075492: 0.118%,
-106136694: 0.118%,
-106136808: 0.118%,
-106137869: 0.118%,
-그 외: 99.412%</t>
-        </is>
-      </c>
+          <t>98.46%</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="J13" s="15" t="inlineStr">
+        <is>
+          <t>90.6</t>
+        </is>
+      </c>
+      <c r="K13" s="15" t="inlineStr">
+        <is>
+          <t>40.36822517591869</t>
+        </is>
+      </c>
+      <c r="L13" s="15" t="inlineStr">
+        <is>
+          <t>16.180839150403415</t>
+        </is>
+      </c>
+      <c r="M13" s="15" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="N13" s="15" t="inlineStr"/>
+      <c r="O13" s="15" t="inlineStr"/>
+      <c r="P13" s="15" t="inlineStr"/>
       <c r="Q13" s="15" t="inlineStr"/>
       <c r="R13" s="15" t="inlineStr"/>
-      <c r="S13" s="15" t="inlineStr">
-        <is>
-          <t>106073777,
-106075492,
-...</t>
-        </is>
-      </c>
-      <c r="T13" s="15" t="inlineStr">
-        <is>
-          <t>106073777: 1,
-106075492: 1</t>
-        </is>
-      </c>
-      <c r="U13" s="15" t="inlineStr">
-        <is>
-          <t>106073777: 0.12%,
-106075492: 0.12%</t>
-        </is>
-      </c>
+      <c r="S13" s="15" t="inlineStr"/>
+      <c r="T13" s="15" t="inlineStr"/>
+      <c r="U13" s="15" t="inlineStr"/>
       <c r="V13" s="15" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1021,95 +997,79 @@
       </c>
       <c r="B14" s="15" t="inlineStr">
         <is>
-          <t>TIME(KST)</t>
-        </is>
-      </c>
-      <c r="C14" s="15" t="inlineStr">
-        <is>
-          <t>거래 일시</t>
-        </is>
-      </c>
+          <t>니켈 선물</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr"/>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>object</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F14" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="G14" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,256</t>
         </is>
       </c>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I14" s="15" t="inlineStr">
-        <is>
-          <t>2022-11-09T16:37:51+09:00</t>
-        </is>
-      </c>
-      <c r="J14" s="15" t="inlineStr">
-        <is>
-          <t>2023-03-25T16:45:02+09:00</t>
-        </is>
-      </c>
+          <t>96.69%</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr"/>
+      <c r="J14" s="15" t="inlineStr"/>
       <c r="K14" s="15" t="inlineStr"/>
       <c r="L14" s="15" t="inlineStr"/>
       <c r="M14" s="15" t="inlineStr"/>
       <c r="N14" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,130</t>
         </is>
       </c>
       <c r="O14" s="15" t="inlineStr">
         <is>
-          <t>2022-11-09T16:37:51+09:00,
-2022-11-09T17:06:26+09:00,
+          <t>9,332.50,
+9,162.50,
 ...,
-2023-03-21T09:51:14+09:00,
-2023-03-25T16:45:02+09:00</t>
+24,038.00,
+22,304.50</t>
         </is>
       </c>
       <c r="P14" s="15" t="inlineStr">
         <is>
-          <t>2022-11-09T16:37:51+09:00: 0.118%,
-2022-11-09T17:06:26+09:00: 0.118%,
-2022-11-10T10:06:32+09:00: 0.118%,
-2022-11-10T10:08:26+09:00: 0.118%,
-2022-11-10T10:26:07+09:00: 0.118%,
-그 외: 99.412%</t>
+          <t>9,332.50: 0.077%,
+9,162.50: 0.077%,
+9,140.00: 0.077%,
+9,097.50: 0.077%,
+8,982.50: 0.077%,
+그 외: 99.615%</t>
         </is>
       </c>
       <c r="Q14" s="15" t="inlineStr"/>
       <c r="R14" s="15" t="inlineStr"/>
       <c r="S14" s="15" t="inlineStr">
         <is>
-          <t>2022-11-09T16:37:51+09:00,
-2022-11-09T17:06:26+09:00,
-...</t>
+          <t>12,550.00</t>
         </is>
       </c>
       <c r="T14" s="15" t="inlineStr">
         <is>
-          <t>2022-11-09T16:37:51+09:00: 1,
-2022-11-09T17:06:26+09:00: 1</t>
+          <t>12,550.00: 4</t>
         </is>
       </c>
       <c r="U14" s="15" t="inlineStr">
         <is>
-          <t>2022-11-09T16:37:51+09:00: 0.12%,
-2022-11-09T17:06:26+09:00: 0.12%</t>
+          <t>12,550.00: 0.31%</t>
         </is>
       </c>
       <c r="V14" s="15" t="inlineStr"/>
@@ -1122,37 +1082,33 @@
       </c>
       <c r="B15" s="15" t="inlineStr">
         <is>
-          <t>FROM</t>
-        </is>
-      </c>
-      <c r="C15" s="15" t="inlineStr">
-        <is>
-          <t>토큰 출발 지갑 주소</t>
-        </is>
-      </c>
+          <t>런던 가스 오일 선물</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr"/>
       <c r="D15" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>object</t>
         </is>
       </c>
       <c r="E15" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F15" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="G15" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,288</t>
         </is>
       </c>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.15%</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr"/>
@@ -1162,40 +1118,46 @@
       <c r="M15" s="15" t="inlineStr"/>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>892</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
         <is>
-          <t>0x0640f07e775f907f0a092c416d55afa49a2ea25b,
-0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02,
-0x5792055e90f6b3d4b50759b768fa7483575e2684,
-0xac893beb1aa78598e640397838637e523197a62c</t>
+          <t>448.75,
+451.25,
+...,
+1,290.50,
+1,288.88</t>
         </is>
       </c>
       <c r="P15" s="15" t="inlineStr">
         <is>
-          <t>0x0640f07e775f907f0a092c416d55afa49a2ea25b: 0.118%,
-0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 99.530%,
-0x5792055e90f6b3d4b50759b768fa7483575e2684: 0.118%,
-0xac893beb1aa78598e640397838637e523197a62c: 0.235%</t>
+          <t>448.75: 0.077%,
+451.25: 0.077%,
+442.00: 0.077%,
+446.50: 0.077%,
+428.00: 0.077%,
+그 외: 99.615%</t>
         </is>
       </c>
       <c r="Q15" s="15" t="inlineStr"/>
       <c r="R15" s="15" t="inlineStr"/>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02</t>
+          <t>569.00,
+612.50</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
         <is>
-          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 847</t>
+          <t>569.00: 7,
+612.50: 7</t>
         </is>
       </c>
       <c r="U15" s="15" t="inlineStr">
         <is>
-          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 99.53%</t>
+          <t>569.00: 0.54%,
+612.50: 0.54%</t>
         </is>
       </c>
       <c r="V15" s="15" t="inlineStr"/>
@@ -1208,85 +1170,68 @@
       </c>
       <c r="B16" s="15" t="inlineStr">
         <is>
-          <t>TO</t>
-        </is>
-      </c>
-      <c r="C16" s="15" t="inlineStr">
-        <is>
-          <t>토큰 도착 지갑 주소</t>
-        </is>
-      </c>
+          <t>가솔린 RBOB 선물</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr"/>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F16" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="G16" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,291</t>
         </is>
       </c>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="inlineStr"/>
-      <c r="J16" s="15" t="inlineStr"/>
-      <c r="K16" s="15" t="inlineStr"/>
-      <c r="L16" s="15" t="inlineStr"/>
-      <c r="M16" s="15" t="inlineStr"/>
-      <c r="N16" s="15" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="O16" s="15" t="inlineStr">
-        <is>
-          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02,
-0x2bce562445a71cc5bd9d6f0a4ae601873b08a083,
-...,
-0x048614204ca4798157341040b323f7e72b7f9c4a,
-0x6d84231ef80e98fef0a760148d8372c0dad5ced3</t>
-        </is>
-      </c>
-      <c r="P16" s="15" t="inlineStr">
-        <is>
-          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 0.470%,
-0x2bce562445a71cc5bd9d6f0a4ae601873b08a083: 0.940%,
-0xac893beb1aa78598e640397838637e523197a62c: 0.353%,
-0xe88df88e99874ddc11f2af0cc40bc746211dd03a: 3.173%,
-0x328d9d96b35fbb5fb418901313639bacc0169c76: 0.118%,
-그 외: 94.947%</t>
-        </is>
-      </c>
+          <t>99.38%</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>1.0166</t>
+        </is>
+      </c>
+      <c r="J16" s="15" t="inlineStr">
+        <is>
+          <t>4.2762</t>
+        </is>
+      </c>
+      <c r="K16" s="15" t="inlineStr">
+        <is>
+          <t>1.888906661502711</t>
+        </is>
+      </c>
+      <c r="L16" s="15" t="inlineStr">
+        <is>
+          <t>0.5296178015980425</t>
+        </is>
+      </c>
+      <c r="M16" s="15" t="inlineStr">
+        <is>
+          <t>1.772</t>
+        </is>
+      </c>
+      <c r="N16" s="15" t="inlineStr"/>
+      <c r="O16" s="15" t="inlineStr"/>
+      <c r="P16" s="15" t="inlineStr"/>
       <c r="Q16" s="15" t="inlineStr"/>
       <c r="R16" s="15" t="inlineStr"/>
-      <c r="S16" s="15" t="inlineStr">
-        <is>
-          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c</t>
-        </is>
-      </c>
-      <c r="T16" s="15" t="inlineStr">
-        <is>
-          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c: 248</t>
-        </is>
-      </c>
-      <c r="U16" s="15" t="inlineStr">
-        <is>
-          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c: 29.14%</t>
-        </is>
-      </c>
+      <c r="S16" s="15" t="inlineStr"/>
+      <c r="T16" s="15" t="inlineStr"/>
+      <c r="U16" s="15" t="inlineStr"/>
       <c r="V16" s="15" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1297,72 +1242,81 @@
       </c>
       <c r="B17" s="15" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>토큰 거래액</t>
-        </is>
-      </c>
+          <t>미국 코코아 선물</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr"/>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>object</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F17" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="G17" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,255</t>
         </is>
       </c>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I17" s="15" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="J17" s="15" t="inlineStr">
-        <is>
-          <t>500000.0</t>
-        </is>
-      </c>
-      <c r="K17" s="15" t="inlineStr">
-        <is>
-          <t>856.8726987857423</t>
-        </is>
-      </c>
-      <c r="L17" s="15" t="inlineStr">
-        <is>
-          <t>17237.170530108375</t>
-        </is>
-      </c>
-      <c r="M17" s="15" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="N17" s="15" t="inlineStr"/>
-      <c r="O17" s="15" t="inlineStr"/>
-      <c r="P17" s="15" t="inlineStr"/>
+          <t>96.61%</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr"/>
+      <c r="J17" s="15" t="inlineStr"/>
+      <c r="K17" s="15" t="inlineStr"/>
+      <c r="L17" s="15" t="inlineStr"/>
+      <c r="M17" s="15" t="inlineStr"/>
+      <c r="N17" s="15" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="O17" s="15" t="inlineStr">
+        <is>
+          <t>1,921.00,
+nan,
+...,
+2,385.00,
+2,377.00</t>
+        </is>
+      </c>
+      <c r="P17" s="15" t="inlineStr">
+        <is>
+          <t>1,921.00: 0.077%,
+nan: 0.000%,
+1,910.00: 0.154%,
+1,890.00: 0.077%,
+1,835.00: 0.077%,
+그 외: 96.228%</t>
+        </is>
+      </c>
       <c r="Q17" s="15" t="inlineStr"/>
       <c r="R17" s="15" t="inlineStr"/>
-      <c r="S17" s="15" t="inlineStr"/>
-      <c r="T17" s="15" t="inlineStr"/>
-      <c r="U17" s="15" t="inlineStr"/>
+      <c r="S17" s="15" t="inlineStr">
+        <is>
+          <t>2,257.00</t>
+        </is>
+      </c>
+      <c r="T17" s="15" t="inlineStr">
+        <is>
+          <t>2,257.00: 7</t>
+        </is>
+      </c>
+      <c r="U17" s="15" t="inlineStr">
+        <is>
+          <t>2,257.00: 0.54%</t>
+        </is>
+      </c>
       <c r="V17" s="15" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1373,37 +1327,33 @@
       </c>
       <c r="B18" s="15" t="inlineStr">
         <is>
-          <t>TOKEN ADDRESS</t>
-        </is>
-      </c>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>토큰 주소 해시 정보</t>
-        </is>
-      </c>
+          <t>미국 소맥 선물</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr"/>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>object</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F18" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="G18" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,277</t>
         </is>
       </c>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>98.31%</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr"/>
@@ -1413,34 +1363,43 @@
       <c r="M18" s="15" t="inlineStr"/>
       <c r="N18" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>838</t>
         </is>
       </c>
       <c r="O18" s="15" t="inlineStr">
         <is>
-          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76</t>
+          <t>536.75,
+nan,
+...,
+937.25,
+932.50</t>
         </is>
       </c>
       <c r="P18" s="15" t="inlineStr">
         <is>
-          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 100.000%</t>
+          <t>536.75: 0.077%,
+nan: 0.000%,
+539.25: 0.385%,
+519.00: 0.077%,
+515.25: 0.539%,
+그 외: 97.229%</t>
         </is>
       </c>
       <c r="Q18" s="15" t="inlineStr"/>
       <c r="R18" s="15" t="inlineStr"/>
       <c r="S18" s="15" t="inlineStr">
         <is>
-          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76</t>
+          <t>515.25</t>
         </is>
       </c>
       <c r="T18" s="15" t="inlineStr">
         <is>
-          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 851</t>
+          <t>515.25: 7</t>
         </is>
       </c>
       <c r="U18" s="15" t="inlineStr">
         <is>
-          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 100.00%</t>
+          <t>515.25: 0.54%</t>
         </is>
       </c>
       <c r="V18" s="15" t="inlineStr"/>
@@ -1453,76 +1412,68 @@
       </c>
       <c r="B19" s="15" t="inlineStr">
         <is>
-          <t>TOKEN NAME</t>
-        </is>
-      </c>
-      <c r="C19" s="15" t="inlineStr">
-        <is>
-          <t>토큰명</t>
-        </is>
-      </c>
+          <t>현미 선물</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr"/>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F19" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="G19" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,259</t>
         </is>
       </c>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I19" s="15" t="inlineStr"/>
-      <c r="J19" s="15" t="inlineStr"/>
-      <c r="K19" s="15" t="inlineStr"/>
-      <c r="L19" s="15" t="inlineStr"/>
-      <c r="M19" s="15" t="inlineStr"/>
-      <c r="N19" s="15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O19" s="15" t="inlineStr">
-        <is>
-          <t>ZOMBIZ</t>
-        </is>
-      </c>
-      <c r="P19" s="15" t="inlineStr">
-        <is>
-          <t>ZOMBIZ: 100.000%</t>
-        </is>
-      </c>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="J19" s="15" t="inlineStr">
+        <is>
+          <t>22.065</t>
+        </is>
+      </c>
+      <c r="K19" s="15" t="inlineStr">
+        <is>
+          <t>12.750891977760126</t>
+        </is>
+      </c>
+      <c r="L19" s="15" t="inlineStr">
+        <is>
+          <t>1.7378647967879792</t>
+        </is>
+      </c>
+      <c r="M19" s="15" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="N19" s="15" t="inlineStr"/>
+      <c r="O19" s="15" t="inlineStr"/>
+      <c r="P19" s="15" t="inlineStr"/>
       <c r="Q19" s="15" t="inlineStr"/>
       <c r="R19" s="15" t="inlineStr"/>
-      <c r="S19" s="15" t="inlineStr">
-        <is>
-          <t>ZOMBIZ</t>
-        </is>
-      </c>
-      <c r="T19" s="15" t="inlineStr">
-        <is>
-          <t>ZOMBIZ: 851</t>
-        </is>
-      </c>
-      <c r="U19" s="15" t="inlineStr">
-        <is>
-          <t>ZOMBIZ: 100.00%</t>
-        </is>
-      </c>
+      <c r="S19" s="15" t="inlineStr"/>
+      <c r="T19" s="15" t="inlineStr"/>
+      <c r="U19" s="15" t="inlineStr"/>
       <c r="V19" s="15" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1533,77 +1484,1859 @@
       </c>
       <c r="B20" s="15" t="inlineStr">
         <is>
-          <t>TOKEN SYMBOL</t>
-        </is>
-      </c>
-      <c r="C20" s="15" t="inlineStr">
-        <is>
-          <t>토큰 기호</t>
-        </is>
-      </c>
+          <t>생우 선물</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="inlineStr"/>
       <c r="D20" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E20" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F20" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="G20" s="15" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1,261</t>
         </is>
       </c>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I20" s="15" t="inlineStr"/>
-      <c r="J20" s="15" t="inlineStr"/>
-      <c r="K20" s="15" t="inlineStr"/>
-      <c r="L20" s="15" t="inlineStr"/>
-      <c r="M20" s="15" t="inlineStr"/>
-      <c r="N20" s="15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O20" s="15" t="inlineStr">
-        <is>
-          <t>ZBZ</t>
-        </is>
-      </c>
-      <c r="P20" s="15" t="inlineStr">
-        <is>
-          <t>ZBZ: 100.000%</t>
-        </is>
-      </c>
+          <t>97.07%</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="J20" s="15" t="inlineStr">
+        <is>
+          <t>144.1</t>
+        </is>
+      </c>
+      <c r="K20" s="15" t="inlineStr">
+        <is>
+          <t>116.68528945281524</t>
+        </is>
+      </c>
+      <c r="L20" s="15" t="inlineStr">
+        <is>
+          <t>11.77876743960544</t>
+        </is>
+      </c>
+      <c r="M20" s="15" t="inlineStr">
+        <is>
+          <t>116.42</t>
+        </is>
+      </c>
+      <c r="N20" s="15" t="inlineStr"/>
+      <c r="O20" s="15" t="inlineStr"/>
+      <c r="P20" s="15" t="inlineStr"/>
       <c r="Q20" s="15" t="inlineStr"/>
       <c r="R20" s="15" t="inlineStr"/>
-      <c r="S20" s="15" t="inlineStr">
-        <is>
-          <t>ZBZ</t>
-        </is>
-      </c>
-      <c r="T20" s="15" t="inlineStr">
-        <is>
-          <t>ZBZ: 851</t>
-        </is>
-      </c>
-      <c r="U20" s="15" t="inlineStr">
-        <is>
-          <t>ZBZ: 100.00%</t>
-        </is>
-      </c>
+      <c r="S20" s="15" t="inlineStr"/>
+      <c r="T20" s="15" t="inlineStr"/>
+      <c r="U20" s="15" t="inlineStr"/>
       <c r="V20" s="15" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="B21" s="15" t="inlineStr">
+        <is>
+          <t>미국 원면 No.2 선물</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="inlineStr"/>
+      <c r="D21" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F21" s="15" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="G21" s="15" t="inlineStr">
+        <is>
+          <t>1,259</t>
+        </is>
+      </c>
+      <c r="H21" s="15" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="J21" s="15" t="inlineStr">
+        <is>
+          <t>154.74</t>
+        </is>
+      </c>
+      <c r="K21" s="15" t="inlineStr">
+        <is>
+          <t>81.26026211278793</t>
+        </is>
+      </c>
+      <c r="L21" s="15" t="inlineStr">
+        <is>
+          <t>20.697059133304187</t>
+        </is>
+      </c>
+      <c r="M21" s="15" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="N21" s="15" t="inlineStr"/>
+      <c r="O21" s="15" t="inlineStr"/>
+      <c r="P21" s="15" t="inlineStr"/>
+      <c r="Q21" s="15" t="inlineStr"/>
+      <c r="R21" s="15" t="inlineStr"/>
+      <c r="S21" s="15" t="inlineStr"/>
+      <c r="T21" s="15" t="inlineStr"/>
+      <c r="U21" s="15" t="inlineStr"/>
+      <c r="V21" s="15" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B22" s="15" t="inlineStr">
+        <is>
+          <t>미국 커피 C 선물</t>
+        </is>
+      </c>
+      <c r="C22" s="15" t="inlineStr"/>
+      <c r="D22" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E22" s="15" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F22" s="15" t="inlineStr">
+        <is>
+          <t>3.39%</t>
+        </is>
+      </c>
+      <c r="G22" s="15" t="inlineStr">
+        <is>
+          <t>1,255</t>
+        </is>
+      </c>
+      <c r="H22" s="15" t="inlineStr">
+        <is>
+          <t>96.61%</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="J22" s="15" t="inlineStr">
+        <is>
+          <t>258.35</t>
+        </is>
+      </c>
+      <c r="K22" s="15" t="inlineStr">
+        <is>
+          <t>134.09371314741034</t>
+        </is>
+      </c>
+      <c r="L22" s="15" t="inlineStr">
+        <is>
+          <t>43.488046054961075</t>
+        </is>
+      </c>
+      <c r="M22" s="15" t="inlineStr">
+        <is>
+          <t>119.6</t>
+        </is>
+      </c>
+      <c r="N22" s="15" t="inlineStr"/>
+      <c r="O22" s="15" t="inlineStr"/>
+      <c r="P22" s="15" t="inlineStr"/>
+      <c r="Q22" s="15" t="inlineStr"/>
+      <c r="R22" s="15" t="inlineStr"/>
+      <c r="S22" s="15" t="inlineStr"/>
+      <c r="T22" s="15" t="inlineStr"/>
+      <c r="U22" s="15" t="inlineStr"/>
+      <c r="V22" s="15" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B23" s="15" t="inlineStr">
+        <is>
+          <t>아연 선물</t>
+        </is>
+      </c>
+      <c r="C23" s="15" t="inlineStr"/>
+      <c r="D23" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E23" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F23" s="15" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="G23" s="15" t="inlineStr">
+        <is>
+          <t>1,259</t>
+        </is>
+      </c>
+      <c r="H23" s="15" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr"/>
+      <c r="J23" s="15" t="inlineStr"/>
+      <c r="K23" s="15" t="inlineStr"/>
+      <c r="L23" s="15" t="inlineStr"/>
+      <c r="M23" s="15" t="inlineStr"/>
+      <c r="N23" s="15" t="inlineStr">
+        <is>
+          <t>1,061</t>
+        </is>
+      </c>
+      <c r="O23" s="15" t="inlineStr">
+        <is>
+          <t>2,808.00,
+2,785.50,
+...,
+3,491.50,
+3,335.50</t>
+        </is>
+      </c>
+      <c r="P23" s="15" t="inlineStr">
+        <is>
+          <t>2,808.00: 0.077%,
+2,785.50: 0.154%,
+2,776.00: 0.077%,
+2,780.50: 0.077%,
+2,786.50: 0.154%,
+그 외: 99.461%</t>
+        </is>
+      </c>
+      <c r="Q23" s="15" t="inlineStr"/>
+      <c r="R23" s="15" t="inlineStr"/>
+      <c r="S23" s="15" t="inlineStr">
+        <is>
+          <t>2,482.00</t>
+        </is>
+      </c>
+      <c r="T23" s="15" t="inlineStr">
+        <is>
+          <t>2,482.00: 4</t>
+        </is>
+      </c>
+      <c r="U23" s="15" t="inlineStr">
+        <is>
+          <t>2,482.00: 0.31%</t>
+        </is>
+      </c>
+      <c r="V23" s="15" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="15" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+      <c r="B24" s="15" t="inlineStr">
+        <is>
+          <t>WTI유 선물</t>
+        </is>
+      </c>
+      <c r="C24" s="15" t="inlineStr"/>
+      <c r="D24" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E24" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F24" s="15" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="G24" s="15" t="inlineStr">
+        <is>
+          <t>1,292</t>
+        </is>
+      </c>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>99.46%</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="J24" s="15" t="inlineStr">
+        <is>
+          <t>122.11</t>
+        </is>
+      </c>
+      <c r="K24" s="15" t="inlineStr">
+        <is>
+          <t>57.670232198142415</t>
+        </is>
+      </c>
+      <c r="L24" s="15" t="inlineStr">
+        <is>
+          <t>15.727983205635828</t>
+        </is>
+      </c>
+      <c r="M24" s="15" t="inlineStr">
+        <is>
+          <t>53.045</t>
+        </is>
+      </c>
+      <c r="N24" s="15" t="inlineStr"/>
+      <c r="O24" s="15" t="inlineStr"/>
+      <c r="P24" s="15" t="inlineStr"/>
+      <c r="Q24" s="15" t="inlineStr"/>
+      <c r="R24" s="15" t="inlineStr"/>
+      <c r="S24" s="15" t="inlineStr"/>
+      <c r="T24" s="15" t="inlineStr"/>
+      <c r="U24" s="15" t="inlineStr"/>
+      <c r="V24" s="15" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="B25" s="15" t="inlineStr">
+        <is>
+          <t>원목</t>
+        </is>
+      </c>
+      <c r="C25" s="15" t="inlineStr"/>
+      <c r="D25" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E25" s="15" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F25" s="15" t="inlineStr">
+        <is>
+          <t>2.93%</t>
+        </is>
+      </c>
+      <c r="G25" s="15" t="inlineStr">
+        <is>
+          <t>1,261</t>
+        </is>
+      </c>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>97.07%</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="inlineStr"/>
+      <c r="J25" s="15" t="inlineStr"/>
+      <c r="K25" s="15" t="inlineStr"/>
+      <c r="L25" s="15" t="inlineStr"/>
+      <c r="M25" s="15" t="inlineStr"/>
+      <c r="N25" s="15" t="inlineStr">
+        <is>
+          <t>1,079</t>
+        </is>
+      </c>
+      <c r="O25" s="15" t="inlineStr">
+        <is>
+          <t>367.00,
+nan,
+...,
+617.00,
+611.30</t>
+        </is>
+      </c>
+      <c r="P25" s="15" t="inlineStr">
+        <is>
+          <t>367.00: 0.077%,
+nan: 0.000%,
+364.80: 0.077%,
+362.30: 0.231%,
+365.50: 0.154%,
+그 외: 96.536%</t>
+        </is>
+      </c>
+      <c r="Q25" s="15" t="inlineStr"/>
+      <c r="R25" s="15" t="inlineStr"/>
+      <c r="S25" s="15" t="inlineStr">
+        <is>
+          <t>390.00</t>
+        </is>
+      </c>
+      <c r="T25" s="15" t="inlineStr">
+        <is>
+          <t>390.00: 5</t>
+        </is>
+      </c>
+      <c r="U25" s="15" t="inlineStr">
+        <is>
+          <t>390.00: 0.38%</t>
+        </is>
+      </c>
+      <c r="V25" s="15" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="B26" s="15" t="inlineStr">
+        <is>
+          <t>미국 옥수수 선물</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="inlineStr"/>
+      <c r="D26" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F26" s="15" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="G26" s="15" t="inlineStr">
+        <is>
+          <t>1,274</t>
+        </is>
+      </c>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>98.08%</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>302.75</t>
+        </is>
+      </c>
+      <c r="J26" s="15" t="inlineStr">
+        <is>
+          <t>818.25</t>
+        </is>
+      </c>
+      <c r="K26" s="15" t="inlineStr">
+        <is>
+          <t>445.9181083202511</t>
+        </is>
+      </c>
+      <c r="L26" s="15" t="inlineStr">
+        <is>
+          <t>131.29891505586647</t>
+        </is>
+      </c>
+      <c r="M26" s="15" t="inlineStr">
+        <is>
+          <t>380.25</t>
+        </is>
+      </c>
+      <c r="N26" s="15" t="inlineStr"/>
+      <c r="O26" s="15" t="inlineStr"/>
+      <c r="P26" s="15" t="inlineStr"/>
+      <c r="Q26" s="15" t="inlineStr"/>
+      <c r="R26" s="15" t="inlineStr"/>
+      <c r="S26" s="15" t="inlineStr"/>
+      <c r="T26" s="15" t="inlineStr"/>
+      <c r="U26" s="15" t="inlineStr"/>
+      <c r="V26" s="15" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="B27" s="15" t="inlineStr">
+        <is>
+          <t>오렌지 주스 선물</t>
+        </is>
+      </c>
+      <c r="C27" s="15" t="inlineStr"/>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="inlineStr">
+        <is>
+          <t>3.39%</t>
+        </is>
+      </c>
+      <c r="G27" s="15" t="inlineStr">
+        <is>
+          <t>1,255</t>
+        </is>
+      </c>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>96.61%</t>
+        </is>
+      </c>
+      <c r="I27" s="15" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="J27" s="15" t="inlineStr">
+        <is>
+          <t>191.35</t>
+        </is>
+      </c>
+      <c r="K27" s="15" t="inlineStr">
+        <is>
+          <t>128.87643824701195</t>
+        </is>
+      </c>
+      <c r="L27" s="15" t="inlineStr">
+        <is>
+          <t>22.249221303847087</t>
+        </is>
+      </c>
+      <c r="M27" s="15" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="N27" s="15" t="inlineStr"/>
+      <c r="O27" s="15" t="inlineStr"/>
+      <c r="P27" s="15" t="inlineStr"/>
+      <c r="Q27" s="15" t="inlineStr"/>
+      <c r="R27" s="15" t="inlineStr"/>
+      <c r="S27" s="15" t="inlineStr"/>
+      <c r="T27" s="15" t="inlineStr"/>
+      <c r="U27" s="15" t="inlineStr"/>
+      <c r="V27" s="15" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="15" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B28" s="15" t="inlineStr">
+        <is>
+          <t>천연가스 선물</t>
+        </is>
+      </c>
+      <c r="C28" s="15" t="inlineStr"/>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="G28" s="15" t="inlineStr">
+        <is>
+          <t>1,292</t>
+        </is>
+      </c>
+      <c r="H28" s="15" t="inlineStr">
+        <is>
+          <t>99.46%</t>
+        </is>
+      </c>
+      <c r="I28" s="15" t="inlineStr">
+        <is>
+          <t>1.482</t>
+        </is>
+      </c>
+      <c r="J28" s="15" t="inlineStr">
+        <is>
+          <t>9.322</t>
+        </is>
+      </c>
+      <c r="K28" s="15" t="inlineStr">
+        <is>
+          <t>3.173821981424149</t>
+        </is>
+      </c>
+      <c r="L28" s="15" t="inlineStr">
+        <is>
+          <t>1.321601703241424</t>
+        </is>
+      </c>
+      <c r="M28" s="15" t="inlineStr">
+        <is>
+          <t>2.829</t>
+        </is>
+      </c>
+      <c r="N28" s="15" t="inlineStr"/>
+      <c r="O28" s="15" t="inlineStr"/>
+      <c r="P28" s="15" t="inlineStr"/>
+      <c r="Q28" s="15" t="inlineStr"/>
+      <c r="R28" s="15" t="inlineStr"/>
+      <c r="S28" s="15" t="inlineStr"/>
+      <c r="T28" s="15" t="inlineStr"/>
+      <c r="U28" s="15" t="inlineStr"/>
+      <c r="V28" s="15" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="15" t="inlineStr">
+        <is>
+          <t>018</t>
+        </is>
+      </c>
+      <c r="B29" s="15" t="inlineStr">
+        <is>
+          <t>런던 커피 선물</t>
+        </is>
+      </c>
+      <c r="C29" s="15" t="inlineStr"/>
+      <c r="D29" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="G29" s="15" t="inlineStr">
+        <is>
+          <t>1,262</t>
+        </is>
+      </c>
+      <c r="H29" s="15" t="inlineStr">
+        <is>
+          <t>97.15%</t>
+        </is>
+      </c>
+      <c r="I29" s="15" t="inlineStr"/>
+      <c r="J29" s="15" t="inlineStr"/>
+      <c r="K29" s="15" t="inlineStr"/>
+      <c r="L29" s="15" t="inlineStr"/>
+      <c r="M29" s="15" t="inlineStr"/>
+      <c r="N29" s="15" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="O29" s="15" t="inlineStr">
+        <is>
+          <t>2,167.00,
+2,181.00,
+...,
+2,113.00,
+2,086.00</t>
+        </is>
+      </c>
+      <c r="P29" s="15" t="inlineStr">
+        <is>
+          <t>2,167.00: 0.154%,
+2,181.00: 0.077%,
+2,192.00: 0.154%,
+2,182.00: 0.077%,
+2,146.00: 0.154%,
+그 외: 99.384%</t>
+        </is>
+      </c>
+      <c r="Q29" s="15" t="inlineStr"/>
+      <c r="R29" s="15" t="inlineStr"/>
+      <c r="S29" s="15" t="inlineStr">
+        <is>
+          <t>1,312.00,
+1,365.00</t>
+        </is>
+      </c>
+      <c r="T29" s="15" t="inlineStr">
+        <is>
+          <t>1,312.00: 7,
+1,365.00: 7</t>
+        </is>
+      </c>
+      <c r="U29" s="15" t="inlineStr">
+        <is>
+          <t>1,312.00: 0.54%,
+1,365.00: 0.54%</t>
+        </is>
+      </c>
+      <c r="V29" s="15" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="15" t="inlineStr">
+        <is>
+          <t>019</t>
+        </is>
+      </c>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>브렌트유 선물</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="inlineStr"/>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="G30" s="15" t="inlineStr">
+        <is>
+          <t>1,287</t>
+        </is>
+      </c>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>99.08%</t>
+        </is>
+      </c>
+      <c r="I30" s="15" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="J30" s="15" t="inlineStr">
+        <is>
+          <t>127.98</t>
+        </is>
+      </c>
+      <c r="K30" s="15" t="inlineStr">
+        <is>
+          <t>65.95274281274281</t>
+        </is>
+      </c>
+      <c r="L30" s="15" t="inlineStr">
+        <is>
+          <t>18.176867475211683</t>
+        </is>
+      </c>
+      <c r="M30" s="15" t="inlineStr">
+        <is>
+          <t>65.2</t>
+        </is>
+      </c>
+      <c r="N30" s="15" t="inlineStr"/>
+      <c r="O30" s="15" t="inlineStr"/>
+      <c r="P30" s="15" t="inlineStr"/>
+      <c r="Q30" s="15" t="inlineStr"/>
+      <c r="R30" s="15" t="inlineStr"/>
+      <c r="S30" s="15" t="inlineStr"/>
+      <c r="T30" s="15" t="inlineStr"/>
+      <c r="U30" s="15" t="inlineStr"/>
+      <c r="V30" s="15" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="B31" s="15" t="inlineStr">
+        <is>
+          <t>구리 선물</t>
+        </is>
+      </c>
+      <c r="C31" s="15" t="inlineStr"/>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="G31" s="15" t="inlineStr">
+        <is>
+          <t>1,259</t>
+        </is>
+      </c>
+      <c r="H31" s="15" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="I31" s="15" t="inlineStr"/>
+      <c r="J31" s="15" t="inlineStr"/>
+      <c r="K31" s="15" t="inlineStr"/>
+      <c r="L31" s="15" t="inlineStr"/>
+      <c r="M31" s="15" t="inlineStr"/>
+      <c r="N31" s="15" t="inlineStr">
+        <is>
+          <t>1,167</t>
+        </is>
+      </c>
+      <c r="O31" s="15" t="inlineStr">
+        <is>
+          <t>5,914.00,
+5,888.25,
+...,
+8,409.00,
+8,313.00</t>
+        </is>
+      </c>
+      <c r="P31" s="15" t="inlineStr">
+        <is>
+          <t>5,914.00: 0.077%,
+5,888.25: 0.154%,
+5,847.25: 0.077%,
+5,848.75: 0.077%,
+5,829.50: 0.077%,
+그 외: 99.538%</t>
+        </is>
+      </c>
+      <c r="Q31" s="15" t="inlineStr"/>
+      <c r="R31" s="15" t="inlineStr"/>
+      <c r="S31" s="15" t="inlineStr">
+        <is>
+          <t>6,490.00</t>
+        </is>
+      </c>
+      <c r="T31" s="15" t="inlineStr">
+        <is>
+          <t>6,490.00: 4</t>
+        </is>
+      </c>
+      <c r="U31" s="15" t="inlineStr">
+        <is>
+          <t>6,490.00: 0.31%</t>
+        </is>
+      </c>
+      <c r="V31" s="15" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="15" t="inlineStr">
+        <is>
+          <t>021</t>
+        </is>
+      </c>
+      <c r="B32" s="15" t="inlineStr">
+        <is>
+          <t>백금 선물</t>
+        </is>
+      </c>
+      <c r="C32" s="15" t="inlineStr"/>
+      <c r="D32" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E32" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" s="15" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="G32" s="15" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="H32" s="15" t="inlineStr">
+        <is>
+          <t>99.77%</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr"/>
+      <c r="J32" s="15" t="inlineStr"/>
+      <c r="K32" s="15" t="inlineStr"/>
+      <c r="L32" s="15" t="inlineStr"/>
+      <c r="M32" s="15" t="inlineStr"/>
+      <c r="N32" s="15" t="inlineStr">
+        <is>
+          <t>1,189</t>
+        </is>
+      </c>
+      <c r="O32" s="15" t="inlineStr">
+        <is>
+          <t>907.35,
+917.00,
+...,
+903.90,
+903.10</t>
+        </is>
+      </c>
+      <c r="P32" s="15" t="inlineStr">
+        <is>
+          <t>907.35: 0.077%,
+917.00: 0.077%,
+911.20: 0.077%,
+910.05: 0.154%,
+909.00: 0.077%,
+그 외: 99.538%</t>
+        </is>
+      </c>
+      <c r="Q32" s="15" t="inlineStr"/>
+      <c r="R32" s="15" t="inlineStr"/>
+      <c r="S32" s="15" t="inlineStr">
+        <is>
+          <t>1,002.20,
+805.50,
+...</t>
+        </is>
+      </c>
+      <c r="T32" s="15" t="inlineStr">
+        <is>
+          <t>1,002.20: 3,
+805.50: 3</t>
+        </is>
+      </c>
+      <c r="U32" s="15" t="inlineStr">
+        <is>
+          <t>1,002.20: 0.23%,
+805.50: 0.23%</t>
+        </is>
+      </c>
+      <c r="V32" s="15" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B33" s="15" t="inlineStr">
+        <is>
+          <t>은 선물</t>
+        </is>
+      </c>
+      <c r="C33" s="15" t="inlineStr"/>
+      <c r="D33" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E33" s="15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F33" s="15" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="G33" s="15" t="inlineStr">
+        <is>
+          <t>1,297</t>
+        </is>
+      </c>
+      <c r="H33" s="15" t="inlineStr">
+        <is>
+          <t>99.85%</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>11.772</t>
+        </is>
+      </c>
+      <c r="J33" s="15" t="inlineStr">
+        <is>
+          <t>29.441</t>
+        </is>
+      </c>
+      <c r="K33" s="15" t="inlineStr">
+        <is>
+          <t>19.573973785659213</t>
+        </is>
+      </c>
+      <c r="L33" s="15" t="inlineStr">
+        <is>
+          <t>4.392762366574002</t>
+        </is>
+      </c>
+      <c r="M33" s="15" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="N33" s="15" t="inlineStr"/>
+      <c r="O33" s="15" t="inlineStr"/>
+      <c r="P33" s="15" t="inlineStr"/>
+      <c r="Q33" s="15" t="inlineStr"/>
+      <c r="R33" s="15" t="inlineStr"/>
+      <c r="S33" s="15" t="inlineStr"/>
+      <c r="T33" s="15" t="inlineStr"/>
+      <c r="U33" s="15" t="inlineStr"/>
+      <c r="V33" s="15" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="15" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="B34" s="15" t="inlineStr">
+        <is>
+          <t>육우 선물</t>
+        </is>
+      </c>
+      <c r="C34" s="15" t="inlineStr"/>
+      <c r="D34" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E34" s="15" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F34" s="15" t="inlineStr">
+        <is>
+          <t>2.77%</t>
+        </is>
+      </c>
+      <c r="G34" s="15" t="inlineStr">
+        <is>
+          <t>1,263</t>
+        </is>
+      </c>
+      <c r="H34" s="15" t="inlineStr">
+        <is>
+          <t>97.23%</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>108.25</t>
+        </is>
+      </c>
+      <c r="J34" s="15" t="inlineStr">
+        <is>
+          <t>176.02</t>
+        </is>
+      </c>
+      <c r="K34" s="15" t="inlineStr">
+        <is>
+          <t>145.76218527315916</t>
+        </is>
+      </c>
+      <c r="L34" s="15" t="inlineStr">
+        <is>
+          <t>10.686603999703122</t>
+        </is>
+      </c>
+      <c r="M34" s="15" t="inlineStr">
+        <is>
+          <t>144.97</t>
+        </is>
+      </c>
+      <c r="N34" s="15" t="inlineStr"/>
+      <c r="O34" s="15" t="inlineStr"/>
+      <c r="P34" s="15" t="inlineStr"/>
+      <c r="Q34" s="15" t="inlineStr"/>
+      <c r="R34" s="15" t="inlineStr"/>
+      <c r="S34" s="15" t="inlineStr"/>
+      <c r="T34" s="15" t="inlineStr"/>
+      <c r="U34" s="15" t="inlineStr"/>
+      <c r="V34" s="15" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="15" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="B35" s="15" t="inlineStr">
+        <is>
+          <t>알루미늄</t>
+        </is>
+      </c>
+      <c r="C35" s="15" t="inlineStr"/>
+      <c r="D35" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F35" s="15" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="G35" s="15" t="inlineStr">
+        <is>
+          <t>1,259</t>
+        </is>
+      </c>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr"/>
+      <c r="J35" s="15" t="inlineStr"/>
+      <c r="K35" s="15" t="inlineStr"/>
+      <c r="L35" s="15" t="inlineStr"/>
+      <c r="M35" s="15" t="inlineStr"/>
+      <c r="N35" s="15" t="inlineStr">
+        <is>
+          <t>1,044</t>
+        </is>
+      </c>
+      <c r="O35" s="15" t="inlineStr">
+        <is>
+          <t>1,926.75,
+1,927.75,
+...,
+2,477.50,
+2,453.00</t>
+        </is>
+      </c>
+      <c r="P35" s="15" t="inlineStr">
+        <is>
+          <t>1,926.75: 0.077%,
+1,927.75: 0.077%,
+1,928.50: 0.154%,
+1,943.75: 0.077%,
+1,929.75: 0.077%,
+그 외: 99.538%</t>
+        </is>
+      </c>
+      <c r="Q35" s="15" t="inlineStr"/>
+      <c r="R35" s="15" t="inlineStr"/>
+      <c r="S35" s="15" t="inlineStr">
+        <is>
+          <t>1,765.00</t>
+        </is>
+      </c>
+      <c r="T35" s="15" t="inlineStr">
+        <is>
+          <t>1,765.00: 6</t>
+        </is>
+      </c>
+      <c r="U35" s="15" t="inlineStr">
+        <is>
+          <t>1,765.00: 0.46%</t>
+        </is>
+      </c>
+      <c r="V35" s="15" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="B36" s="15" t="inlineStr">
+        <is>
+          <t>미국 대두 선물</t>
+        </is>
+      </c>
+      <c r="C36" s="15" t="inlineStr"/>
+      <c r="D36" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E36" s="15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F36" s="15" t="inlineStr">
+        <is>
+          <t>1.77%</t>
+        </is>
+      </c>
+      <c r="G36" s="15" t="inlineStr">
+        <is>
+          <t>1,276</t>
+        </is>
+      </c>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>98.23%</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="inlineStr"/>
+      <c r="J36" s="15" t="inlineStr"/>
+      <c r="K36" s="15" t="inlineStr"/>
+      <c r="L36" s="15" t="inlineStr"/>
+      <c r="M36" s="15" t="inlineStr"/>
+      <c r="N36" s="15" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="O36" s="15" t="inlineStr">
+        <is>
+          <t>964.75,
+nan,
+...,
+1,593.25,
+1,616.12</t>
+        </is>
+      </c>
+      <c r="P36" s="15" t="inlineStr">
+        <is>
+          <t>964.75: 0.077%,
+nan: 0.000%,
+976.25: 0.154%,
+980.75: 0.154%,
+996.00: 0.154%,
+그 외: 97.691%</t>
+        </is>
+      </c>
+      <c r="Q36" s="15" t="inlineStr"/>
+      <c r="R36" s="15" t="inlineStr"/>
+      <c r="S36" s="15" t="inlineStr">
+        <is>
+          <t>850.25,
+884.25,
+...</t>
+        </is>
+      </c>
+      <c r="T36" s="15" t="inlineStr">
+        <is>
+          <t>850.25: 5,
+884.25: 5</t>
+        </is>
+      </c>
+      <c r="U36" s="15" t="inlineStr">
+        <is>
+          <t>850.25: 0.38%,
+884.25: 0.38%</t>
+        </is>
+      </c>
+      <c r="V36" s="15" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="inlineStr">
+        <is>
+          <t>026</t>
+        </is>
+      </c>
+      <c r="B37" s="15" t="inlineStr">
+        <is>
+          <t>팔라듐 선물</t>
+        </is>
+      </c>
+      <c r="C37" s="15" t="inlineStr"/>
+      <c r="D37" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E37" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F37" s="15" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="G37" s="15" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>99.77%</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="inlineStr"/>
+      <c r="J37" s="15" t="inlineStr"/>
+      <c r="K37" s="15" t="inlineStr"/>
+      <c r="L37" s="15" t="inlineStr"/>
+      <c r="M37" s="15" t="inlineStr"/>
+      <c r="N37" s="15" t="inlineStr">
+        <is>
+          <t>1,241</t>
+        </is>
+      </c>
+      <c r="O37" s="15" t="inlineStr">
+        <is>
+          <t>842.40,
+850.25,
+...,
+1,833.03,
+1,854.28</t>
+        </is>
+      </c>
+      <c r="P37" s="15" t="inlineStr">
+        <is>
+          <t>842.40: 0.077%,
+850.25: 0.077%,
+834.40: 0.077%,
+832.20: 0.077%,
+831.25: 0.077%,
+그 외: 99.615%</t>
+        </is>
+      </c>
+      <c r="Q37" s="15" t="inlineStr"/>
+      <c r="R37" s="15" t="inlineStr"/>
+      <c r="S37" s="15" t="inlineStr">
+        <is>
+          <t>2,334.00</t>
+        </is>
+      </c>
+      <c r="T37" s="15" t="inlineStr">
+        <is>
+          <t>2,334.00: 4</t>
+        </is>
+      </c>
+      <c r="U37" s="15" t="inlineStr">
+        <is>
+          <t>2,334.00: 0.31%</t>
+        </is>
+      </c>
+      <c r="V37" s="15" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="15" t="inlineStr">
+        <is>
+          <t>027</t>
+        </is>
+      </c>
+      <c r="B38" s="15" t="inlineStr">
+        <is>
+          <t>귀리 선물</t>
+        </is>
+      </c>
+      <c r="C38" s="15" t="inlineStr"/>
+      <c r="D38" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E38" s="15" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F38" s="15" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="G38" s="15" t="inlineStr">
+        <is>
+          <t>1,257</t>
+        </is>
+      </c>
+      <c r="H38" s="15" t="inlineStr">
+        <is>
+          <t>96.77%</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>218.5</t>
+        </is>
+      </c>
+      <c r="J38" s="15" t="inlineStr">
+        <is>
+          <t>807.0</t>
+        </is>
+      </c>
+      <c r="K38" s="15" t="inlineStr">
+        <is>
+          <t>356.84634049323785</t>
+        </is>
+      </c>
+      <c r="L38" s="15" t="inlineStr">
+        <is>
+          <t>148.9730403600372</t>
+        </is>
+      </c>
+      <c r="M38" s="15" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="N38" s="15" t="inlineStr"/>
+      <c r="O38" s="15" t="inlineStr"/>
+      <c r="P38" s="15" t="inlineStr"/>
+      <c r="Q38" s="15" t="inlineStr"/>
+      <c r="R38" s="15" t="inlineStr"/>
+      <c r="S38" s="15" t="inlineStr"/>
+      <c r="T38" s="15" t="inlineStr"/>
+      <c r="U38" s="15" t="inlineStr"/>
+      <c r="V38" s="15" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="15" t="inlineStr">
+        <is>
+          <t>028</t>
+        </is>
+      </c>
+      <c r="B39" s="15" t="inlineStr">
+        <is>
+          <t>금 선물</t>
+        </is>
+      </c>
+      <c r="C39" s="15" t="inlineStr"/>
+      <c r="D39" s="15" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="E39" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F39" s="15" t="inlineStr">
+        <is>
+          <t>0.23%</t>
+        </is>
+      </c>
+      <c r="G39" s="15" t="inlineStr">
+        <is>
+          <t>1,296</t>
+        </is>
+      </c>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>99.77%</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr"/>
+      <c r="J39" s="15" t="inlineStr"/>
+      <c r="K39" s="15" t="inlineStr"/>
+      <c r="L39" s="15" t="inlineStr"/>
+      <c r="M39" s="15" t="inlineStr"/>
+      <c r="N39" s="15" t="inlineStr">
+        <is>
+          <t>1,151</t>
+        </is>
+      </c>
+      <c r="O39" s="15" t="inlineStr">
+        <is>
+          <t>1,219.20,
+1,227.55,
+...,
+1,829.80,
+1,829.05</t>
+        </is>
+      </c>
+      <c r="P39" s="15" t="inlineStr">
+        <is>
+          <t>1,219.20: 0.077%,
+1,227.55: 0.077%,
+1,221.70: 0.077%,
+1,223.30: 0.077%,
+1,209.70: 0.077%,
+그 외: 99.615%</t>
+        </is>
+      </c>
+      <c r="Q39" s="15" t="inlineStr"/>
+      <c r="R39" s="15" t="inlineStr"/>
+      <c r="S39" s="15" t="inlineStr">
+        <is>
+          <t>1,274.20,
+1,791.30,
+1,848.40</t>
+        </is>
+      </c>
+      <c r="T39" s="15" t="inlineStr">
+        <is>
+          <t>1,274.20: 4,
+1,791.30: 4,
+1,848.40: 4</t>
+        </is>
+      </c>
+      <c r="U39" s="15" t="inlineStr">
+        <is>
+          <t>1,274.20: 0.31%,
+1,791.30: 0.31%,
+1,848.40: 0.31%</t>
+        </is>
+      </c>
+      <c r="V39" s="15" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="inlineStr">
+        <is>
+          <t>029</t>
+        </is>
+      </c>
+      <c r="B40" s="15" t="inlineStr">
+        <is>
+          <t>미국 설탕 No.11 선물</t>
+        </is>
+      </c>
+      <c r="C40" s="15" t="inlineStr"/>
+      <c r="D40" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E40" s="15" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F40" s="15" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="G40" s="15" t="inlineStr">
+        <is>
+          <t>1,257</t>
+        </is>
+      </c>
+      <c r="H40" s="15" t="inlineStr">
+        <is>
+          <t>96.77%</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="J40" s="15" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="K40" s="15" t="inlineStr">
+        <is>
+          <t>14.36123309466985</t>
+        </is>
+      </c>
+      <c r="L40" s="15" t="inlineStr">
+        <is>
+          <t>2.8477905712152705</t>
+        </is>
+      </c>
+      <c r="M40" s="15" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
+      </c>
+      <c r="N40" s="15" t="inlineStr"/>
+      <c r="O40" s="15" t="inlineStr"/>
+      <c r="P40" s="15" t="inlineStr"/>
+      <c r="Q40" s="15" t="inlineStr"/>
+      <c r="R40" s="15" t="inlineStr"/>
+      <c r="S40" s="15" t="inlineStr"/>
+      <c r="T40" s="15" t="inlineStr"/>
+      <c r="U40" s="15" t="inlineStr"/>
+      <c r="V40" s="15" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="inlineStr">
+        <is>
+          <t>030</t>
+        </is>
+      </c>
+      <c r="B41" s="15" t="inlineStr">
+        <is>
+          <t>미국 대두박 선물</t>
+        </is>
+      </c>
+      <c r="C41" s="15" t="inlineStr"/>
+      <c r="D41" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E41" s="15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F41" s="15" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="G41" s="15" t="inlineStr">
+        <is>
+          <t>1,279</t>
+        </is>
+      </c>
+      <c r="H41" s="15" t="inlineStr">
+        <is>
+          <t>98.46%</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="J41" s="15" t="inlineStr">
+        <is>
+          <t>521.9</t>
+        </is>
+      </c>
+      <c r="K41" s="15" t="inlineStr">
+        <is>
+          <t>343.8455824863174</t>
+        </is>
+      </c>
+      <c r="L41" s="15" t="inlineStr">
+        <is>
+          <t>52.01971681048517</t>
+        </is>
+      </c>
+      <c r="M41" s="15" t="inlineStr">
+        <is>
+          <t>322.3</t>
+        </is>
+      </c>
+      <c r="N41" s="15" t="inlineStr"/>
+      <c r="O41" s="15" t="inlineStr"/>
+      <c r="P41" s="15" t="inlineStr"/>
+      <c r="Q41" s="15" t="inlineStr"/>
+      <c r="R41" s="15" t="inlineStr"/>
+      <c r="S41" s="15" t="inlineStr"/>
+      <c r="T41" s="15" t="inlineStr"/>
+      <c r="U41" s="15" t="inlineStr"/>
+      <c r="V41" s="15" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="15" t="inlineStr">
+        <is>
+          <t>031</t>
+        </is>
+      </c>
+      <c r="B42" s="15" t="inlineStr">
+        <is>
+          <t>난방유 선물</t>
+        </is>
+      </c>
+      <c r="C42" s="15" t="inlineStr"/>
+      <c r="D42" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E42" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F42" s="15" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="G42" s="15" t="inlineStr">
+        <is>
+          <t>1,291</t>
+        </is>
+      </c>
+      <c r="H42" s="15" t="inlineStr">
+        <is>
+          <t>99.38%</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="J42" s="15" t="inlineStr">
+        <is>
+          <t>5.1354</t>
+        </is>
+      </c>
+      <c r="K42" s="15" t="inlineStr">
+        <is>
+          <t>1.9941939581719599</t>
+        </is>
+      </c>
+      <c r="L42" s="15" t="inlineStr">
+        <is>
+          <t>0.652433795894636</t>
+        </is>
+      </c>
+      <c r="M42" s="15" t="inlineStr">
+        <is>
+          <t>1.9469</t>
+        </is>
+      </c>
+      <c r="N42" s="15" t="inlineStr"/>
+      <c r="O42" s="15" t="inlineStr"/>
+      <c r="P42" s="15" t="inlineStr"/>
+      <c r="Q42" s="15" t="inlineStr"/>
+      <c r="R42" s="15" t="inlineStr"/>
+      <c r="S42" s="15" t="inlineStr"/>
+      <c r="T42" s="15" t="inlineStr"/>
+      <c r="U42" s="15" t="inlineStr"/>
+      <c r="V42" s="15" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="15" t="inlineStr">
+        <is>
+          <t>032</t>
+        </is>
+      </c>
+      <c r="B43" s="15" t="inlineStr">
+        <is>
+          <t>돈육 선물</t>
+        </is>
+      </c>
+      <c r="C43" s="15" t="inlineStr"/>
+      <c r="D43" s="15" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+      <c r="E43" s="15" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F43" s="15" t="inlineStr">
+        <is>
+          <t>2.93%</t>
+        </is>
+      </c>
+      <c r="G43" s="15" t="inlineStr">
+        <is>
+          <t>1,261</t>
+        </is>
+      </c>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>97.07%</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="J43" s="15" t="inlineStr">
+        <is>
+          <t>122.88</t>
+        </is>
+      </c>
+      <c r="K43" s="15" t="inlineStr">
+        <is>
+          <t>74.12928628072957</t>
+        </is>
+      </c>
+      <c r="L43" s="15" t="inlineStr">
+        <is>
+          <t>17.768508203445634</t>
+        </is>
+      </c>
+      <c r="M43" s="15" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="N43" s="15" t="inlineStr"/>
+      <c r="O43" s="15" t="inlineStr"/>
+      <c r="P43" s="15" t="inlineStr"/>
+      <c r="Q43" s="15" t="inlineStr"/>
+      <c r="R43" s="15" t="inlineStr"/>
+      <c r="S43" s="15" t="inlineStr"/>
+      <c r="T43" s="15" t="inlineStr"/>
+      <c r="U43" s="15" t="inlineStr"/>
+      <c r="V43" s="15" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1625,7 +3358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,7 +3403,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>CAB_RIDES</t>
+          <t>ZBZ_TX_HISTORY</t>
         </is>
       </c>
     </row>
@@ -1687,7 +3420,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>택시운행정보</t>
+          <t>Zombiz 토큰 거래 내역 데이터 테이블</t>
         </is>
       </c>
     </row>
@@ -1722,7 +3455,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>(693071, 10)</t>
+          <t>(851, 9)</t>
         </is>
       </c>
     </row>
@@ -1894,17 +3627,17 @@
       </c>
       <c r="B12" s="15" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>TX HASH</t>
         </is>
       </c>
       <c r="C12" s="15" t="inlineStr">
         <is>
-          <t>운행거리</t>
+          <t>거래 해시 정보</t>
         </is>
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -1919,7 +3652,7 @@
       </c>
       <c r="G12" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H12" s="15" t="inlineStr">
@@ -1927,39 +3660,56 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I12" s="15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="J12" s="15" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="K12" s="15" t="inlineStr">
-        <is>
-          <t>2.1894297553930255</t>
-        </is>
-      </c>
-      <c r="L12" s="15" t="inlineStr">
-        <is>
-          <t>1.1389369868597294</t>
-        </is>
-      </c>
-      <c r="M12" s="15" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="N12" s="15" t="inlineStr"/>
-      <c r="O12" s="15" t="inlineStr"/>
-      <c r="P12" s="15" t="inlineStr"/>
+      <c r="I12" s="15" t="inlineStr"/>
+      <c r="J12" s="15" t="inlineStr"/>
+      <c r="K12" s="15" t="inlineStr"/>
+      <c r="L12" s="15" t="inlineStr"/>
+      <c r="M12" s="15" t="inlineStr"/>
+      <c r="N12" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="O12" s="15" t="inlineStr">
+        <is>
+          <t>0x981b6e3a9f5fb0ebcfea6c72df1f3d43e5fb720ad6f766e61edcbf67982baf61,
+0x76691b23957a9410ac078b3e41fe64380805844e033173be382407e8215ad531,
+...,
+0xd814cc0012d854dd9096602e32931d68787b63958dbbd9dd3f0f7dc574aae6ab,
+0x037e90a9180bcb25e1ba2424dfcd160f037d75b81b5da251033c767009e06ca2</t>
+        </is>
+      </c>
+      <c r="P12" s="15" t="inlineStr">
+        <is>
+          <t>0x981b6e3a9f5fb0ebcfea6c72df1f3d43e5fb720ad6f766e61edcbf67982baf61: 0.118%,
+0x76691b23957a9410ac078b3e41fe64380805844e033173be382407e8215ad531: 0.118%,
+0xe5d71480671a20a717e9eac91a3d3a967108b552e6a762669f1353928ec44914: 0.118%,
+0x25519e5a9bb28decdbcc577acc9c4dd70811e21188330b946d4430b6eda9c8fb: 0.118%,
+0x9cfde14eb6e3b8df05db53a220cfd60191b5bd6bc9374ed1d76e659fdd803d3a: 0.118%,
+그 외: 99.412%</t>
+        </is>
+      </c>
       <c r="Q12" s="15" t="inlineStr"/>
       <c r="R12" s="15" t="inlineStr"/>
-      <c r="S12" s="15" t="inlineStr"/>
-      <c r="T12" s="15" t="inlineStr"/>
-      <c r="U12" s="15" t="inlineStr"/>
+      <c r="S12" s="15" t="inlineStr">
+        <is>
+          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26,
+0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda,
+...</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
+        <is>
+          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26: 1,
+0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda: 1</t>
+        </is>
+      </c>
+      <c r="U12" s="15" t="inlineStr">
+        <is>
+          <t>0x0049bf84fbe8b2b3ee86c474908d6dd4b40d960eface320a6d51aa2d2c001e26: 0.12%,
+0x004f275b307d34d7bc4cc549a6ed7600f12c37c1430032210fc5b3e5ced94cda: 0.12%</t>
+        </is>
+      </c>
       <c r="V12" s="15" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1970,17 +3720,17 @@
       </c>
       <c r="B13" s="15" t="inlineStr">
         <is>
-          <t>cab_type</t>
+          <t>BLOCK #</t>
         </is>
       </c>
       <c r="C13" s="15" t="inlineStr">
         <is>
-          <t>택시유형</t>
+          <t>거래 블록 정보</t>
         </is>
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -1995,7 +3745,7 @@
       </c>
       <c r="G13" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H13" s="15" t="inlineStr">
@@ -2010,43 +3760,47 @@
       <c r="M13" s="15" t="inlineStr"/>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>851</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
         <is>
-          <t>Lyft,
-Uber</t>
+          <t>106073777,
+106075492,
+...,
+117449276,
+117819562</t>
         </is>
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>Lyft: 44.354%,
-Uber: 55.646%</t>
-        </is>
-      </c>
-      <c r="Q13" s="15" t="inlineStr">
-        <is>
-          <t>Lyft,
-Uber</t>
-        </is>
-      </c>
-      <c r="R13" s="15" t="n">
-        <v>2</v>
-      </c>
+          <t>106073777: 0.118%,
+106075492: 0.118%,
+106136694: 0.118%,
+106136808: 0.118%,
+106137869: 0.118%,
+그 외: 99.412%</t>
+        </is>
+      </c>
+      <c r="Q13" s="15" t="inlineStr"/>
+      <c r="R13" s="15" t="inlineStr"/>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>106073777,
+106075492,
+...</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
         <is>
-          <t>Uber: 385,663</t>
+          <t>106073777: 1,
+106075492: 1</t>
         </is>
       </c>
       <c r="U13" s="15" t="inlineStr">
         <is>
-          <t>Uber: 55.65%</t>
+          <t>106073777: 0.12%,
+106075492: 0.12%</t>
         </is>
       </c>
       <c r="V13" s="15" t="inlineStr"/>
@@ -2059,17 +3813,17 @@
       </c>
       <c r="B14" s="15" t="inlineStr">
         <is>
-          <t>time_stamp</t>
+          <t>TIME(KST)</t>
         </is>
       </c>
       <c r="C14" s="15" t="inlineStr">
         <is>
-          <t>수집시간</t>
+          <t>거래 일시</t>
         </is>
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -2084,7 +3838,7 @@
       </c>
       <c r="G14" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H14" s="15" t="inlineStr">
@@ -2094,37 +3848,62 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>1543203646318</t>
+          <t>2022-11-09T16:37:51+09:00</t>
         </is>
       </c>
       <c r="J14" s="15" t="inlineStr">
         <is>
-          <t>1545160510943</t>
-        </is>
-      </c>
-      <c r="K14" s="15" t="inlineStr">
-        <is>
-          <t>1544045709764.3572</t>
-        </is>
-      </c>
-      <c r="L14" s="15" t="inlineStr">
-        <is>
-          <t>689192492.4004105</t>
-        </is>
-      </c>
-      <c r="M14" s="15" t="inlineStr">
-        <is>
-          <t>1543737477529.0</t>
-        </is>
-      </c>
-      <c r="N14" s="15" t="inlineStr"/>
-      <c r="O14" s="15" t="inlineStr"/>
-      <c r="P14" s="15" t="inlineStr"/>
+          <t>2023-03-25T16:45:02+09:00</t>
+        </is>
+      </c>
+      <c r="K14" s="15" t="inlineStr"/>
+      <c r="L14" s="15" t="inlineStr"/>
+      <c r="M14" s="15" t="inlineStr"/>
+      <c r="N14" s="15" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="O14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00,
+2022-11-09T17:06:26+09:00,
+...,
+2023-03-21T09:51:14+09:00,
+2023-03-25T16:45:02+09:00</t>
+        </is>
+      </c>
+      <c r="P14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00: 0.118%,
+2022-11-09T17:06:26+09:00: 0.118%,
+2022-11-10T10:06:32+09:00: 0.118%,
+2022-11-10T10:08:26+09:00: 0.118%,
+2022-11-10T10:26:07+09:00: 0.118%,
+그 외: 99.412%</t>
+        </is>
+      </c>
       <c r="Q14" s="15" t="inlineStr"/>
       <c r="R14" s="15" t="inlineStr"/>
-      <c r="S14" s="15" t="inlineStr"/>
-      <c r="T14" s="15" t="inlineStr"/>
-      <c r="U14" s="15" t="inlineStr"/>
+      <c r="S14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00,
+2022-11-09T17:06:26+09:00,
+...</t>
+        </is>
+      </c>
+      <c r="T14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00: 1,
+2022-11-09T17:06:26+09:00: 1</t>
+        </is>
+      </c>
+      <c r="U14" s="15" t="inlineStr">
+        <is>
+          <t>2022-11-09T16:37:51+09:00: 0.12%,
+2022-11-09T17:06:26+09:00: 0.12%</t>
+        </is>
+      </c>
       <c r="V14" s="15" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2135,12 +3914,12 @@
       </c>
       <c r="B15" s="15" t="inlineStr">
         <is>
-          <t>destination</t>
+          <t>FROM</t>
         </is>
       </c>
       <c r="C15" s="15" t="inlineStr">
         <is>
-          <t>도착지</t>
+          <t>토큰 출발 지갑 주소</t>
         </is>
       </c>
       <c r="D15" s="15" t="inlineStr">
@@ -2160,7 +3939,7 @@
       </c>
       <c r="G15" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H15" s="15" t="inlineStr">
@@ -2175,43 +3954,40 @@
       <c r="M15" s="15" t="inlineStr"/>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
         <is>
-          <t>North Station,
-Northeastern University,
-...,
-Financial District,
-Boston University</t>
+          <t>0x0640f07e775f907f0a092c416d55afa49a2ea25b,
+0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02,
+0x5792055e90f6b3d4b50759b768fa7483575e2684,
+0xac893beb1aa78598e640397838637e523197a62c</t>
         </is>
       </c>
       <c r="P15" s="15" t="inlineStr">
         <is>
-          <t>North Station: 8.241%,
-Northeastern University: 8.333%,
-West End: 8.307%,
-Haymarket Square: 8.334%,
-South Station: 8.332%,
-그 외: 58.451%</t>
+          <t>0x0640f07e775f907f0a092c416d55afa49a2ea25b: 0.118%,
+0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 99.530%,
+0x5792055e90f6b3d4b50759b768fa7483575e2684: 0.118%,
+0xac893beb1aa78598e640397838637e523197a62c: 0.235%</t>
         </is>
       </c>
       <c r="Q15" s="15" t="inlineStr"/>
       <c r="R15" s="15" t="inlineStr"/>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>Financial District</t>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
         <is>
-          <t>Financial District: 58,851</t>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 847</t>
         </is>
       </c>
       <c r="U15" s="15" t="inlineStr">
         <is>
-          <t>Financial District: 8.49%</t>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 99.53%</t>
         </is>
       </c>
       <c r="V15" s="15" t="inlineStr"/>
@@ -2224,12 +4000,12 @@
       </c>
       <c r="B16" s="15" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="C16" s="15" t="inlineStr">
         <is>
-          <t>출발지</t>
+          <t>토큰 도착 지갑 주소</t>
         </is>
       </c>
       <c r="D16" s="15" t="inlineStr">
@@ -2249,7 +4025,7 @@
       </c>
       <c r="G16" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H16" s="15" t="inlineStr">
@@ -2264,43 +4040,43 @@
       <c r="M16" s="15" t="inlineStr"/>
       <c r="N16" s="15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O16" s="15" t="inlineStr">
         <is>
-          <t>Haymarket Square,
-Back Bay,
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02,
+0x2bce562445a71cc5bd9d6f0a4ae601873b08a083,
 ...,
-Financial District,
-Northeastern University</t>
+0x048614204ca4798157341040b323f7e72b7f9c4a,
+0x6d84231ef80e98fef0a760148d8372c0dad5ced3</t>
         </is>
       </c>
       <c r="P16" s="15" t="inlineStr">
         <is>
-          <t>Haymarket Square: 8.330%,
-Back Bay: 8.339%,
-North End: 8.334%,
-North Station: 8.241%,
-Beacon Hill: 8.282%,
-그 외: 58.473%</t>
+          <t>0x2424ba2229c0ecd6ffc43768ae1de6bdb12abc02: 0.470%,
+0x2bce562445a71cc5bd9d6f0a4ae601873b08a083: 0.940%,
+0xac893beb1aa78598e640397838637e523197a62c: 0.353%,
+0xe88df88e99874ddc11f2af0cc40bc746211dd03a: 3.173%,
+0x328d9d96b35fbb5fb418901313639bacc0169c76: 0.118%,
+그 외: 94.947%</t>
         </is>
       </c>
       <c r="Q16" s="15" t="inlineStr"/>
       <c r="R16" s="15" t="inlineStr"/>
       <c r="S16" s="15" t="inlineStr">
         <is>
-          <t>Financial District</t>
+          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c</t>
         </is>
       </c>
       <c r="T16" s="15" t="inlineStr">
         <is>
-          <t>Financial District: 58,857</t>
+          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c: 248</t>
         </is>
       </c>
       <c r="U16" s="15" t="inlineStr">
         <is>
-          <t>Financial District: 8.49%</t>
+          <t>0x25943261dd9184b4b6645eeb7fc6023f2c179f8c: 29.14%</t>
         </is>
       </c>
       <c r="V16" s="15" t="inlineStr"/>
@@ -2313,12 +4089,12 @@
       </c>
       <c r="B17" s="15" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="C17" s="15" t="inlineStr">
         <is>
-          <t>운행요금</t>
+          <t>토큰 거래액</t>
         </is>
       </c>
       <c r="D17" s="15" t="inlineStr">
@@ -2328,47 +4104,47 @@
       </c>
       <c r="E17" s="15" t="inlineStr">
         <is>
-          <t>55,095</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" s="15" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="G17" s="15" t="inlineStr">
         <is>
-          <t>637,976</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>92.05%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
         <is>
-          <t>97.5</t>
+          <t>500000.0</t>
         </is>
       </c>
       <c r="K17" s="15" t="inlineStr">
         <is>
-          <t>16.545125490614065</t>
+          <t>856.8726987857423</t>
         </is>
       </c>
       <c r="L17" s="15" t="inlineStr">
         <is>
-          <t>9.324358581411627</t>
+          <t>17237.170530108375</t>
         </is>
       </c>
       <c r="M17" s="15" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="N17" s="15" t="inlineStr"/>
@@ -2389,17 +4165,17 @@
       </c>
       <c r="B18" s="15" t="inlineStr">
         <is>
-          <t>surge_multiplier</t>
+          <t>TOKEN ADDRESS</t>
         </is>
       </c>
       <c r="C18" s="15" t="inlineStr">
         <is>
-          <t>요금배율</t>
+          <t>토큰 주소 해시 정보</t>
         </is>
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>varchar</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -2414,7 +4190,7 @@
       </c>
       <c r="G18" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H18" s="15" t="inlineStr">
@@ -2422,39 +4198,43 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I18" s="15" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J18" s="15" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="K18" s="15" t="inlineStr">
-        <is>
-          <t>1.0138697911180816</t>
-        </is>
-      </c>
-      <c r="L18" s="15" t="inlineStr">
-        <is>
-          <t>0.09164126209924149</t>
-        </is>
-      </c>
-      <c r="M18" s="15" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="N18" s="15" t="inlineStr"/>
-      <c r="O18" s="15" t="inlineStr"/>
-      <c r="P18" s="15" t="inlineStr"/>
+      <c r="I18" s="15" t="inlineStr"/>
+      <c r="J18" s="15" t="inlineStr"/>
+      <c r="K18" s="15" t="inlineStr"/>
+      <c r="L18" s="15" t="inlineStr"/>
+      <c r="M18" s="15" t="inlineStr"/>
+      <c r="N18" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76</t>
+        </is>
+      </c>
+      <c r="P18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 100.000%</t>
+        </is>
+      </c>
       <c r="Q18" s="15" t="inlineStr"/>
       <c r="R18" s="15" t="inlineStr"/>
-      <c r="S18" s="15" t="inlineStr"/>
-      <c r="T18" s="15" t="inlineStr"/>
-      <c r="U18" s="15" t="inlineStr"/>
+      <c r="S18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76</t>
+        </is>
+      </c>
+      <c r="T18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 851</t>
+        </is>
+      </c>
+      <c r="U18" s="15" t="inlineStr">
+        <is>
+          <t>0x35805bec6c7e3cf900ff8d1bb8267e535b1ddd76: 100.00%</t>
+        </is>
+      </c>
       <c r="V18" s="15" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2465,12 +4245,12 @@
       </c>
       <c r="B19" s="15" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>TOKEN NAME</t>
         </is>
       </c>
       <c r="C19" s="15" t="inlineStr">
         <is>
-          <t>고유ID</t>
+          <t>토큰명</t>
         </is>
       </c>
       <c r="D19" s="15" t="inlineStr">
@@ -2490,7 +4270,7 @@
       </c>
       <c r="G19" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H19" s="15" t="inlineStr">
@@ -2505,47 +4285,34 @@
       <c r="M19" s="15" t="inlineStr"/>
       <c r="N19" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O19" s="15" t="inlineStr">
         <is>
-          <t>424553bb-7174-41ea-aeb4-fe06d4f4b9d7,
-4bd23055-6827-41c6-b23b-3c491f24e74d,
-...,
-727e5f07-a96b-4ad1-a2c7-9abc3ad55b4e,
-e7fdc087-fe86-40a5-a3c3-3b2a8badcbda</t>
+          <t>ZOMBIZ</t>
         </is>
       </c>
       <c r="P19" s="15" t="inlineStr">
         <is>
-          <t>424553bb-7174-41ea-aeb4-fe06d4f4b9d7: 0.000%,
-4bd23055-6827-41c6-b23b-3c491f24e74d: 0.000%,
-981a3613-77af-4620-a42a-0c0866077d1e: 0.000%,
-c2d88af2-d278-4bfd-a8d0-29ca77cc5512: 0.000%,
-e0126e1f-8ca9-4f2e-82b3-50505a09db9a: 0.000%,
-그 외: 99.999%</t>
+          <t>ZOMBIZ: 100.000%</t>
         </is>
       </c>
       <c r="Q19" s="15" t="inlineStr"/>
       <c r="R19" s="15" t="inlineStr"/>
       <c r="S19" s="15" t="inlineStr">
         <is>
-          <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3,
-00006eeb-0183-40c1-8198-c441d3c8a734,
-...</t>
+          <t>ZOMBIZ</t>
         </is>
       </c>
       <c r="T19" s="15" t="inlineStr">
         <is>
-          <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3: 1,
-00006eeb-0183-40c1-8198-c441d3c8a734: 1</t>
+          <t>ZOMBIZ: 851</t>
         </is>
       </c>
       <c r="U19" s="15" t="inlineStr">
         <is>
-          <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3: 0.00%,
-00006eeb-0183-40c1-8198-c441d3c8a734: 0.00%</t>
+          <t>ZOMBIZ: 100.00%</t>
         </is>
       </c>
       <c r="V19" s="15" t="inlineStr"/>
@@ -2558,12 +4325,12 @@
       </c>
       <c r="B20" s="15" t="inlineStr">
         <is>
-          <t>product_id</t>
+          <t>TOKEN SYMBOL</t>
         </is>
       </c>
       <c r="C20" s="15" t="inlineStr">
         <is>
-          <t>회사별고유ID</t>
+          <t>토큰 기호</t>
         </is>
       </c>
       <c r="D20" s="15" t="inlineStr">
@@ -2583,7 +4350,7 @@
       </c>
       <c r="G20" s="15" t="inlineStr">
         <is>
-          <t>693,071</t>
+          <t>851</t>
         </is>
       </c>
       <c r="H20" s="15" t="inlineStr">
@@ -2598,147 +4365,37 @@
       <c r="M20" s="15" t="inlineStr"/>
       <c r="N20" s="15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O20" s="15" t="inlineStr">
         <is>
-          <t>lyft_line,
-lyft_premier,
-...,
-997acbb5-e102-41e1-b155-9df7de0a73f2,
-8cf7e821-f0d3-49c6-8eba-e679c0ebcf6a</t>
+          <t>ZBZ</t>
         </is>
       </c>
       <c r="P20" s="15" t="inlineStr">
         <is>
-          <t>lyft_line: 7.392%,
-lyft_premier: 7.392%,
-lyft: 7.392%,
-lyft_luxsuv: 7.392%,
-lyft_plus: 7.392%,
-그 외: 63.038%</t>
+          <t>ZBZ: 100.000%</t>
         </is>
       </c>
       <c r="Q20" s="15" t="inlineStr"/>
       <c r="R20" s="15" t="inlineStr"/>
       <c r="S20" s="15" t="inlineStr">
         <is>
-          <t>6d318bcc-22a3-4af6-bddd-b409bfce1546,
-6f72dfc5-27f1-42e8-84db-ccc7a75f6969,
-9a0e7b09-b92b-4c41-9779-2ad22b4d779d</t>
+          <t>ZBZ</t>
         </is>
       </c>
       <c r="T20" s="15" t="inlineStr">
         <is>
-          <t>6d318bcc-22a3-4af6-bddd-b409bfce1546: 55,096,
-6f72dfc5-27f1-42e8-84db-ccc7a75f6969: 55,096,
-9a0e7b09-b92b-4c41-9779-2ad22b4d779d: 55,096</t>
+          <t>ZBZ: 851</t>
         </is>
       </c>
       <c r="U20" s="15" t="inlineStr">
         <is>
-          <t>6d318bcc-22a3-4af6-bddd-b409bfce1546: 7.95%,
-6f72dfc5-27f1-42e8-84db-ccc7a75f6969: 7.95%,
-9a0e7b09-b92b-4c41-9779-2ad22b4d779d: 7.95%</t>
+          <t>ZBZ: 100.00%</t>
         </is>
       </c>
       <c r="V20" s="15" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>회사명</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="inlineStr">
-        <is>
-          <t>varchar</t>
-        </is>
-      </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G21" s="15" t="inlineStr">
-        <is>
-          <t>693,071</t>
-        </is>
-      </c>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr"/>
-      <c r="J21" s="15" t="inlineStr"/>
-      <c r="K21" s="15" t="inlineStr"/>
-      <c r="L21" s="15" t="inlineStr"/>
-      <c r="M21" s="15" t="inlineStr"/>
-      <c r="N21" s="15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O21" s="15" t="inlineStr">
-        <is>
-          <t>Shared,
-Lux,
-...,
-UberPool,
-Taxi</t>
-        </is>
-      </c>
-      <c r="P21" s="15" t="inlineStr">
-        <is>
-          <t>Shared: 7.392%,
-Lux: 7.392%,
-Lyft: 7.392%,
-Lux Black XL: 7.392%,
-Lyft XL: 7.392%,
-그 외: 63.038%</t>
-        </is>
-      </c>
-      <c r="Q21" s="15" t="inlineStr"/>
-      <c r="R21" s="15" t="inlineStr"/>
-      <c r="S21" s="15" t="inlineStr">
-        <is>
-          <t>Black SUV,
-UberXL,
-WAV</t>
-        </is>
-      </c>
-      <c r="T21" s="15" t="inlineStr">
-        <is>
-          <t>Black SUV: 55,096,
-UberXL: 55,096,
-WAV: 55,096</t>
-        </is>
-      </c>
-      <c r="U21" s="15" t="inlineStr">
-        <is>
-          <t>Black SUV: 7.95%,
-UberXL: 7.95%,
-WAV: 7.95%</t>
-        </is>
-      </c>
-      <c r="V21" s="15" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2760,7 +4417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2805,7 +4462,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>CNT_TX_HISTORY</t>
+          <t>CAB_RIDES</t>
         </is>
       </c>
     </row>
@@ -2822,7 +4479,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Continue 토큰 거래 내역 데이터 테이블</t>
+          <t>택시운행정보</t>
         </is>
       </c>
     </row>
@@ -2857,7 +4514,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>(2759, 9)</t>
+          <t>(693071, 10)</t>
         </is>
       </c>
     </row>
@@ -3029,17 +4686,17 @@
       </c>
       <c r="B12" s="15" t="inlineStr">
         <is>
-          <t>TX HASH</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C12" s="15" t="inlineStr">
         <is>
-          <t>거래 해시 정보</t>
+          <t>운행거리</t>
         </is>
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -3054,7 +4711,7 @@
       </c>
       <c r="G12" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H12" s="15" t="inlineStr">
@@ -3062,56 +4719,39 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I12" s="15" t="inlineStr"/>
-      <c r="J12" s="15" t="inlineStr"/>
-      <c r="K12" s="15" t="inlineStr"/>
-      <c r="L12" s="15" t="inlineStr"/>
-      <c r="M12" s="15" t="inlineStr"/>
-      <c r="N12" s="15" t="inlineStr">
-        <is>
-          <t>2,759</t>
-        </is>
-      </c>
-      <c r="O12" s="15" t="inlineStr">
-        <is>
-          <t>0x789d1ef238766be3bf123ca9ea74234057bedb19e6a2fe90a03673216bbdec67,
-0xafa6fc06f6528061b8eda052d74eb644391a192f7e379f6863fe7f47bf461ec9,
-...,
-0x21de32a43af8284e71a26a7ca28c498be9a8076a6a20ba188aef18a85084cddf,
-0x9799c090a94003196f5206673f53bc4e854b5e456d3a5d80781f00fffc3f7598</t>
-        </is>
-      </c>
-      <c r="P12" s="15" t="inlineStr">
-        <is>
-          <t>0x789d1ef238766be3bf123ca9ea74234057bedb19e6a2fe90a03673216bbdec67: 0.036%,
-0xafa6fc06f6528061b8eda052d74eb644391a192f7e379f6863fe7f47bf461ec9: 0.036%,
-0x039a31f70ce0653abb2ff5b993cc53965738236563b8d315e5d30756e385ca56: 0.036%,
-0xc76288d470ac9bd0408ce8b2f92180930d3c8a2c8463921a728bb5395d48362c: 0.036%,
-0x143758c254a035777c621f252e4dab9a1157be947e004c82c8496d805109dd48: 0.036%,
-그 외: 99.819%</t>
-        </is>
-      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="K12" s="15" t="inlineStr">
+        <is>
+          <t>2.1894297553930255</t>
+        </is>
+      </c>
+      <c r="L12" s="15" t="inlineStr">
+        <is>
+          <t>1.1389369868597294</t>
+        </is>
+      </c>
+      <c r="M12" s="15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N12" s="15" t="inlineStr"/>
+      <c r="O12" s="15" t="inlineStr"/>
+      <c r="P12" s="15" t="inlineStr"/>
       <c r="Q12" s="15" t="inlineStr"/>
       <c r="R12" s="15" t="inlineStr"/>
-      <c r="S12" s="15" t="inlineStr">
-        <is>
-          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee,
-0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22,
-...</t>
-        </is>
-      </c>
-      <c r="T12" s="15" t="inlineStr">
-        <is>
-          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee: 1,
-0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22: 1</t>
-        </is>
-      </c>
-      <c r="U12" s="15" t="inlineStr">
-        <is>
-          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee: 0.04%,
-0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22: 0.04%</t>
-        </is>
-      </c>
+      <c r="S12" s="15" t="inlineStr"/>
+      <c r="T12" s="15" t="inlineStr"/>
+      <c r="U12" s="15" t="inlineStr"/>
       <c r="V12" s="15" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3122,17 +4762,17 @@
       </c>
       <c r="B13" s="15" t="inlineStr">
         <is>
-          <t>BLOCK #</t>
+          <t>cab_type</t>
         </is>
       </c>
       <c r="C13" s="15" t="inlineStr">
         <is>
-          <t>거래 블록 정보</t>
+          <t>택시유형</t>
         </is>
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>char</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -3147,7 +4787,7 @@
       </c>
       <c r="G13" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H13" s="15" t="inlineStr">
@@ -3162,47 +4802,43 @@
       <c r="M13" s="15" t="inlineStr"/>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
         <is>
-          <t>93304700,
-93304731,
-...,
-113179801,
-113282226</t>
+          <t>Lyft,
+Uber</t>
         </is>
       </c>
       <c r="P13" s="15" t="inlineStr">
         <is>
-          <t>93304700: 0.036%,
-93304731: 0.036%,
-93304987: 0.036%,
-93305965: 0.036%,
-93308887: 0.036%,
-그 외: 99.819%</t>
-        </is>
-      </c>
-      <c r="Q13" s="15" t="inlineStr"/>
-      <c r="R13" s="15" t="inlineStr"/>
+          <t>Lyft: 44.354%,
+Uber: 55.646%</t>
+        </is>
+      </c>
+      <c r="Q13" s="15" t="inlineStr">
+        <is>
+          <t>Lyft,
+Uber</t>
+        </is>
+      </c>
+      <c r="R13" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>93304700,
-93304731,
-...</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
         <is>
-          <t>93304700: 1,
-93304731: 1</t>
+          <t>Uber: 385,663</t>
         </is>
       </c>
       <c r="U13" s="15" t="inlineStr">
         <is>
-          <t>93304700: 0.04%,
-93304731: 0.04%</t>
+          <t>Uber: 55.65%</t>
         </is>
       </c>
       <c r="V13" s="15" t="inlineStr"/>
@@ -3215,17 +4851,17 @@
       </c>
       <c r="B14" s="15" t="inlineStr">
         <is>
-          <t>TIME(KST)</t>
+          <t>time_stamp</t>
         </is>
       </c>
       <c r="C14" s="15" t="inlineStr">
         <is>
-          <t>거래 일시</t>
+          <t>수집시간</t>
         </is>
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -3240,7 +4876,7 @@
       </c>
       <c r="G14" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H14" s="15" t="inlineStr">
@@ -3248,56 +4884,39 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I14" s="15" t="inlineStr"/>
-      <c r="J14" s="15" t="inlineStr"/>
-      <c r="K14" s="15" t="inlineStr"/>
-      <c r="L14" s="15" t="inlineStr"/>
-      <c r="M14" s="15" t="inlineStr"/>
-      <c r="N14" s="15" t="inlineStr">
-        <is>
-          <t>2,759</t>
-        </is>
-      </c>
-      <c r="O14" s="15" t="inlineStr">
-        <is>
-          <t>2022-06-14T18:01:29+09:00,
-2022-06-14T18:02:00+09:00,
-...,
-2023-01-30T22:54:09+09:00,
-2023-02-01T03:21:27+09:00</t>
-        </is>
-      </c>
-      <c r="P14" s="15" t="inlineStr">
-        <is>
-          <t>2022-06-14T18:01:29+09:00: 0.036%,
-2022-06-14T18:02:00+09:00: 0.036%,
-2022-06-14T18:06:16+09:00: 0.036%,
-2022-06-14T18:22:36+09:00: 0.036%,
-2022-06-14T19:11:20+09:00: 0.036%,
-그 외: 99.819%</t>
-        </is>
-      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>1543203646318</t>
+        </is>
+      </c>
+      <c r="J14" s="15" t="inlineStr">
+        <is>
+          <t>1545160510943</t>
+        </is>
+      </c>
+      <c r="K14" s="15" t="inlineStr">
+        <is>
+          <t>1544045709764.3572</t>
+        </is>
+      </c>
+      <c r="L14" s="15" t="inlineStr">
+        <is>
+          <t>689192492.4004105</t>
+        </is>
+      </c>
+      <c r="M14" s="15" t="inlineStr">
+        <is>
+          <t>1543737477529.0</t>
+        </is>
+      </c>
+      <c r="N14" s="15" t="inlineStr"/>
+      <c r="O14" s="15" t="inlineStr"/>
+      <c r="P14" s="15" t="inlineStr"/>
       <c r="Q14" s="15" t="inlineStr"/>
       <c r="R14" s="15" t="inlineStr"/>
-      <c r="S14" s="15" t="inlineStr">
-        <is>
-          <t>2022-06-14T18:01:29+09:00,
-2022-06-14T18:02:00+09:00,
-...</t>
-        </is>
-      </c>
-      <c r="T14" s="15" t="inlineStr">
-        <is>
-          <t>2022-06-14T18:01:29+09:00: 1,
-2022-06-14T18:02:00+09:00: 1</t>
-        </is>
-      </c>
-      <c r="U14" s="15" t="inlineStr">
-        <is>
-          <t>2022-06-14T18:01:29+09:00: 0.04%,
-2022-06-14T18:02:00+09:00: 0.04%</t>
-        </is>
-      </c>
+      <c r="S14" s="15" t="inlineStr"/>
+      <c r="T14" s="15" t="inlineStr"/>
+      <c r="U14" s="15" t="inlineStr"/>
       <c r="V14" s="15" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3308,12 +4927,12 @@
       </c>
       <c r="B15" s="15" t="inlineStr">
         <is>
-          <t>FROM</t>
+          <t>destination</t>
         </is>
       </c>
       <c r="C15" s="15" t="inlineStr">
         <is>
-          <t>토큰 출발 지갑 주소</t>
+          <t>도착지</t>
         </is>
       </c>
       <c r="D15" s="15" t="inlineStr">
@@ -3333,7 +4952,7 @@
       </c>
       <c r="G15" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H15" s="15" t="inlineStr">
@@ -3348,38 +4967,43 @@
       <c r="M15" s="15" t="inlineStr"/>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
         <is>
-          <t>0x8b40827ca57ea1515ba15636400292ae0c717d13,
-0x718d06fd054b51101c13d09ad24e50276701a2ab,
-0x33c72b721ef0195cbcd4256941ef81b1c65c2658</t>
+          <t>North Station,
+Northeastern University,
+...,
+Financial District,
+Boston University</t>
         </is>
       </c>
       <c r="P15" s="15" t="inlineStr">
         <is>
-          <t>0x8b40827ca57ea1515ba15636400292ae0c717d13: 0.036%,
-0x718d06fd054b51101c13d09ad24e50276701a2ab: 99.928%,
-0x33c72b721ef0195cbcd4256941ef81b1c65c2658: 0.036%</t>
+          <t>North Station: 8.241%,
+Northeastern University: 8.333%,
+West End: 8.307%,
+Haymarket Square: 8.334%,
+South Station: 8.332%,
+그 외: 58.451%</t>
         </is>
       </c>
       <c r="Q15" s="15" t="inlineStr"/>
       <c r="R15" s="15" t="inlineStr"/>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab</t>
+          <t>Financial District</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
         <is>
-          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 2,757</t>
+          <t>Financial District: 58,851</t>
         </is>
       </c>
       <c r="U15" s="15" t="inlineStr">
         <is>
-          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 99.93%</t>
+          <t>Financial District: 8.49%</t>
         </is>
       </c>
       <c r="V15" s="15" t="inlineStr"/>
@@ -3392,12 +5016,12 @@
       </c>
       <c r="B16" s="15" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C16" s="15" t="inlineStr">
         <is>
-          <t>토큰 도착 지갑 주소</t>
+          <t>출발지</t>
         </is>
       </c>
       <c r="D16" s="15" t="inlineStr">
@@ -3417,7 +5041,7 @@
       </c>
       <c r="G16" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H16" s="15" t="inlineStr">
@@ -3432,43 +5056,43 @@
       <c r="M16" s="15" t="inlineStr"/>
       <c r="N16" s="15" t="inlineStr">
         <is>
-          <t>1,574</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O16" s="15" t="inlineStr">
         <is>
-          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab,
-0xa585c4189ec2987e91ec6a3134ee2aca06ccc080,
+          <t>Haymarket Square,
+Back Bay,
 ...,
-0x42f30cec611ddb87b1baad50442d7cb7dfd520f1,
-0x22610d46d4590e8c24dc5bdff3d9c47bf5afffc3</t>
+Financial District,
+Northeastern University</t>
         </is>
       </c>
       <c r="P16" s="15" t="inlineStr">
         <is>
-          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 0.072%,
-0xa585c4189ec2987e91ec6a3134ee2aca06ccc080: 0.036%,
-0x2bce562445a71cc5bd9d6f0a4ae601873b08a083: 0.036%,
-0x1fa12dceae97d7d0d156273abde69c1d4d147173: 0.072%,
-0x394e9c1a8847f66475e33be4227da71ff9855e54: 0.036%,
-그 외: 99.746%</t>
+          <t>Haymarket Square: 8.330%,
+Back Bay: 8.339%,
+North End: 8.334%,
+North Station: 8.241%,
+Beacon Hill: 8.282%,
+그 외: 58.473%</t>
         </is>
       </c>
       <c r="Q16" s="15" t="inlineStr"/>
       <c r="R16" s="15" t="inlineStr"/>
       <c r="S16" s="15" t="inlineStr">
         <is>
-          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed</t>
+          <t>Financial District</t>
         </is>
       </c>
       <c r="T16" s="15" t="inlineStr">
         <is>
-          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed: 36</t>
+          <t>Financial District: 58,857</t>
         </is>
       </c>
       <c r="U16" s="15" t="inlineStr">
         <is>
-          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed: 1.30%</t>
+          <t>Financial District: 8.49%</t>
         </is>
       </c>
       <c r="V16" s="15" t="inlineStr"/>
@@ -3481,12 +5105,12 @@
       </c>
       <c r="B17" s="15" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>price</t>
         </is>
       </c>
       <c r="C17" s="15" t="inlineStr">
         <is>
-          <t>토큰 거래액</t>
+          <t>운행요금</t>
         </is>
       </c>
       <c r="D17" s="15" t="inlineStr">
@@ -3496,47 +5120,47 @@
       </c>
       <c r="E17" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55,095</t>
         </is>
       </c>
       <c r="F17" s="15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="G17" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>637,976</t>
         </is>
       </c>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>92.05%</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
         <is>
-          <t>49999.99999999999</t>
+          <t>97.5</t>
         </is>
       </c>
       <c r="K17" s="15" t="inlineStr">
         <is>
-          <t>35.08902029720913</t>
+          <t>16.545125490614065</t>
         </is>
       </c>
       <c r="L17" s="15" t="inlineStr">
         <is>
-          <t>970.8062488427979</t>
+          <t>9.324358581411627</t>
         </is>
       </c>
       <c r="M17" s="15" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="N17" s="15" t="inlineStr"/>
@@ -3557,17 +5181,17 @@
       </c>
       <c r="B18" s="15" t="inlineStr">
         <is>
-          <t>TOKEN ADDRESS</t>
+          <t>surge_multiplier</t>
         </is>
       </c>
       <c r="C18" s="15" t="inlineStr">
         <is>
-          <t>토큰 주소 해시 정보</t>
+          <t>요금배율</t>
         </is>
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -3582,7 +5206,7 @@
       </c>
       <c r="G18" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H18" s="15" t="inlineStr">
@@ -3590,43 +5214,39 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I18" s="15" t="inlineStr"/>
-      <c r="J18" s="15" t="inlineStr"/>
-      <c r="K18" s="15" t="inlineStr"/>
-      <c r="L18" s="15" t="inlineStr"/>
-      <c r="M18" s="15" t="inlineStr"/>
-      <c r="N18" s="15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O18" s="15" t="inlineStr">
-        <is>
-          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818</t>
-        </is>
-      </c>
-      <c r="P18" s="15" t="inlineStr">
-        <is>
-          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 100.000%</t>
-        </is>
-      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J18" s="15" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K18" s="15" t="inlineStr">
+        <is>
+          <t>1.0138697911180816</t>
+        </is>
+      </c>
+      <c r="L18" s="15" t="inlineStr">
+        <is>
+          <t>0.09164126209924149</t>
+        </is>
+      </c>
+      <c r="M18" s="15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N18" s="15" t="inlineStr"/>
+      <c r="O18" s="15" t="inlineStr"/>
+      <c r="P18" s="15" t="inlineStr"/>
       <c r="Q18" s="15" t="inlineStr"/>
       <c r="R18" s="15" t="inlineStr"/>
-      <c r="S18" s="15" t="inlineStr">
-        <is>
-          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818</t>
-        </is>
-      </c>
-      <c r="T18" s="15" t="inlineStr">
-        <is>
-          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 2,759</t>
-        </is>
-      </c>
-      <c r="U18" s="15" t="inlineStr">
-        <is>
-          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 100.00%</t>
-        </is>
-      </c>
+      <c r="S18" s="15" t="inlineStr"/>
+      <c r="T18" s="15" t="inlineStr"/>
+      <c r="U18" s="15" t="inlineStr"/>
       <c r="V18" s="15" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3637,12 +5257,12 @@
       </c>
       <c r="B19" s="15" t="inlineStr">
         <is>
-          <t>TOKEN NAME</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C19" s="15" t="inlineStr">
         <is>
-          <t>토큰명</t>
+          <t>고유ID</t>
         </is>
       </c>
       <c r="D19" s="15" t="inlineStr">
@@ -3662,7 +5282,7 @@
       </c>
       <c r="G19" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H19" s="15" t="inlineStr">
@@ -3677,34 +5297,47 @@
       <c r="M19" s="15" t="inlineStr"/>
       <c r="N19" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="O19" s="15" t="inlineStr">
         <is>
-          <t>Continue Token</t>
+          <t>424553bb-7174-41ea-aeb4-fe06d4f4b9d7,
+4bd23055-6827-41c6-b23b-3c491f24e74d,
+...,
+727e5f07-a96b-4ad1-a2c7-9abc3ad55b4e,
+e7fdc087-fe86-40a5-a3c3-3b2a8badcbda</t>
         </is>
       </c>
       <c r="P19" s="15" t="inlineStr">
         <is>
-          <t>Continue Token: 100.000%</t>
+          <t>424553bb-7174-41ea-aeb4-fe06d4f4b9d7: 0.000%,
+4bd23055-6827-41c6-b23b-3c491f24e74d: 0.000%,
+981a3613-77af-4620-a42a-0c0866077d1e: 0.000%,
+c2d88af2-d278-4bfd-a8d0-29ca77cc5512: 0.000%,
+e0126e1f-8ca9-4f2e-82b3-50505a09db9a: 0.000%,
+그 외: 99.999%</t>
         </is>
       </c>
       <c r="Q19" s="15" t="inlineStr"/>
       <c r="R19" s="15" t="inlineStr"/>
       <c r="S19" s="15" t="inlineStr">
         <is>
-          <t>Continue Token</t>
+          <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3,
+00006eeb-0183-40c1-8198-c441d3c8a734,
+...</t>
         </is>
       </c>
       <c r="T19" s="15" t="inlineStr">
         <is>
-          <t>Continue Token: 2,759</t>
+          <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3: 1,
+00006eeb-0183-40c1-8198-c441d3c8a734: 1</t>
         </is>
       </c>
       <c r="U19" s="15" t="inlineStr">
         <is>
-          <t>Continue Token: 100.00%</t>
+          <t>00005b8c-5647-4104-9ac6-94fa6a40f3c3: 0.00%,
+00006eeb-0183-40c1-8198-c441d3c8a734: 0.00%</t>
         </is>
       </c>
       <c r="V19" s="15" t="inlineStr"/>
@@ -3717,12 +5350,12 @@
       </c>
       <c r="B20" s="15" t="inlineStr">
         <is>
-          <t>TOKEN SYMBOL</t>
+          <t>product_id</t>
         </is>
       </c>
       <c r="C20" s="15" t="inlineStr">
         <is>
-          <t>토큰 기호</t>
+          <t>회사별고유ID</t>
         </is>
       </c>
       <c r="D20" s="15" t="inlineStr">
@@ -3742,7 +5375,7 @@
       </c>
       <c r="G20" s="15" t="inlineStr">
         <is>
-          <t>2,759</t>
+          <t>693,071</t>
         </is>
       </c>
       <c r="H20" s="15" t="inlineStr">
@@ -3757,37 +5390,147 @@
       <c r="M20" s="15" t="inlineStr"/>
       <c r="N20" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O20" s="15" t="inlineStr">
         <is>
-          <t>CNT</t>
+          <t>lyft_line,
+lyft_premier,
+...,
+997acbb5-e102-41e1-b155-9df7de0a73f2,
+8cf7e821-f0d3-49c6-8eba-e679c0ebcf6a</t>
         </is>
       </c>
       <c r="P20" s="15" t="inlineStr">
         <is>
-          <t>CNT: 100.000%</t>
+          <t>lyft_line: 7.392%,
+lyft_premier: 7.392%,
+lyft: 7.392%,
+lyft_luxsuv: 7.392%,
+lyft_plus: 7.392%,
+그 외: 63.038%</t>
         </is>
       </c>
       <c r="Q20" s="15" t="inlineStr"/>
       <c r="R20" s="15" t="inlineStr"/>
       <c r="S20" s="15" t="inlineStr">
         <is>
-          <t>CNT</t>
+          <t>6d318bcc-22a3-4af6-bddd-b409bfce1546,
+6f72dfc5-27f1-42e8-84db-ccc7a75f6969,
+9a0e7b09-b92b-4c41-9779-2ad22b4d779d</t>
         </is>
       </c>
       <c r="T20" s="15" t="inlineStr">
         <is>
-          <t>CNT: 2,759</t>
+          <t>6d318bcc-22a3-4af6-bddd-b409bfce1546: 55,096,
+6f72dfc5-27f1-42e8-84db-ccc7a75f6969: 55,096,
+9a0e7b09-b92b-4c41-9779-2ad22b4d779d: 55,096</t>
         </is>
       </c>
       <c r="U20" s="15" t="inlineStr">
         <is>
-          <t>CNT: 100.00%</t>
+          <t>6d318bcc-22a3-4af6-bddd-b409bfce1546: 7.95%,
+6f72dfc5-27f1-42e8-84db-ccc7a75f6969: 7.95%,
+9a0e7b09-b92b-4c41-9779-2ad22b4d779d: 7.95%</t>
         </is>
       </c>
       <c r="V20" s="15" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="B21" s="15" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>회사명</t>
+        </is>
+      </c>
+      <c r="D21" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G21" s="15" t="inlineStr">
+        <is>
+          <t>693,071</t>
+        </is>
+      </c>
+      <c r="H21" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="inlineStr"/>
+      <c r="J21" s="15" t="inlineStr"/>
+      <c r="K21" s="15" t="inlineStr"/>
+      <c r="L21" s="15" t="inlineStr"/>
+      <c r="M21" s="15" t="inlineStr"/>
+      <c r="N21" s="15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O21" s="15" t="inlineStr">
+        <is>
+          <t>Shared,
+Lux,
+...,
+UberPool,
+Taxi</t>
+        </is>
+      </c>
+      <c r="P21" s="15" t="inlineStr">
+        <is>
+          <t>Shared: 7.392%,
+Lux: 7.392%,
+Lyft: 7.392%,
+Lux Black XL: 7.392%,
+Lyft XL: 7.392%,
+그 외: 63.038%</t>
+        </is>
+      </c>
+      <c r="Q21" s="15" t="inlineStr"/>
+      <c r="R21" s="15" t="inlineStr"/>
+      <c r="S21" s="15" t="inlineStr">
+        <is>
+          <t>Black SUV,
+UberXL,
+WAV</t>
+        </is>
+      </c>
+      <c r="T21" s="15" t="inlineStr">
+        <is>
+          <t>Black SUV: 55,096,
+UberXL: 55,096,
+WAV: 55,096</t>
+        </is>
+      </c>
+      <c r="U21" s="15" t="inlineStr">
+        <is>
+          <t>Black SUV: 7.95%,
+UberXL: 7.95%,
+WAV: 7.95%</t>
+        </is>
+      </c>
+      <c r="V21" s="15" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3854,6 +5597,1055 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
+          <t>CNT_TX_HISTORY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>테이블 한글명</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Continue 토큰 거래 내역 데이터 테이블</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>테이블 상세</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>테이블 용량</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>테이블 기간</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>테이블 크기</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>(2759, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>컬럼 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>공통</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>연속형</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="11" t="inlineStr">
+        <is>
+          <t>범주형</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="9" t="n"/>
+      <c r="V10" s="7" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 영문명</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>컬럼 한글명</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>데이터 타입</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>null 개수</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>%null</t>
+        </is>
+      </c>
+      <c r="G11" s="12" t="inlineStr">
+        <is>
+          <t>적재건수</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>%적재건수</t>
+        </is>
+      </c>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>최솟값</t>
+        </is>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>최댓값</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>평균</t>
+        </is>
+      </c>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>표준편차</t>
+        </is>
+      </c>
+      <c r="M11" s="13" t="inlineStr">
+        <is>
+          <t>중위수</t>
+        </is>
+      </c>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>범주수</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>범주</t>
+        </is>
+      </c>
+      <c r="P11" s="14" t="inlineStr">
+        <is>
+          <t>%범주</t>
+        </is>
+      </c>
+      <c r="Q11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외</t>
+        </is>
+      </c>
+      <c r="R11" s="14" t="inlineStr">
+        <is>
+          <t>정의된 범주 외 수</t>
+        </is>
+      </c>
+      <c r="S11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값</t>
+        </is>
+      </c>
+      <c r="T11" s="14" t="inlineStr">
+        <is>
+          <t>최빈값 수</t>
+        </is>
+      </c>
+      <c r="U11" s="14" t="inlineStr">
+        <is>
+          <t>%최빈값</t>
+        </is>
+      </c>
+      <c r="V11" s="12" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="inlineStr">
+        <is>
+          <t>TX HASH</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>거래 해시 정보</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H12" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr"/>
+      <c r="J12" s="15" t="inlineStr"/>
+      <c r="K12" s="15" t="inlineStr"/>
+      <c r="L12" s="15" t="inlineStr"/>
+      <c r="M12" s="15" t="inlineStr"/>
+      <c r="N12" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="O12" s="15" t="inlineStr">
+        <is>
+          <t>0x789d1ef238766be3bf123ca9ea74234057bedb19e6a2fe90a03673216bbdec67,
+0xafa6fc06f6528061b8eda052d74eb644391a192f7e379f6863fe7f47bf461ec9,
+...,
+0x21de32a43af8284e71a26a7ca28c498be9a8076a6a20ba188aef18a85084cddf,
+0x9799c090a94003196f5206673f53bc4e854b5e456d3a5d80781f00fffc3f7598</t>
+        </is>
+      </c>
+      <c r="P12" s="15" t="inlineStr">
+        <is>
+          <t>0x789d1ef238766be3bf123ca9ea74234057bedb19e6a2fe90a03673216bbdec67: 0.036%,
+0xafa6fc06f6528061b8eda052d74eb644391a192f7e379f6863fe7f47bf461ec9: 0.036%,
+0x039a31f70ce0653abb2ff5b993cc53965738236563b8d315e5d30756e385ca56: 0.036%,
+0xc76288d470ac9bd0408ce8b2f92180930d3c8a2c8463921a728bb5395d48362c: 0.036%,
+0x143758c254a035777c621f252e4dab9a1157be947e004c82c8496d805109dd48: 0.036%,
+그 외: 99.819%</t>
+        </is>
+      </c>
+      <c r="Q12" s="15" t="inlineStr"/>
+      <c r="R12" s="15" t="inlineStr"/>
+      <c r="S12" s="15" t="inlineStr">
+        <is>
+          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee,
+0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22,
+...</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
+        <is>
+          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee: 1,
+0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22: 1</t>
+        </is>
+      </c>
+      <c r="U12" s="15" t="inlineStr">
+        <is>
+          <t>0x002da29c18d6e113a5c0a6d6d96923de597b0867dfa730dd6c50b176cf26bcee: 0.04%,
+0x0041567a5261d1046560a1596d41866b85f74d6b5daa9a24a049cfbd6b145f22: 0.04%</t>
+        </is>
+      </c>
+      <c r="V12" s="15" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B13" s="15" t="inlineStr">
+        <is>
+          <t>BLOCK #</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>거래 블록 정보</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr"/>
+      <c r="J13" s="15" t="inlineStr"/>
+      <c r="K13" s="15" t="inlineStr"/>
+      <c r="L13" s="15" t="inlineStr"/>
+      <c r="M13" s="15" t="inlineStr"/>
+      <c r="N13" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="O13" s="15" t="inlineStr">
+        <is>
+          <t>93304700,
+93304731,
+...,
+113179801,
+113282226</t>
+        </is>
+      </c>
+      <c r="P13" s="15" t="inlineStr">
+        <is>
+          <t>93304700: 0.036%,
+93304731: 0.036%,
+93304987: 0.036%,
+93305965: 0.036%,
+93308887: 0.036%,
+그 외: 99.819%</t>
+        </is>
+      </c>
+      <c r="Q13" s="15" t="inlineStr"/>
+      <c r="R13" s="15" t="inlineStr"/>
+      <c r="S13" s="15" t="inlineStr">
+        <is>
+          <t>93304700,
+93304731,
+...</t>
+        </is>
+      </c>
+      <c r="T13" s="15" t="inlineStr">
+        <is>
+          <t>93304700: 1,
+93304731: 1</t>
+        </is>
+      </c>
+      <c r="U13" s="15" t="inlineStr">
+        <is>
+          <t>93304700: 0.04%,
+93304731: 0.04%</t>
+        </is>
+      </c>
+      <c r="V13" s="15" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>TIME(KST)</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>거래 일시</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr"/>
+      <c r="J14" s="15" t="inlineStr"/>
+      <c r="K14" s="15" t="inlineStr"/>
+      <c r="L14" s="15" t="inlineStr"/>
+      <c r="M14" s="15" t="inlineStr"/>
+      <c r="N14" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="O14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00,
+2022-06-14T18:02:00+09:00,
+...,
+2023-01-30T22:54:09+09:00,
+2023-02-01T03:21:27+09:00</t>
+        </is>
+      </c>
+      <c r="P14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00: 0.036%,
+2022-06-14T18:02:00+09:00: 0.036%,
+2022-06-14T18:06:16+09:00: 0.036%,
+2022-06-14T18:22:36+09:00: 0.036%,
+2022-06-14T19:11:20+09:00: 0.036%,
+그 외: 99.819%</t>
+        </is>
+      </c>
+      <c r="Q14" s="15" t="inlineStr"/>
+      <c r="R14" s="15" t="inlineStr"/>
+      <c r="S14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00,
+2022-06-14T18:02:00+09:00,
+...</t>
+        </is>
+      </c>
+      <c r="T14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00: 1,
+2022-06-14T18:02:00+09:00: 1</t>
+        </is>
+      </c>
+      <c r="U14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00: 0.04%,
+2022-06-14T18:02:00+09:00: 0.04%</t>
+        </is>
+      </c>
+      <c r="V14" s="15" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>토큰 출발 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I15" s="15" t="inlineStr"/>
+      <c r="J15" s="15" t="inlineStr"/>
+      <c r="K15" s="15" t="inlineStr"/>
+      <c r="L15" s="15" t="inlineStr"/>
+      <c r="M15" s="15" t="inlineStr"/>
+      <c r="N15" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O15" s="15" t="inlineStr">
+        <is>
+          <t>0x8b40827ca57ea1515ba15636400292ae0c717d13,
+0x718d06fd054b51101c13d09ad24e50276701a2ab,
+0x33c72b721ef0195cbcd4256941ef81b1c65c2658</t>
+        </is>
+      </c>
+      <c r="P15" s="15" t="inlineStr">
+        <is>
+          <t>0x8b40827ca57ea1515ba15636400292ae0c717d13: 0.036%,
+0x718d06fd054b51101c13d09ad24e50276701a2ab: 99.928%,
+0x33c72b721ef0195cbcd4256941ef81b1c65c2658: 0.036%</t>
+        </is>
+      </c>
+      <c r="Q15" s="15" t="inlineStr"/>
+      <c r="R15" s="15" t="inlineStr"/>
+      <c r="S15" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab</t>
+        </is>
+      </c>
+      <c r="T15" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 2,757</t>
+        </is>
+      </c>
+      <c r="U15" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 99.93%</t>
+        </is>
+      </c>
+      <c r="V15" s="15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>토큰 도착 지갑 주소</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H16" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr"/>
+      <c r="J16" s="15" t="inlineStr"/>
+      <c r="K16" s="15" t="inlineStr"/>
+      <c r="L16" s="15" t="inlineStr"/>
+      <c r="M16" s="15" t="inlineStr"/>
+      <c r="N16" s="15" t="inlineStr">
+        <is>
+          <t>1,574</t>
+        </is>
+      </c>
+      <c r="O16" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab,
+0xa585c4189ec2987e91ec6a3134ee2aca06ccc080,
+...,
+0x42f30cec611ddb87b1baad50442d7cb7dfd520f1,
+0x22610d46d4590e8c24dc5bdff3d9c47bf5afffc3</t>
+        </is>
+      </c>
+      <c r="P16" s="15" t="inlineStr">
+        <is>
+          <t>0x718d06fd054b51101c13d09ad24e50276701a2ab: 0.072%,
+0xa585c4189ec2987e91ec6a3134ee2aca06ccc080: 0.036%,
+0x2bce562445a71cc5bd9d6f0a4ae601873b08a083: 0.036%,
+0x1fa12dceae97d7d0d156273abde69c1d4d147173: 0.072%,
+0x394e9c1a8847f66475e33be4227da71ff9855e54: 0.036%,
+그 외: 99.746%</t>
+        </is>
+      </c>
+      <c r="Q16" s="15" t="inlineStr"/>
+      <c r="R16" s="15" t="inlineStr"/>
+      <c r="S16" s="15" t="inlineStr">
+        <is>
+          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed</t>
+        </is>
+      </c>
+      <c r="T16" s="15" t="inlineStr">
+        <is>
+          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed: 36</t>
+        </is>
+      </c>
+      <c r="U16" s="15" t="inlineStr">
+        <is>
+          <t>0x2fabb26b3ab4a52a3c551cb597ff1447b3f8f8ed: 1.30%</t>
+        </is>
+      </c>
+      <c r="V16" s="15" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>토큰 거래액</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J17" s="15" t="inlineStr">
+        <is>
+          <t>49999.99999999999</t>
+        </is>
+      </c>
+      <c r="K17" s="15" t="inlineStr">
+        <is>
+          <t>35.08902029720913</t>
+        </is>
+      </c>
+      <c r="L17" s="15" t="inlineStr">
+        <is>
+          <t>970.8062488427979</t>
+        </is>
+      </c>
+      <c r="M17" s="15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="N17" s="15" t="inlineStr"/>
+      <c r="O17" s="15" t="inlineStr"/>
+      <c r="P17" s="15" t="inlineStr"/>
+      <c r="Q17" s="15" t="inlineStr"/>
+      <c r="R17" s="15" t="inlineStr"/>
+      <c r="S17" s="15" t="inlineStr"/>
+      <c r="T17" s="15" t="inlineStr"/>
+      <c r="U17" s="15" t="inlineStr"/>
+      <c r="V17" s="15" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN ADDRESS</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>토큰 주소 해시 정보</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr"/>
+      <c r="J18" s="15" t="inlineStr"/>
+      <c r="K18" s="15" t="inlineStr"/>
+      <c r="L18" s="15" t="inlineStr"/>
+      <c r="M18" s="15" t="inlineStr"/>
+      <c r="N18" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818</t>
+        </is>
+      </c>
+      <c r="P18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q18" s="15" t="inlineStr"/>
+      <c r="R18" s="15" t="inlineStr"/>
+      <c r="S18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818</t>
+        </is>
+      </c>
+      <c r="T18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 2,759</t>
+        </is>
+      </c>
+      <c r="U18" s="15" t="inlineStr">
+        <is>
+          <t>0x5ab03cdb98ec84846a418d4c7cb1d481a1ef5818: 100.00%</t>
+        </is>
+      </c>
+      <c r="V18" s="15" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B19" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN NAME</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>토큰명</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr"/>
+      <c r="J19" s="15" t="inlineStr"/>
+      <c r="K19" s="15" t="inlineStr"/>
+      <c r="L19" s="15" t="inlineStr"/>
+      <c r="M19" s="15" t="inlineStr"/>
+      <c r="N19" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token</t>
+        </is>
+      </c>
+      <c r="P19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q19" s="15" t="inlineStr"/>
+      <c r="R19" s="15" t="inlineStr"/>
+      <c r="S19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token</t>
+        </is>
+      </c>
+      <c r="T19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token: 2,759</t>
+        </is>
+      </c>
+      <c r="U19" s="15" t="inlineStr">
+        <is>
+          <t>Continue Token: 100.00%</t>
+        </is>
+      </c>
+      <c r="V19" s="15" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>TOKEN SYMBOL</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>토큰 기호</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="inlineStr">
+        <is>
+          <t>varchar</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G20" s="15" t="inlineStr">
+        <is>
+          <t>2,759</t>
+        </is>
+      </c>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr"/>
+      <c r="J20" s="15" t="inlineStr"/>
+      <c r="K20" s="15" t="inlineStr"/>
+      <c r="L20" s="15" t="inlineStr"/>
+      <c r="M20" s="15" t="inlineStr"/>
+      <c r="N20" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O20" s="15" t="inlineStr">
+        <is>
+          <t>CNT</t>
+        </is>
+      </c>
+      <c r="P20" s="15" t="inlineStr">
+        <is>
+          <t>CNT: 100.000%</t>
+        </is>
+      </c>
+      <c r="Q20" s="15" t="inlineStr"/>
+      <c r="R20" s="15" t="inlineStr"/>
+      <c r="S20" s="15" t="inlineStr">
+        <is>
+          <t>CNT</t>
+        </is>
+      </c>
+      <c r="T20" s="15" t="inlineStr">
+        <is>
+          <t>CNT: 2,759</t>
+        </is>
+      </c>
+      <c r="U20" s="15" t="inlineStr">
+        <is>
+          <t>CNT: 100.00%</t>
+        </is>
+      </c>
+      <c r="V20" s="15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N10:U10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>테이블 정보</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>스키마명</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>ITAMPRD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>테이블 영문명</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
           <t>ZTC_TX_HISTORY</t>
         </is>
       </c>

--- a/output/QC결과서.xlsx
+++ b/output/QC결과서.xlsx
@@ -170,13 +170,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -588,12 +588,8 @@
           <t>스키마명</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>스키마명</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="5" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -601,12 +597,8 @@
           <t>테이블 영문명</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>테이블 영문명</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>원자재_종가_데이터</t>
         </is>
@@ -618,12 +610,8 @@
           <t>테이블 한글명</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>테이블 한글명</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -631,30 +619,30 @@
           <t>테이블 상세</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>테이블 용량</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>테이블 기간</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>테이블 크기</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>(1299, 32)</t>
         </is>
@@ -3339,13 +3327,16 @@
       <c r="V43" s="15" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="N10:U10"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3379,14 +3370,10 @@
           <t>스키마명</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>스키마명</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>ITAMPRD</t>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>DBSCHEMA</t>
         </is>
       </c>
     </row>
@@ -3396,12 +3383,8 @@
           <t>테이블 영문명</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>테이블 영문명</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>ZBZ_TX_HISTORY</t>
         </is>
@@ -3413,12 +3396,8 @@
           <t>테이블 한글명</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>테이블 한글명</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Zombiz 토큰 거래 내역 데이터 테이블</t>
         </is>
@@ -3430,30 +3409,30 @@
           <t>테이블 상세</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>테이블 용량</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>테이블 기간</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>테이블 크기</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>(851, 9)</t>
         </is>
@@ -4398,13 +4377,16 @@
       <c r="V20" s="15" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="N10:U10"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4438,14 +4420,10 @@
           <t>스키마명</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>스키마명</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>ITAMPRD</t>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>DBSCHEMA</t>
         </is>
       </c>
     </row>
@@ -4455,12 +4433,8 @@
           <t>테이블 영문명</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>테이블 영문명</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>CAB_RIDES</t>
         </is>
@@ -4472,12 +4446,8 @@
           <t>테이블 한글명</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>테이블 한글명</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>택시운행정보</t>
         </is>
@@ -4489,30 +4459,30 @@
           <t>테이블 상세</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>테이블 용량</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>테이블 기간</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>테이블 크기</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>(693071, 10)</t>
         </is>
@@ -5533,13 +5503,16 @@
       <c r="V21" s="15" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="N10:U10"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5573,14 +5546,10 @@
           <t>스키마명</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>스키마명</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>ITAMPRD</t>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>DBSCHEMA</t>
         </is>
       </c>
     </row>
@@ -5590,12 +5559,8 @@
           <t>테이블 영문명</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>테이블 영문명</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>CNT_TX_HISTORY</t>
         </is>
@@ -5607,12 +5572,8 @@
           <t>테이블 한글명</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>테이블 한글명</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Continue 토큰 거래 내역 데이터 테이블</t>
         </is>
@@ -5624,30 +5585,30 @@
           <t>테이블 상세</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>테이블 용량</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>테이블 기간</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>테이블 크기</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>(2759, 9)</t>
         </is>
@@ -6017,7 +5978,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -6040,8 +6001,16 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I14" s="15" t="inlineStr"/>
-      <c r="J14" s="15" t="inlineStr"/>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>2022-06-14T18:01:29+09:00</t>
+        </is>
+      </c>
+      <c r="J14" s="15" t="inlineStr">
+        <is>
+          <t>2023-02-01T03:21:27+09:00</t>
+        </is>
+      </c>
       <c r="K14" s="15" t="inlineStr"/>
       <c r="L14" s="15" t="inlineStr"/>
       <c r="M14" s="15" t="inlineStr"/>
@@ -6582,13 +6551,16 @@
       <c r="V20" s="15" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="N10:U10"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6622,14 +6594,10 @@
           <t>스키마명</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>스키마명</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>ITAMPRD</t>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>DBSCHEMA</t>
         </is>
       </c>
     </row>
@@ -6639,12 +6607,8 @@
           <t>테이블 영문명</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>테이블 영문명</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>ZTC_TX_HISTORY</t>
         </is>
@@ -6656,12 +6620,8 @@
           <t>테이블 한글명</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>테이블 한글명</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Zattera 토큰 거래 내역 데이터 테이블</t>
         </is>
@@ -6673,30 +6633,30 @@
           <t>테이블 상세</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>테이블 용량</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>테이블 기간</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>테이블 크기</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>(70067, 9)</t>
         </is>
@@ -7062,7 +7022,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>varchar</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -7085,8 +7045,16 @@
           <t>100.00%</t>
         </is>
       </c>
-      <c r="I14" s="15" t="inlineStr"/>
-      <c r="J14" s="15" t="inlineStr"/>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>2022-05-17 01:52:37+09:00</t>
+        </is>
+      </c>
+      <c r="J14" s="15" t="inlineStr">
+        <is>
+          <t>2023-02-06 22:58:44+09:00</t>
+        </is>
+      </c>
       <c r="K14" s="15" t="inlineStr"/>
       <c r="L14" s="15" t="inlineStr"/>
       <c r="M14" s="15" t="inlineStr"/>
@@ -7625,13 +7593,16 @@
       <c r="V20" s="15" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="N10:U10"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
